--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat phieu nhap kho/WF0011 Cap nhat phieu nhap kho.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat phieu nhap kho/WF0011 Cap nhat phieu nhap kho.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Cap nhat phieu nhap kho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,11 +26,11 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Code Standar'!$A$1:$D$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Data Difination'!$A$1:$J$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Input'!$A$1:$Q$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Input'!$A$1:$S$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Form Func Spec'!$A$1:$K$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Func Spec'!$A$1:$K$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Help!$A$1:$Q$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$J$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$L$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Item Screen'!$A$1:$N$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Layout Screen'!$A$1:$J$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Update History'!$A$1:$J$14</definedName>
@@ -952,7 +952,7 @@
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -966,7 +966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -980,7 +980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1004,20 +1004,6 @@
             <family val="2"/>
           </rPr>
           <t>Người cập nhật tài liệu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tên màn hình
-</t>
         </r>
       </text>
     </comment>
@@ -1039,22 +1025,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Ngày tạo tài liệu</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Tên màn hình
 </t>
         </r>
       </text>
@@ -1083,7 +1059,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ngày tạo tài liệu</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1096,10 +1096,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1112,7 +1112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1134,7 +1134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1147,7 +1147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1387,7 +1387,7 @@
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1401,7 +1401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1415,7 +1415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1429,7 +1429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1439,20 +1439,6 @@
             <family val="2"/>
           </rPr>
           <t>Người cập nhật tài liệu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tên màn hình
-</t>
         </r>
       </text>
     </comment>
@@ -1474,22 +1460,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Ngày tạo tài liệu</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Tên màn hình
 </t>
         </r>
       </text>
@@ -1518,7 +1494,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ngày tạo tài liệu</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1535,7 +1535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1550,7 +1550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1568,7 +1568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1582,7 +1582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="O4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1596,7 +1596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="P4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1610,7 +1610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="1" shapeId="0">
+    <comment ref="R4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1634,7 +1634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1952,7 +1952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="323">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3438,6 +3438,12 @@
     <t>CustomizeIndex = 51: Click LinkEdit  thực thi câu @SQL009 kiểm tra điều kiện IsWeb 
 + Nếu =1 Warn message WFML000186, Click Ok thực hiện @SQL004 load Form WF0011 Chỉ Enabled trường Description , RefNo01, RefNo02, ActualQuantity, Ana01ID, Ana02ID, Ana03ID, Ana04ID, Ana05ID, Ana06ID, Ana07ID, Ana08ID, Ana09ID, Ana10ID, PeriodID, ProductID để sửa còn lại Disabled. Click No thoát ra 
 + Nếu =0 thực thi @SQL004 load giá trị cho Form WF0011</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>CustomizeIndex</t>
   </si>
 </sst>
 </file>
@@ -3906,7 +3912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="371">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4676,6 +4682,51 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4733,44 +4784,23 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4796,24 +4826,6 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4871,6 +4883,33 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4909,33 +4948,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5572,10 +5584,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="284" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="301"/>
+      <c r="B1" s="284"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -5602,8 +5614,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="301"/>
-      <c r="B2" s="301"/>
+      <c r="A2" s="284"/>
+      <c r="B2" s="284"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -5654,14 +5666,14 @@
       <c r="D4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="302" t="s">
+      <c r="E4" s="285" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="302"/>
-      <c r="G4" s="302"/>
-      <c r="H4" s="302"/>
-      <c r="I4" s="302"/>
-      <c r="J4" s="302"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285"/>
+      <c r="H4" s="285"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="285"/>
     </row>
     <row r="5" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -5678,14 +5690,14 @@
         <f>H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="E5" s="303" t="s">
+      <c r="E5" s="286" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="304"/>
-      <c r="J5" s="304"/>
+      <c r="F5" s="287"/>
+      <c r="G5" s="287"/>
+      <c r="H5" s="287"/>
+      <c r="I5" s="287"/>
+      <c r="J5" s="287"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -5700,14 +5712,14 @@
       <c r="D6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="305" t="s">
+      <c r="E6" s="288" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="306"/>
-      <c r="G6" s="306"/>
-      <c r="H6" s="306"/>
-      <c r="I6" s="306"/>
-      <c r="J6" s="307"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="289"/>
+      <c r="I6" s="289"/>
+      <c r="J6" s="290"/>
     </row>
     <row r="7" spans="1:10" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="187">
@@ -5722,14 +5734,14 @@
       <c r="D7" s="190" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="308" t="s">
+      <c r="E7" s="291" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="309"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="309"/>
-      <c r="I7" s="309"/>
-      <c r="J7" s="310"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="293"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -5744,14 +5756,14 @@
       <c r="D8" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="298" t="s">
+      <c r="E8" s="281" t="s">
         <v>279</v>
       </c>
-      <c r="F8" s="299"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="300"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="282"/>
+      <c r="H8" s="282"/>
+      <c r="I8" s="282"/>
+      <c r="J8" s="283"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -5766,14 +5778,14 @@
       <c r="D9" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="280" t="s">
+      <c r="E9" s="295" t="s">
         <v>300</v>
       </c>
-      <c r="F9" s="281"/>
-      <c r="G9" s="281"/>
-      <c r="H9" s="281"/>
-      <c r="I9" s="281"/>
-      <c r="J9" s="282"/>
+      <c r="F9" s="296"/>
+      <c r="G9" s="296"/>
+      <c r="H9" s="296"/>
+      <c r="I9" s="296"/>
+      <c r="J9" s="297"/>
     </row>
     <row r="10" spans="1:10" s="30" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -5788,14 +5800,14 @@
       <c r="D10" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="E10" s="283" t="s">
+      <c r="E10" s="298" t="s">
         <v>318</v>
       </c>
-      <c r="F10" s="284"/>
-      <c r="G10" s="284"/>
-      <c r="H10" s="284"/>
-      <c r="I10" s="284"/>
-      <c r="J10" s="285"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="299"/>
+      <c r="H10" s="299"/>
+      <c r="I10" s="299"/>
+      <c r="J10" s="300"/>
     </row>
     <row r="11" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5806,12 +5818,12 @@
       </c>
       <c r="C11" s="116"/>
       <c r="D11" s="117"/>
-      <c r="E11" s="286"/>
-      <c r="F11" s="287"/>
-      <c r="G11" s="287"/>
-      <c r="H11" s="287"/>
-      <c r="I11" s="287"/>
-      <c r="J11" s="288"/>
+      <c r="E11" s="301"/>
+      <c r="F11" s="302"/>
+      <c r="G11" s="302"/>
+      <c r="H11" s="302"/>
+      <c r="I11" s="302"/>
+      <c r="J11" s="303"/>
     </row>
     <row r="12" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -5822,12 +5834,12 @@
       </c>
       <c r="C12" s="119"/>
       <c r="D12" s="120"/>
-      <c r="E12" s="289"/>
-      <c r="F12" s="290"/>
-      <c r="G12" s="290"/>
-      <c r="H12" s="290"/>
-      <c r="I12" s="290"/>
-      <c r="J12" s="291"/>
+      <c r="E12" s="304"/>
+      <c r="F12" s="305"/>
+      <c r="G12" s="305"/>
+      <c r="H12" s="305"/>
+      <c r="I12" s="305"/>
+      <c r="J12" s="306"/>
     </row>
     <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -5838,12 +5850,12 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="292"/>
-      <c r="F13" s="293"/>
-      <c r="G13" s="293"/>
-      <c r="H13" s="293"/>
-      <c r="I13" s="293"/>
-      <c r="J13" s="294"/>
+      <c r="E13" s="307"/>
+      <c r="F13" s="308"/>
+      <c r="G13" s="308"/>
+      <c r="H13" s="308"/>
+      <c r="I13" s="308"/>
+      <c r="J13" s="309"/>
     </row>
     <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -5854,357 +5866,373 @@
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="295"/>
-      <c r="F14" s="296"/>
-      <c r="G14" s="296"/>
-      <c r="H14" s="296"/>
-      <c r="I14" s="296"/>
-      <c r="J14" s="297"/>
+      <c r="E14" s="310"/>
+      <c r="F14" s="311"/>
+      <c r="G14" s="311"/>
+      <c r="H14" s="311"/>
+      <c r="I14" s="311"/>
+      <c r="J14" s="312"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="279"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="279"/>
-      <c r="H15" s="279"/>
-      <c r="I15" s="279"/>
-      <c r="J15" s="279"/>
+      <c r="E15" s="294"/>
+      <c r="F15" s="294"/>
+      <c r="G15" s="294"/>
+      <c r="H15" s="294"/>
+      <c r="I15" s="294"/>
+      <c r="J15" s="294"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="279"/>
-      <c r="F16" s="279"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="279"/>
-      <c r="I16" s="279"/>
-      <c r="J16" s="279"/>
+      <c r="E16" s="294"/>
+      <c r="F16" s="294"/>
+      <c r="G16" s="294"/>
+      <c r="H16" s="294"/>
+      <c r="I16" s="294"/>
+      <c r="J16" s="294"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="279"/>
-      <c r="F17" s="279"/>
-      <c r="G17" s="279"/>
-      <c r="H17" s="279"/>
-      <c r="I17" s="279"/>
-      <c r="J17" s="279"/>
+      <c r="E17" s="294"/>
+      <c r="F17" s="294"/>
+      <c r="G17" s="294"/>
+      <c r="H17" s="294"/>
+      <c r="I17" s="294"/>
+      <c r="J17" s="294"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="279"/>
-      <c r="F18" s="279"/>
-      <c r="G18" s="279"/>
-      <c r="H18" s="279"/>
-      <c r="I18" s="279"/>
-      <c r="J18" s="279"/>
+      <c r="E18" s="294"/>
+      <c r="F18" s="294"/>
+      <c r="G18" s="294"/>
+      <c r="H18" s="294"/>
+      <c r="I18" s="294"/>
+      <c r="J18" s="294"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="279"/>
-      <c r="F19" s="279"/>
-      <c r="G19" s="279"/>
-      <c r="H19" s="279"/>
-      <c r="I19" s="279"/>
-      <c r="J19" s="279"/>
+      <c r="E19" s="294"/>
+      <c r="F19" s="294"/>
+      <c r="G19" s="294"/>
+      <c r="H19" s="294"/>
+      <c r="I19" s="294"/>
+      <c r="J19" s="294"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="279"/>
-      <c r="F20" s="279"/>
-      <c r="G20" s="279"/>
-      <c r="H20" s="279"/>
-      <c r="I20" s="279"/>
-      <c r="J20" s="279"/>
+      <c r="E20" s="294"/>
+      <c r="F20" s="294"/>
+      <c r="G20" s="294"/>
+      <c r="H20" s="294"/>
+      <c r="I20" s="294"/>
+      <c r="J20" s="294"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="279"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="279"/>
-      <c r="I21" s="279"/>
-      <c r="J21" s="279"/>
+      <c r="E21" s="294"/>
+      <c r="F21" s="294"/>
+      <c r="G21" s="294"/>
+      <c r="H21" s="294"/>
+      <c r="I21" s="294"/>
+      <c r="J21" s="294"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="279"/>
-      <c r="F22" s="279"/>
-      <c r="G22" s="279"/>
-      <c r="H22" s="279"/>
-      <c r="I22" s="279"/>
-      <c r="J22" s="279"/>
+      <c r="E22" s="294"/>
+      <c r="F22" s="294"/>
+      <c r="G22" s="294"/>
+      <c r="H22" s="294"/>
+      <c r="I22" s="294"/>
+      <c r="J22" s="294"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="279"/>
-      <c r="F23" s="279"/>
-      <c r="G23" s="279"/>
-      <c r="H23" s="279"/>
-      <c r="I23" s="279"/>
-      <c r="J23" s="279"/>
+      <c r="E23" s="294"/>
+      <c r="F23" s="294"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="294"/>
+      <c r="J23" s="294"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="279"/>
-      <c r="F24" s="279"/>
-      <c r="G24" s="279"/>
-      <c r="H24" s="279"/>
-      <c r="I24" s="279"/>
-      <c r="J24" s="279"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="294"/>
+      <c r="G24" s="294"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="294"/>
+      <c r="J24" s="294"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279"/>
-      <c r="H25" s="279"/>
-      <c r="I25" s="279"/>
-      <c r="J25" s="279"/>
+      <c r="E25" s="294"/>
+      <c r="F25" s="294"/>
+      <c r="G25" s="294"/>
+      <c r="H25" s="294"/>
+      <c r="I25" s="294"/>
+      <c r="J25" s="294"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="279"/>
-      <c r="F26" s="279"/>
-      <c r="G26" s="279"/>
-      <c r="H26" s="279"/>
-      <c r="I26" s="279"/>
-      <c r="J26" s="279"/>
+      <c r="E26" s="294"/>
+      <c r="F26" s="294"/>
+      <c r="G26" s="294"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="294"/>
+      <c r="J26" s="294"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="279"/>
-      <c r="G27" s="279"/>
-      <c r="H27" s="279"/>
-      <c r="I27" s="279"/>
-      <c r="J27" s="279"/>
+      <c r="E27" s="294"/>
+      <c r="F27" s="294"/>
+      <c r="G27" s="294"/>
+      <c r="H27" s="294"/>
+      <c r="I27" s="294"/>
+      <c r="J27" s="294"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="279"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
-      <c r="H28" s="279"/>
-      <c r="I28" s="279"/>
-      <c r="J28" s="279"/>
+      <c r="E28" s="294"/>
+      <c r="F28" s="294"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="294"/>
+      <c r="I28" s="294"/>
+      <c r="J28" s="294"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="279"/>
-      <c r="G29" s="279"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279"/>
+      <c r="E29" s="294"/>
+      <c r="F29" s="294"/>
+      <c r="G29" s="294"/>
+      <c r="H29" s="294"/>
+      <c r="I29" s="294"/>
+      <c r="J29" s="294"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="279"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
-      <c r="H30" s="279"/>
-      <c r="I30" s="279"/>
-      <c r="J30" s="279"/>
+      <c r="E30" s="294"/>
+      <c r="F30" s="294"/>
+      <c r="G30" s="294"/>
+      <c r="H30" s="294"/>
+      <c r="I30" s="294"/>
+      <c r="J30" s="294"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="279"/>
-      <c r="F31" s="279"/>
-      <c r="G31" s="279"/>
-      <c r="H31" s="279"/>
-      <c r="I31" s="279"/>
-      <c r="J31" s="279"/>
+      <c r="E31" s="294"/>
+      <c r="F31" s="294"/>
+      <c r="G31" s="294"/>
+      <c r="H31" s="294"/>
+      <c r="I31" s="294"/>
+      <c r="J31" s="294"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="279"/>
-      <c r="F32" s="279"/>
-      <c r="G32" s="279"/>
-      <c r="H32" s="279"/>
-      <c r="I32" s="279"/>
-      <c r="J32" s="279"/>
+      <c r="E32" s="294"/>
+      <c r="F32" s="294"/>
+      <c r="G32" s="294"/>
+      <c r="H32" s="294"/>
+      <c r="I32" s="294"/>
+      <c r="J32" s="294"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="279"/>
-      <c r="F33" s="279"/>
-      <c r="G33" s="279"/>
-      <c r="H33" s="279"/>
-      <c r="I33" s="279"/>
-      <c r="J33" s="279"/>
+      <c r="E33" s="294"/>
+      <c r="F33" s="294"/>
+      <c r="G33" s="294"/>
+      <c r="H33" s="294"/>
+      <c r="I33" s="294"/>
+      <c r="J33" s="294"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="279"/>
-      <c r="F34" s="279"/>
-      <c r="G34" s="279"/>
-      <c r="H34" s="279"/>
-      <c r="I34" s="279"/>
-      <c r="J34" s="279"/>
+      <c r="E34" s="294"/>
+      <c r="F34" s="294"/>
+      <c r="G34" s="294"/>
+      <c r="H34" s="294"/>
+      <c r="I34" s="294"/>
+      <c r="J34" s="294"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="279"/>
-      <c r="F35" s="279"/>
-      <c r="G35" s="279"/>
-      <c r="H35" s="279"/>
-      <c r="I35" s="279"/>
-      <c r="J35" s="279"/>
+      <c r="E35" s="294"/>
+      <c r="F35" s="294"/>
+      <c r="G35" s="294"/>
+      <c r="H35" s="294"/>
+      <c r="I35" s="294"/>
+      <c r="J35" s="294"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="279"/>
-      <c r="F36" s="279"/>
-      <c r="G36" s="279"/>
-      <c r="H36" s="279"/>
-      <c r="I36" s="279"/>
-      <c r="J36" s="279"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="294"/>
+      <c r="G36" s="294"/>
+      <c r="H36" s="294"/>
+      <c r="I36" s="294"/>
+      <c r="J36" s="294"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="279"/>
-      <c r="F37" s="279"/>
-      <c r="G37" s="279"/>
-      <c r="H37" s="279"/>
-      <c r="I37" s="279"/>
-      <c r="J37" s="279"/>
+      <c r="E37" s="294"/>
+      <c r="F37" s="294"/>
+      <c r="G37" s="294"/>
+      <c r="H37" s="294"/>
+      <c r="I37" s="294"/>
+      <c r="J37" s="294"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="279"/>
-      <c r="F38" s="279"/>
-      <c r="G38" s="279"/>
-      <c r="H38" s="279"/>
-      <c r="I38" s="279"/>
-      <c r="J38" s="279"/>
+      <c r="E38" s="294"/>
+      <c r="F38" s="294"/>
+      <c r="G38" s="294"/>
+      <c r="H38" s="294"/>
+      <c r="I38" s="294"/>
+      <c r="J38" s="294"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="279"/>
-      <c r="F39" s="279"/>
-      <c r="G39" s="279"/>
-      <c r="H39" s="279"/>
-      <c r="I39" s="279"/>
-      <c r="J39" s="279"/>
+      <c r="E39" s="294"/>
+      <c r="F39" s="294"/>
+      <c r="G39" s="294"/>
+      <c r="H39" s="294"/>
+      <c r="I39" s="294"/>
+      <c r="J39" s="294"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="279"/>
-      <c r="F40" s="279"/>
-      <c r="G40" s="279"/>
-      <c r="H40" s="279"/>
-      <c r="I40" s="279"/>
-      <c r="J40" s="279"/>
+      <c r="E40" s="294"/>
+      <c r="F40" s="294"/>
+      <c r="G40" s="294"/>
+      <c r="H40" s="294"/>
+      <c r="I40" s="294"/>
+      <c r="J40" s="294"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="279"/>
-      <c r="F41" s="279"/>
-      <c r="G41" s="279"/>
-      <c r="H41" s="279"/>
-      <c r="I41" s="279"/>
-      <c r="J41" s="279"/>
+      <c r="E41" s="294"/>
+      <c r="F41" s="294"/>
+      <c r="G41" s="294"/>
+      <c r="H41" s="294"/>
+      <c r="I41" s="294"/>
+      <c r="J41" s="294"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="279"/>
-      <c r="F42" s="279"/>
-      <c r="G42" s="279"/>
-      <c r="H42" s="279"/>
-      <c r="I42" s="279"/>
-      <c r="J42" s="279"/>
+      <c r="E42" s="294"/>
+      <c r="F42" s="294"/>
+      <c r="G42" s="294"/>
+      <c r="H42" s="294"/>
+      <c r="I42" s="294"/>
+      <c r="J42" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E10:J10"/>
@@ -6217,28 +6245,12 @@
     <mergeCell ref="E17:J17"/>
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6447,10 +6459,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="284" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="301"/>
+      <c r="B1" s="284"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -6481,8 +6493,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="301"/>
-      <c r="B2" s="301"/>
+      <c r="A2" s="284"/>
+      <c r="B2" s="284"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -6525,76 +6537,76 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="284" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301" t="s">
+      <c r="B4" s="284"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="284"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="301"/>
+      <c r="J4" s="284"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="313"/>
-      <c r="B5" s="314"/>
-      <c r="C5" s="314"/>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="319" t="s">
+      <c r="A5" s="321"/>
+      <c r="B5" s="322"/>
+      <c r="C5" s="322"/>
+      <c r="D5" s="322"/>
+      <c r="E5" s="322"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="323"/>
+      <c r="I5" s="313" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="320"/>
+      <c r="J5" s="314"/>
     </row>
     <row r="6" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="316"/>
-      <c r="B6" s="317"/>
-      <c r="C6" s="317"/>
-      <c r="D6" s="317"/>
-      <c r="E6" s="317"/>
-      <c r="F6" s="317"/>
-      <c r="G6" s="317"/>
-      <c r="H6" s="318"/>
-      <c r="I6" s="321" t="s">
+      <c r="A6" s="324"/>
+      <c r="B6" s="325"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
+      <c r="G6" s="325"/>
+      <c r="H6" s="326"/>
+      <c r="I6" s="315" t="s">
         <v>247</v>
       </c>
-      <c r="J6" s="322"/>
+      <c r="J6" s="316"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="316"/>
-      <c r="B7" s="317"/>
-      <c r="C7" s="317"/>
-      <c r="D7" s="317"/>
-      <c r="E7" s="317"/>
-      <c r="F7" s="317"/>
-      <c r="G7" s="317"/>
-      <c r="H7" s="318"/>
-      <c r="I7" s="323" t="s">
+      <c r="A7" s="324"/>
+      <c r="B7" s="325"/>
+      <c r="C7" s="325"/>
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="325"/>
+      <c r="G7" s="325"/>
+      <c r="H7" s="326"/>
+      <c r="I7" s="317" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="324"/>
+      <c r="J7" s="318"/>
     </row>
     <row r="8" spans="1:10" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="316"/>
-      <c r="B8" s="317"/>
-      <c r="C8" s="317"/>
-      <c r="D8" s="317"/>
-      <c r="E8" s="317"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="317"/>
-      <c r="H8" s="318"/>
-      <c r="I8" s="311" t="s">
+      <c r="A8" s="324"/>
+      <c r="B8" s="325"/>
+      <c r="C8" s="325"/>
+      <c r="D8" s="325"/>
+      <c r="E8" s="325"/>
+      <c r="F8" s="325"/>
+      <c r="G8" s="325"/>
+      <c r="H8" s="326"/>
+      <c r="I8" s="319" t="s">
         <v>241</v>
       </c>
-      <c r="J8" s="312"/>
+      <c r="J8" s="320"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -6673,339 +6685,359 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="279"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="279"/>
-      <c r="H15" s="279"/>
-      <c r="I15" s="279"/>
-      <c r="J15" s="279"/>
+      <c r="E15" s="294"/>
+      <c r="F15" s="294"/>
+      <c r="G15" s="294"/>
+      <c r="H15" s="294"/>
+      <c r="I15" s="294"/>
+      <c r="J15" s="294"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="279"/>
-      <c r="F16" s="279"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="279"/>
-      <c r="I16" s="279"/>
-      <c r="J16" s="279"/>
+      <c r="E16" s="294"/>
+      <c r="F16" s="294"/>
+      <c r="G16" s="294"/>
+      <c r="H16" s="294"/>
+      <c r="I16" s="294"/>
+      <c r="J16" s="294"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="279"/>
-      <c r="F17" s="279"/>
-      <c r="G17" s="279"/>
-      <c r="H17" s="279"/>
-      <c r="I17" s="279"/>
-      <c r="J17" s="279"/>
+      <c r="E17" s="294"/>
+      <c r="F17" s="294"/>
+      <c r="G17" s="294"/>
+      <c r="H17" s="294"/>
+      <c r="I17" s="294"/>
+      <c r="J17" s="294"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="279"/>
-      <c r="F18" s="279"/>
-      <c r="G18" s="279"/>
-      <c r="H18" s="279"/>
-      <c r="I18" s="279"/>
-      <c r="J18" s="279"/>
+      <c r="E18" s="294"/>
+      <c r="F18" s="294"/>
+      <c r="G18" s="294"/>
+      <c r="H18" s="294"/>
+      <c r="I18" s="294"/>
+      <c r="J18" s="294"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="279"/>
-      <c r="F19" s="279"/>
-      <c r="G19" s="279"/>
-      <c r="H19" s="279"/>
-      <c r="I19" s="279"/>
-      <c r="J19" s="279"/>
+      <c r="E19" s="294"/>
+      <c r="F19" s="294"/>
+      <c r="G19" s="294"/>
+      <c r="H19" s="294"/>
+      <c r="I19" s="294"/>
+      <c r="J19" s="294"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="279"/>
-      <c r="F20" s="279"/>
-      <c r="G20" s="279"/>
-      <c r="H20" s="279"/>
-      <c r="I20" s="279"/>
-      <c r="J20" s="279"/>
+      <c r="E20" s="294"/>
+      <c r="F20" s="294"/>
+      <c r="G20" s="294"/>
+      <c r="H20" s="294"/>
+      <c r="I20" s="294"/>
+      <c r="J20" s="294"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="279"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="279"/>
-      <c r="I21" s="279"/>
-      <c r="J21" s="279"/>
+      <c r="E21" s="294"/>
+      <c r="F21" s="294"/>
+      <c r="G21" s="294"/>
+      <c r="H21" s="294"/>
+      <c r="I21" s="294"/>
+      <c r="J21" s="294"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="279"/>
-      <c r="F22" s="279"/>
-      <c r="G22" s="279"/>
-      <c r="H22" s="279"/>
-      <c r="I22" s="279"/>
-      <c r="J22" s="279"/>
+      <c r="E22" s="294"/>
+      <c r="F22" s="294"/>
+      <c r="G22" s="294"/>
+      <c r="H22" s="294"/>
+      <c r="I22" s="294"/>
+      <c r="J22" s="294"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="279"/>
-      <c r="F23" s="279"/>
-      <c r="G23" s="279"/>
-      <c r="H23" s="279"/>
-      <c r="I23" s="279"/>
-      <c r="J23" s="279"/>
+      <c r="E23" s="294"/>
+      <c r="F23" s="294"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="294"/>
+      <c r="J23" s="294"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="279"/>
-      <c r="F24" s="279"/>
-      <c r="G24" s="279"/>
-      <c r="H24" s="279"/>
-      <c r="I24" s="279"/>
-      <c r="J24" s="279"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="294"/>
+      <c r="G24" s="294"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="294"/>
+      <c r="J24" s="294"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279"/>
-      <c r="H25" s="279"/>
-      <c r="I25" s="279"/>
-      <c r="J25" s="279"/>
+      <c r="E25" s="294"/>
+      <c r="F25" s="294"/>
+      <c r="G25" s="294"/>
+      <c r="H25" s="294"/>
+      <c r="I25" s="294"/>
+      <c r="J25" s="294"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="279"/>
-      <c r="F26" s="279"/>
-      <c r="G26" s="279"/>
-      <c r="H26" s="279"/>
-      <c r="I26" s="279"/>
-      <c r="J26" s="279"/>
+      <c r="E26" s="294"/>
+      <c r="F26" s="294"/>
+      <c r="G26" s="294"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="294"/>
+      <c r="J26" s="294"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="279"/>
-      <c r="G27" s="279"/>
-      <c r="H27" s="279"/>
-      <c r="I27" s="279"/>
-      <c r="J27" s="279"/>
+      <c r="E27" s="294"/>
+      <c r="F27" s="294"/>
+      <c r="G27" s="294"/>
+      <c r="H27" s="294"/>
+      <c r="I27" s="294"/>
+      <c r="J27" s="294"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="279"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
-      <c r="H28" s="279"/>
-      <c r="I28" s="279"/>
-      <c r="J28" s="279"/>
+      <c r="E28" s="294"/>
+      <c r="F28" s="294"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="294"/>
+      <c r="I28" s="294"/>
+      <c r="J28" s="294"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="279"/>
-      <c r="G29" s="279"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279"/>
+      <c r="E29" s="294"/>
+      <c r="F29" s="294"/>
+      <c r="G29" s="294"/>
+      <c r="H29" s="294"/>
+      <c r="I29" s="294"/>
+      <c r="J29" s="294"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="279"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
-      <c r="H30" s="279"/>
-      <c r="I30" s="279"/>
-      <c r="J30" s="279"/>
+      <c r="E30" s="294"/>
+      <c r="F30" s="294"/>
+      <c r="G30" s="294"/>
+      <c r="H30" s="294"/>
+      <c r="I30" s="294"/>
+      <c r="J30" s="294"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="279"/>
-      <c r="F31" s="279"/>
-      <c r="G31" s="279"/>
-      <c r="H31" s="279"/>
-      <c r="I31" s="279"/>
-      <c r="J31" s="279"/>
+      <c r="E31" s="294"/>
+      <c r="F31" s="294"/>
+      <c r="G31" s="294"/>
+      <c r="H31" s="294"/>
+      <c r="I31" s="294"/>
+      <c r="J31" s="294"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="279"/>
-      <c r="F32" s="279"/>
-      <c r="G32" s="279"/>
-      <c r="H32" s="279"/>
-      <c r="I32" s="279"/>
-      <c r="J32" s="279"/>
+      <c r="E32" s="294"/>
+      <c r="F32" s="294"/>
+      <c r="G32" s="294"/>
+      <c r="H32" s="294"/>
+      <c r="I32" s="294"/>
+      <c r="J32" s="294"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="279"/>
-      <c r="F33" s="279"/>
-      <c r="G33" s="279"/>
-      <c r="H33" s="279"/>
-      <c r="I33" s="279"/>
-      <c r="J33" s="279"/>
+      <c r="E33" s="294"/>
+      <c r="F33" s="294"/>
+      <c r="G33" s="294"/>
+      <c r="H33" s="294"/>
+      <c r="I33" s="294"/>
+      <c r="J33" s="294"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="279"/>
-      <c r="F34" s="279"/>
-      <c r="G34" s="279"/>
-      <c r="H34" s="279"/>
-      <c r="I34" s="279"/>
-      <c r="J34" s="279"/>
+      <c r="E34" s="294"/>
+      <c r="F34" s="294"/>
+      <c r="G34" s="294"/>
+      <c r="H34" s="294"/>
+      <c r="I34" s="294"/>
+      <c r="J34" s="294"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="279"/>
-      <c r="F35" s="279"/>
-      <c r="G35" s="279"/>
-      <c r="H35" s="279"/>
-      <c r="I35" s="279"/>
-      <c r="J35" s="279"/>
+      <c r="E35" s="294"/>
+      <c r="F35" s="294"/>
+      <c r="G35" s="294"/>
+      <c r="H35" s="294"/>
+      <c r="I35" s="294"/>
+      <c r="J35" s="294"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="279"/>
-      <c r="F36" s="279"/>
-      <c r="G36" s="279"/>
-      <c r="H36" s="279"/>
-      <c r="I36" s="279"/>
-      <c r="J36" s="279"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="294"/>
+      <c r="G36" s="294"/>
+      <c r="H36" s="294"/>
+      <c r="I36" s="294"/>
+      <c r="J36" s="294"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="279"/>
-      <c r="F37" s="279"/>
-      <c r="G37" s="279"/>
-      <c r="H37" s="279"/>
-      <c r="I37" s="279"/>
-      <c r="J37" s="279"/>
+      <c r="E37" s="294"/>
+      <c r="F37" s="294"/>
+      <c r="G37" s="294"/>
+      <c r="H37" s="294"/>
+      <c r="I37" s="294"/>
+      <c r="J37" s="294"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="279"/>
-      <c r="F38" s="279"/>
-      <c r="G38" s="279"/>
-      <c r="H38" s="279"/>
-      <c r="I38" s="279"/>
-      <c r="J38" s="279"/>
+      <c r="E38" s="294"/>
+      <c r="F38" s="294"/>
+      <c r="G38" s="294"/>
+      <c r="H38" s="294"/>
+      <c r="I38" s="294"/>
+      <c r="J38" s="294"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="279"/>
-      <c r="F39" s="279"/>
-      <c r="G39" s="279"/>
-      <c r="H39" s="279"/>
-      <c r="I39" s="279"/>
-      <c r="J39" s="279"/>
+      <c r="E39" s="294"/>
+      <c r="F39" s="294"/>
+      <c r="G39" s="294"/>
+      <c r="H39" s="294"/>
+      <c r="I39" s="294"/>
+      <c r="J39" s="294"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="279"/>
-      <c r="F40" s="279"/>
-      <c r="G40" s="279"/>
-      <c r="H40" s="279"/>
-      <c r="I40" s="279"/>
-      <c r="J40" s="279"/>
+      <c r="E40" s="294"/>
+      <c r="F40" s="294"/>
+      <c r="G40" s="294"/>
+      <c r="H40" s="294"/>
+      <c r="I40" s="294"/>
+      <c r="J40" s="294"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="279"/>
-      <c r="F41" s="279"/>
-      <c r="G41" s="279"/>
-      <c r="H41" s="279"/>
-      <c r="I41" s="279"/>
-      <c r="J41" s="279"/>
+      <c r="E41" s="294"/>
+      <c r="F41" s="294"/>
+      <c r="G41" s="294"/>
+      <c r="H41" s="294"/>
+      <c r="I41" s="294"/>
+      <c r="J41" s="294"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="279"/>
-      <c r="F42" s="279"/>
-      <c r="G42" s="279"/>
-      <c r="H42" s="279"/>
-      <c r="I42" s="279"/>
-      <c r="J42" s="279"/>
+      <c r="E42" s="294"/>
+      <c r="F42" s="294"/>
+      <c r="G42" s="294"/>
+      <c r="H42" s="294"/>
+      <c r="I42" s="294"/>
+      <c r="J42" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A5:H8"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="E40:J40"/>
     <mergeCell ref="E41:J41"/>
@@ -7022,26 +7054,6 @@
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A5:H8"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -7083,10 +7095,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="284" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="325"/>
+      <c r="B1" s="327"/>
       <c r="C1" s="124" t="s">
         <v>1</v>
       </c>
@@ -7111,18 +7123,18 @@
       <c r="I1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="326" t="str">
+      <c r="J1" s="328" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="K1" s="327"/>
+      <c r="K1" s="329"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="301"/>
-      <c r="B2" s="325"/>
+      <c r="A2" s="284"/>
+      <c r="B2" s="327"/>
       <c r="C2" s="124" t="s">
         <v>7</v>
       </c>
@@ -7147,11 +7159,11 @@
       <c r="I2" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="328">
+      <c r="J2" s="330">
         <f>'Update History'!J2</f>
         <v>42381</v>
       </c>
-      <c r="K2" s="329"/>
+      <c r="K2" s="331"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -8861,93 +8873,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="16" customWidth="1"/>
-    <col min="5" max="6" width="21.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="3" width="7.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="16" customWidth="1"/>
+    <col min="7" max="8" width="21.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="301" t="s">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="284" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="str">
+      <c r="F1" s="13" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="121" t="str">
+      <c r="H1" s="121" t="str">
         <f>'Update History'!F1</f>
         <v>WF0011</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="str">
+      <c r="J1" s="14" t="str">
         <f>'Update History'!H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="122" t="str">
+      <c r="L1" s="122" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="301"/>
-      <c r="B2" s="301"/>
-      <c r="C2" s="46" t="s">
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="284"/>
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="str">
+      <c r="F2" s="13" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-WM</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="str">
+      <c r="H2" s="13" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật phiếu nhập kho</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="I2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="15">
+      <c r="J2" s="15">
         <f>'Update History'!H2</f>
         <v>42174</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="15">
+      <c r="L2" s="15">
         <f>'Update History'!J2</f>
         <v>42381</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -8958,546 +8974,634 @@
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="279" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="279" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="E4" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="F4" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="G4" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="H4" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="I4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="333" t="s">
+      <c r="J4" s="335" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="333"/>
-      <c r="J4" s="333"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="335"/>
+      <c r="L4" s="335"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="114"/>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="114" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="114">
+        <v>51</v>
+      </c>
+      <c r="D5" s="112" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="275" t="s">
+      <c r="E5" s="275" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="276"/>
-      <c r="E5" s="277"/>
-      <c r="F5" s="278" t="s">
+      <c r="F5" s="276"/>
+      <c r="G5" s="277"/>
+      <c r="H5" s="278" t="s">
         <v>307</v>
       </c>
-      <c r="G5" s="278" t="s">
+      <c r="I5" s="278" t="s">
         <v>316</v>
       </c>
-      <c r="H5" s="334" t="s">
+      <c r="J5" s="336" t="s">
         <v>317</v>
       </c>
-      <c r="I5" s="335"/>
-      <c r="J5" s="336"/>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="337"/>
+      <c r="L5" s="338"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="55"/>
-      <c r="H6" s="330"/>
-      <c r="I6" s="331"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="332"/>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="333"/>
+      <c r="L6" s="334"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="51"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="331"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="332"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="333"/>
+      <c r="L7" s="334"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="50"/>
-      <c r="H8" s="330"/>
-      <c r="I8" s="331"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="332"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="333"/>
+      <c r="L8" s="334"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="51"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="331"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="332"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="333"/>
+      <c r="L9" s="334"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="51"/>
-      <c r="H10" s="330"/>
-      <c r="I10" s="331"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="332"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="333"/>
+      <c r="L10" s="334"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="330"/>
-      <c r="I11" s="331"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="332"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="333"/>
+      <c r="L11" s="334"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="330"/>
-      <c r="I12" s="331"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
       <c r="J12" s="332"/>
-    </row>
-    <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="333"/>
+      <c r="L12" s="334"/>
+    </row>
+    <row r="13" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="55"/>
-      <c r="H13" s="330"/>
-      <c r="I13" s="331"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="332"/>
-    </row>
-    <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="333"/>
+      <c r="L13" s="334"/>
+    </row>
+    <row r="14" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="55"/>
-      <c r="H14" s="330"/>
-      <c r="I14" s="331"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="332"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="K14" s="333"/>
+      <c r="L14" s="334"/>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="279"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="279"/>
-      <c r="H15" s="279"/>
-      <c r="I15" s="279"/>
-      <c r="J15" s="279"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="294"/>
+      <c r="H15" s="294"/>
+      <c r="I15" s="294"/>
+      <c r="J15" s="294"/>
+      <c r="K15" s="294"/>
+      <c r="L15" s="294"/>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="279"/>
-      <c r="F16" s="279"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="279"/>
-      <c r="I16" s="279"/>
-      <c r="J16" s="279"/>
-    </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="294"/>
+      <c r="H16" s="294"/>
+      <c r="I16" s="294"/>
+      <c r="J16" s="294"/>
+      <c r="K16" s="294"/>
+      <c r="L16" s="294"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="279"/>
-      <c r="F17" s="279"/>
-      <c r="G17" s="279"/>
-      <c r="H17" s="279"/>
-      <c r="I17" s="279"/>
-      <c r="J17" s="279"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="294"/>
+      <c r="H17" s="294"/>
+      <c r="I17" s="294"/>
+      <c r="J17" s="294"/>
+      <c r="K17" s="294"/>
+      <c r="L17" s="294"/>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="279"/>
-      <c r="F18" s="279"/>
-      <c r="G18" s="279"/>
-      <c r="H18" s="279"/>
-      <c r="I18" s="279"/>
-      <c r="J18" s="279"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="294"/>
+      <c r="H18" s="294"/>
+      <c r="I18" s="294"/>
+      <c r="J18" s="294"/>
+      <c r="K18" s="294"/>
+      <c r="L18" s="294"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="279"/>
-      <c r="F19" s="279"/>
-      <c r="G19" s="279"/>
-      <c r="H19" s="279"/>
-      <c r="I19" s="279"/>
-      <c r="J19" s="279"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="294"/>
+      <c r="H19" s="294"/>
+      <c r="I19" s="294"/>
+      <c r="J19" s="294"/>
+      <c r="K19" s="294"/>
+      <c r="L19" s="294"/>
+    </row>
+    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="279"/>
-      <c r="F20" s="279"/>
-      <c r="G20" s="279"/>
-      <c r="H20" s="279"/>
-      <c r="I20" s="279"/>
-      <c r="J20" s="279"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="294"/>
+      <c r="H20" s="294"/>
+      <c r="I20" s="294"/>
+      <c r="J20" s="294"/>
+      <c r="K20" s="294"/>
+      <c r="L20" s="294"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="279"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="279"/>
-      <c r="I21" s="279"/>
-      <c r="J21" s="279"/>
-    </row>
-    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="294"/>
+      <c r="H21" s="294"/>
+      <c r="I21" s="294"/>
+      <c r="J21" s="294"/>
+      <c r="K21" s="294"/>
+      <c r="L21" s="294"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="279"/>
-      <c r="F22" s="279"/>
-      <c r="G22" s="279"/>
-      <c r="H22" s="279"/>
-      <c r="I22" s="279"/>
-      <c r="J22" s="279"/>
-    </row>
-    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="294"/>
+      <c r="H22" s="294"/>
+      <c r="I22" s="294"/>
+      <c r="J22" s="294"/>
+      <c r="K22" s="294"/>
+      <c r="L22" s="294"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="279"/>
-      <c r="F23" s="279"/>
-      <c r="G23" s="279"/>
-      <c r="H23" s="279"/>
-      <c r="I23" s="279"/>
-      <c r="J23" s="279"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="294"/>
+      <c r="J23" s="294"/>
+      <c r="K23" s="294"/>
+      <c r="L23" s="294"/>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="279"/>
-      <c r="F24" s="279"/>
-      <c r="G24" s="279"/>
-      <c r="H24" s="279"/>
-      <c r="I24" s="279"/>
-      <c r="J24" s="279"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="294"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="294"/>
+      <c r="J24" s="294"/>
+      <c r="K24" s="294"/>
+      <c r="L24" s="294"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279"/>
-      <c r="H25" s="279"/>
-      <c r="I25" s="279"/>
-      <c r="J25" s="279"/>
-    </row>
-    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="294"/>
+      <c r="H25" s="294"/>
+      <c r="I25" s="294"/>
+      <c r="J25" s="294"/>
+      <c r="K25" s="294"/>
+      <c r="L25" s="294"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="279"/>
-      <c r="F26" s="279"/>
-      <c r="G26" s="279"/>
-      <c r="H26" s="279"/>
-      <c r="I26" s="279"/>
-      <c r="J26" s="279"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="294"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="294"/>
+      <c r="J26" s="294"/>
+      <c r="K26" s="294"/>
+      <c r="L26" s="294"/>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="279"/>
-      <c r="G27" s="279"/>
-      <c r="H27" s="279"/>
-      <c r="I27" s="279"/>
-      <c r="J27" s="279"/>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="294"/>
+      <c r="H27" s="294"/>
+      <c r="I27" s="294"/>
+      <c r="J27" s="294"/>
+      <c r="K27" s="294"/>
+      <c r="L27" s="294"/>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="279"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
-      <c r="H28" s="279"/>
-      <c r="I28" s="279"/>
-      <c r="J28" s="279"/>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="294"/>
+      <c r="I28" s="294"/>
+      <c r="J28" s="294"/>
+      <c r="K28" s="294"/>
+      <c r="L28" s="294"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="279"/>
-      <c r="G29" s="279"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="294"/>
+      <c r="H29" s="294"/>
+      <c r="I29" s="294"/>
+      <c r="J29" s="294"/>
+      <c r="K29" s="294"/>
+      <c r="L29" s="294"/>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="279"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
-      <c r="H30" s="279"/>
-      <c r="I30" s="279"/>
-      <c r="J30" s="279"/>
-    </row>
-    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="294"/>
+      <c r="H30" s="294"/>
+      <c r="I30" s="294"/>
+      <c r="J30" s="294"/>
+      <c r="K30" s="294"/>
+      <c r="L30" s="294"/>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="279"/>
-      <c r="F31" s="279"/>
-      <c r="G31" s="279"/>
-      <c r="H31" s="279"/>
-      <c r="I31" s="279"/>
-      <c r="J31" s="279"/>
-    </row>
-    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="294"/>
+      <c r="H31" s="294"/>
+      <c r="I31" s="294"/>
+      <c r="J31" s="294"/>
+      <c r="K31" s="294"/>
+      <c r="L31" s="294"/>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="279"/>
-      <c r="F32" s="279"/>
-      <c r="G32" s="279"/>
-      <c r="H32" s="279"/>
-      <c r="I32" s="279"/>
-      <c r="J32" s="279"/>
-    </row>
-    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="294"/>
+      <c r="H32" s="294"/>
+      <c r="I32" s="294"/>
+      <c r="J32" s="294"/>
+      <c r="K32" s="294"/>
+      <c r="L32" s="294"/>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="279"/>
-      <c r="F33" s="279"/>
-      <c r="G33" s="279"/>
-      <c r="H33" s="279"/>
-      <c r="I33" s="279"/>
-      <c r="J33" s="279"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="294"/>
+      <c r="H33" s="294"/>
+      <c r="I33" s="294"/>
+      <c r="J33" s="294"/>
+      <c r="K33" s="294"/>
+      <c r="L33" s="294"/>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="279"/>
-      <c r="F34" s="279"/>
-      <c r="G34" s="279"/>
-      <c r="H34" s="279"/>
-      <c r="I34" s="279"/>
-      <c r="J34" s="279"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="294"/>
+      <c r="H34" s="294"/>
+      <c r="I34" s="294"/>
+      <c r="J34" s="294"/>
+      <c r="K34" s="294"/>
+      <c r="L34" s="294"/>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="279"/>
-      <c r="F35" s="279"/>
-      <c r="G35" s="279"/>
-      <c r="H35" s="279"/>
-      <c r="I35" s="279"/>
-      <c r="J35" s="279"/>
-    </row>
-    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="294"/>
+      <c r="H35" s="294"/>
+      <c r="I35" s="294"/>
+      <c r="J35" s="294"/>
+      <c r="K35" s="294"/>
+      <c r="L35" s="294"/>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="279"/>
-      <c r="F36" s="279"/>
-      <c r="G36" s="279"/>
-      <c r="H36" s="279"/>
-      <c r="I36" s="279"/>
-      <c r="J36" s="279"/>
-    </row>
-    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="294"/>
+      <c r="H36" s="294"/>
+      <c r="I36" s="294"/>
+      <c r="J36" s="294"/>
+      <c r="K36" s="294"/>
+      <c r="L36" s="294"/>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="279"/>
-      <c r="F37" s="279"/>
-      <c r="G37" s="279"/>
-      <c r="H37" s="279"/>
-      <c r="I37" s="279"/>
-      <c r="J37" s="279"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="294"/>
+      <c r="H37" s="294"/>
+      <c r="I37" s="294"/>
+      <c r="J37" s="294"/>
+      <c r="K37" s="294"/>
+      <c r="L37" s="294"/>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="279"/>
-      <c r="F38" s="279"/>
-      <c r="G38" s="279"/>
-      <c r="H38" s="279"/>
-      <c r="I38" s="279"/>
-      <c r="J38" s="279"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="294"/>
+      <c r="H38" s="294"/>
+      <c r="I38" s="294"/>
+      <c r="J38" s="294"/>
+      <c r="K38" s="294"/>
+      <c r="L38" s="294"/>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="279"/>
-      <c r="F39" s="279"/>
-      <c r="G39" s="279"/>
-      <c r="H39" s="279"/>
-      <c r="I39" s="279"/>
-      <c r="J39" s="279"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="294"/>
+      <c r="H39" s="294"/>
+      <c r="I39" s="294"/>
+      <c r="J39" s="294"/>
+      <c r="K39" s="294"/>
+      <c r="L39" s="294"/>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="279"/>
-      <c r="F40" s="279"/>
-      <c r="G40" s="279"/>
-      <c r="H40" s="279"/>
-      <c r="I40" s="279"/>
-      <c r="J40" s="279"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="294"/>
+      <c r="H40" s="294"/>
+      <c r="I40" s="294"/>
+      <c r="J40" s="294"/>
+      <c r="K40" s="294"/>
+      <c r="L40" s="294"/>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="279"/>
-      <c r="F41" s="279"/>
-      <c r="G41" s="279"/>
-      <c r="H41" s="279"/>
-      <c r="I41" s="279"/>
-      <c r="J41" s="279"/>
-    </row>
-    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="294"/>
+      <c r="H41" s="294"/>
+      <c r="I41" s="294"/>
+      <c r="J41" s="294"/>
+      <c r="K41" s="294"/>
+      <c r="L41" s="294"/>
+    </row>
+    <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="279"/>
-      <c r="F42" s="279"/>
-      <c r="G42" s="279"/>
-      <c r="H42" s="279"/>
-      <c r="I42" s="279"/>
-      <c r="J42" s="279"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="294"/>
+      <c r="H42" s="294"/>
+      <c r="I42" s="294"/>
+      <c r="J42" s="294"/>
+      <c r="K42" s="294"/>
+      <c r="L42" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
       <formula1>"ASOFT - ERP.NET,ASOFT - ACC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9530,10 +9634,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="284" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="301"/>
+      <c r="B1" s="284"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -9564,8 +9668,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="301"/>
-      <c r="B2" s="301"/>
+      <c r="A2" s="284"/>
+      <c r="B2" s="284"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -9596,16 +9700,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="341"/>
-      <c r="B3" s="342"/>
-      <c r="C3" s="342"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="342"/>
-      <c r="F3" s="342"/>
-      <c r="G3" s="342"/>
-      <c r="H3" s="342"/>
-      <c r="I3" s="342"/>
-      <c r="J3" s="343"/>
+      <c r="A3" s="343"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="345"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
@@ -9620,16 +9724,16 @@
       <c r="D4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="337" t="s">
+      <c r="E4" s="339" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="337"/>
-      <c r="G4" s="338" t="s">
+      <c r="F4" s="339"/>
+      <c r="G4" s="340" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="339"/>
-      <c r="I4" s="339"/>
-      <c r="J4" s="340"/>
+      <c r="H4" s="341"/>
+      <c r="I4" s="341"/>
+      <c r="J4" s="342"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -9756,339 +9860,359 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="279"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="279"/>
-      <c r="H15" s="279"/>
-      <c r="I15" s="279"/>
-      <c r="J15" s="279"/>
+      <c r="E15" s="294"/>
+      <c r="F15" s="294"/>
+      <c r="G15" s="294"/>
+      <c r="H15" s="294"/>
+      <c r="I15" s="294"/>
+      <c r="J15" s="294"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="279"/>
-      <c r="F16" s="279"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="279"/>
-      <c r="I16" s="279"/>
-      <c r="J16" s="279"/>
+      <c r="E16" s="294"/>
+      <c r="F16" s="294"/>
+      <c r="G16" s="294"/>
+      <c r="H16" s="294"/>
+      <c r="I16" s="294"/>
+      <c r="J16" s="294"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="279"/>
-      <c r="F17" s="279"/>
-      <c r="G17" s="279"/>
-      <c r="H17" s="279"/>
-      <c r="I17" s="279"/>
-      <c r="J17" s="279"/>
+      <c r="E17" s="294"/>
+      <c r="F17" s="294"/>
+      <c r="G17" s="294"/>
+      <c r="H17" s="294"/>
+      <c r="I17" s="294"/>
+      <c r="J17" s="294"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="279"/>
-      <c r="F18" s="279"/>
-      <c r="G18" s="279"/>
-      <c r="H18" s="279"/>
-      <c r="I18" s="279"/>
-      <c r="J18" s="279"/>
+      <c r="E18" s="294"/>
+      <c r="F18" s="294"/>
+      <c r="G18" s="294"/>
+      <c r="H18" s="294"/>
+      <c r="I18" s="294"/>
+      <c r="J18" s="294"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="279"/>
-      <c r="F19" s="279"/>
-      <c r="G19" s="279"/>
-      <c r="H19" s="279"/>
-      <c r="I19" s="279"/>
-      <c r="J19" s="279"/>
+      <c r="E19" s="294"/>
+      <c r="F19" s="294"/>
+      <c r="G19" s="294"/>
+      <c r="H19" s="294"/>
+      <c r="I19" s="294"/>
+      <c r="J19" s="294"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="279"/>
-      <c r="F20" s="279"/>
-      <c r="G20" s="279"/>
-      <c r="H20" s="279"/>
-      <c r="I20" s="279"/>
-      <c r="J20" s="279"/>
+      <c r="E20" s="294"/>
+      <c r="F20" s="294"/>
+      <c r="G20" s="294"/>
+      <c r="H20" s="294"/>
+      <c r="I20" s="294"/>
+      <c r="J20" s="294"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="279"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="279"/>
-      <c r="I21" s="279"/>
-      <c r="J21" s="279"/>
+      <c r="E21" s="294"/>
+      <c r="F21" s="294"/>
+      <c r="G21" s="294"/>
+      <c r="H21" s="294"/>
+      <c r="I21" s="294"/>
+      <c r="J21" s="294"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="279"/>
-      <c r="F22" s="279"/>
-      <c r="G22" s="279"/>
-      <c r="H22" s="279"/>
-      <c r="I22" s="279"/>
-      <c r="J22" s="279"/>
+      <c r="E22" s="294"/>
+      <c r="F22" s="294"/>
+      <c r="G22" s="294"/>
+      <c r="H22" s="294"/>
+      <c r="I22" s="294"/>
+      <c r="J22" s="294"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="279"/>
-      <c r="F23" s="279"/>
-      <c r="G23" s="279"/>
-      <c r="H23" s="279"/>
-      <c r="I23" s="279"/>
-      <c r="J23" s="279"/>
+      <c r="E23" s="294"/>
+      <c r="F23" s="294"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="294"/>
+      <c r="J23" s="294"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="279"/>
-      <c r="F24" s="279"/>
-      <c r="G24" s="279"/>
-      <c r="H24" s="279"/>
-      <c r="I24" s="279"/>
-      <c r="J24" s="279"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="294"/>
+      <c r="G24" s="294"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="294"/>
+      <c r="J24" s="294"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279"/>
-      <c r="H25" s="279"/>
-      <c r="I25" s="279"/>
-      <c r="J25" s="279"/>
+      <c r="E25" s="294"/>
+      <c r="F25" s="294"/>
+      <c r="G25" s="294"/>
+      <c r="H25" s="294"/>
+      <c r="I25" s="294"/>
+      <c r="J25" s="294"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="279"/>
-      <c r="F26" s="279"/>
-      <c r="G26" s="279"/>
-      <c r="H26" s="279"/>
-      <c r="I26" s="279"/>
-      <c r="J26" s="279"/>
+      <c r="E26" s="294"/>
+      <c r="F26" s="294"/>
+      <c r="G26" s="294"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="294"/>
+      <c r="J26" s="294"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="279"/>
-      <c r="G27" s="279"/>
-      <c r="H27" s="279"/>
-      <c r="I27" s="279"/>
-      <c r="J27" s="279"/>
+      <c r="E27" s="294"/>
+      <c r="F27" s="294"/>
+      <c r="G27" s="294"/>
+      <c r="H27" s="294"/>
+      <c r="I27" s="294"/>
+      <c r="J27" s="294"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="279"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
-      <c r="H28" s="279"/>
-      <c r="I28" s="279"/>
-      <c r="J28" s="279"/>
+      <c r="E28" s="294"/>
+      <c r="F28" s="294"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="294"/>
+      <c r="I28" s="294"/>
+      <c r="J28" s="294"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="279"/>
-      <c r="G29" s="279"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279"/>
+      <c r="E29" s="294"/>
+      <c r="F29" s="294"/>
+      <c r="G29" s="294"/>
+      <c r="H29" s="294"/>
+      <c r="I29" s="294"/>
+      <c r="J29" s="294"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="279"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
-      <c r="H30" s="279"/>
-      <c r="I30" s="279"/>
-      <c r="J30" s="279"/>
+      <c r="E30" s="294"/>
+      <c r="F30" s="294"/>
+      <c r="G30" s="294"/>
+      <c r="H30" s="294"/>
+      <c r="I30" s="294"/>
+      <c r="J30" s="294"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="279"/>
-      <c r="F31" s="279"/>
-      <c r="G31" s="279"/>
-      <c r="H31" s="279"/>
-      <c r="I31" s="279"/>
-      <c r="J31" s="279"/>
+      <c r="E31" s="294"/>
+      <c r="F31" s="294"/>
+      <c r="G31" s="294"/>
+      <c r="H31" s="294"/>
+      <c r="I31" s="294"/>
+      <c r="J31" s="294"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="279"/>
-      <c r="F32" s="279"/>
-      <c r="G32" s="279"/>
-      <c r="H32" s="279"/>
-      <c r="I32" s="279"/>
-      <c r="J32" s="279"/>
+      <c r="E32" s="294"/>
+      <c r="F32" s="294"/>
+      <c r="G32" s="294"/>
+      <c r="H32" s="294"/>
+      <c r="I32" s="294"/>
+      <c r="J32" s="294"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="279"/>
-      <c r="F33" s="279"/>
-      <c r="G33" s="279"/>
-      <c r="H33" s="279"/>
-      <c r="I33" s="279"/>
-      <c r="J33" s="279"/>
+      <c r="E33" s="294"/>
+      <c r="F33" s="294"/>
+      <c r="G33" s="294"/>
+      <c r="H33" s="294"/>
+      <c r="I33" s="294"/>
+      <c r="J33" s="294"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="279"/>
-      <c r="F34" s="279"/>
-      <c r="G34" s="279"/>
-      <c r="H34" s="279"/>
-      <c r="I34" s="279"/>
-      <c r="J34" s="279"/>
+      <c r="E34" s="294"/>
+      <c r="F34" s="294"/>
+      <c r="G34" s="294"/>
+      <c r="H34" s="294"/>
+      <c r="I34" s="294"/>
+      <c r="J34" s="294"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="279"/>
-      <c r="F35" s="279"/>
-      <c r="G35" s="279"/>
-      <c r="H35" s="279"/>
-      <c r="I35" s="279"/>
-      <c r="J35" s="279"/>
+      <c r="E35" s="294"/>
+      <c r="F35" s="294"/>
+      <c r="G35" s="294"/>
+      <c r="H35" s="294"/>
+      <c r="I35" s="294"/>
+      <c r="J35" s="294"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="279"/>
-      <c r="F36" s="279"/>
-      <c r="G36" s="279"/>
-      <c r="H36" s="279"/>
-      <c r="I36" s="279"/>
-      <c r="J36" s="279"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="294"/>
+      <c r="G36" s="294"/>
+      <c r="H36" s="294"/>
+      <c r="I36" s="294"/>
+      <c r="J36" s="294"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="279"/>
-      <c r="F37" s="279"/>
-      <c r="G37" s="279"/>
-      <c r="H37" s="279"/>
-      <c r="I37" s="279"/>
-      <c r="J37" s="279"/>
+      <c r="E37" s="294"/>
+      <c r="F37" s="294"/>
+      <c r="G37" s="294"/>
+      <c r="H37" s="294"/>
+      <c r="I37" s="294"/>
+      <c r="J37" s="294"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="279"/>
-      <c r="F38" s="279"/>
-      <c r="G38" s="279"/>
-      <c r="H38" s="279"/>
-      <c r="I38" s="279"/>
-      <c r="J38" s="279"/>
+      <c r="E38" s="294"/>
+      <c r="F38" s="294"/>
+      <c r="G38" s="294"/>
+      <c r="H38" s="294"/>
+      <c r="I38" s="294"/>
+      <c r="J38" s="294"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="279"/>
-      <c r="F39" s="279"/>
-      <c r="G39" s="279"/>
-      <c r="H39" s="279"/>
-      <c r="I39" s="279"/>
-      <c r="J39" s="279"/>
+      <c r="E39" s="294"/>
+      <c r="F39" s="294"/>
+      <c r="G39" s="294"/>
+      <c r="H39" s="294"/>
+      <c r="I39" s="294"/>
+      <c r="J39" s="294"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="279"/>
-      <c r="F40" s="279"/>
-      <c r="G40" s="279"/>
-      <c r="H40" s="279"/>
-      <c r="I40" s="279"/>
-      <c r="J40" s="279"/>
+      <c r="E40" s="294"/>
+      <c r="F40" s="294"/>
+      <c r="G40" s="294"/>
+      <c r="H40" s="294"/>
+      <c r="I40" s="294"/>
+      <c r="J40" s="294"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="279"/>
-      <c r="F41" s="279"/>
-      <c r="G41" s="279"/>
-      <c r="H41" s="279"/>
-      <c r="I41" s="279"/>
-      <c r="J41" s="279"/>
+      <c r="E41" s="294"/>
+      <c r="F41" s="294"/>
+      <c r="G41" s="294"/>
+      <c r="H41" s="294"/>
+      <c r="I41" s="294"/>
+      <c r="J41" s="294"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="279"/>
-      <c r="F42" s="279"/>
-      <c r="G42" s="279"/>
-      <c r="H42" s="279"/>
-      <c r="I42" s="279"/>
-      <c r="J42" s="279"/>
+      <c r="E42" s="294"/>
+      <c r="F42" s="294"/>
+      <c r="G42" s="294"/>
+      <c r="H42" s="294"/>
+      <c r="I42" s="294"/>
+      <c r="J42" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
     <mergeCell ref="E30:J30"/>
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
@@ -10101,26 +10225,6 @@
     <mergeCell ref="E28:J28"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -10135,954 +10239,1071 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="J13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="16"/>
-    <col min="12" max="12" width="16.5703125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" style="16" customWidth="1"/>
-    <col min="14" max="14" width="39.140625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="16" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="16" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="2" width="7.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="16"/>
+    <col min="14" max="14" width="16.5703125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="16" customWidth="1"/>
+    <col min="16" max="16" width="39.140625" style="16" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="16" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" style="16" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="16" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="301" t="s">
+    <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="284" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="str">
+      <c r="F1" s="13" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="121" t="str">
+      <c r="H1" s="121" t="str">
         <f>'Update History'!F1</f>
         <v>WF0011</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="str">
+      <c r="J1" s="14" t="str">
         <f>'Update History'!H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="122" t="str">
+      <c r="L1" s="122" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
-    </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="301"/>
-      <c r="B2" s="301"/>
-      <c r="C2" s="46" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="284"/>
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="str">
+      <c r="F2" s="13" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-WM</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="str">
+      <c r="H2" s="13" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật phiếu nhập kho</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="I2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="15">
+      <c r="J2" s="15">
         <f>'Update History'!H2</f>
         <v>42174</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="15">
+      <c r="L2" s="15">
         <f>'Update History'!J2</f>
         <v>42381</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="341"/>
-      <c r="B3" s="342"/>
-      <c r="C3" s="342"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="342"/>
-      <c r="F3" s="342"/>
-      <c r="G3" s="342"/>
-      <c r="H3" s="342"/>
-      <c r="I3" s="342"/>
-      <c r="J3" s="343"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="343"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="345"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
-    </row>
-    <row r="4" spans="1:17" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="280" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="280" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="E4" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="F4" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="G4" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="H4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="I4" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="J4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="338" t="s">
+      <c r="K4" s="340" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="339"/>
-      <c r="K4" s="339"/>
-      <c r="L4" s="340"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="341"/>
+      <c r="M4" s="341"/>
+      <c r="N4" s="342"/>
+      <c r="O4" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="P4" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="Q4" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="R4" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="S4" s="66" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="154" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="152"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="159" t="s">
+    <row r="5" spans="1:19" s="154" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="152">
+        <v>1</v>
+      </c>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="159" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="159" t="s">
+      <c r="H5" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="159" t="s">
+      <c r="I5" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="H5" s="160" t="s">
+      <c r="J5" s="160" t="s">
         <v>223</v>
       </c>
-      <c r="I5" s="357" t="s">
+      <c r="K5" s="346" t="s">
         <v>224</v>
       </c>
-      <c r="J5" s="358"/>
-      <c r="K5" s="358"/>
-      <c r="L5" s="359"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="164" t="s">
+      <c r="L5" s="347"/>
+      <c r="M5" s="347"/>
+      <c r="N5" s="348"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="164" t="s">
         <v>170</v>
       </c>
-      <c r="P5" s="164" t="s">
+      <c r="R5" s="164" t="s">
         <v>171</v>
       </c>
-      <c r="Q5" s="153"/>
-    </row>
-    <row r="6" spans="1:17" s="154" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="155"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="148" t="s">
+      <c r="S5" s="153"/>
+    </row>
+    <row r="6" spans="1:19" s="154" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="155">
+        <v>2</v>
+      </c>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="148" t="s">
         <v>229</v>
       </c>
-      <c r="F6" s="159" t="s">
+      <c r="H6" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="159" t="s">
+      <c r="I6" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="H6" s="160" t="s">
+      <c r="J6" s="160" t="s">
         <v>227</v>
       </c>
-      <c r="I6" s="360" t="s">
+      <c r="K6" s="349" t="s">
         <v>228</v>
       </c>
-      <c r="J6" s="361"/>
-      <c r="K6" s="361"/>
-      <c r="L6" s="362"/>
-      <c r="M6" s="181" t="s">
+      <c r="L6" s="350"/>
+      <c r="M6" s="350"/>
+      <c r="N6" s="351"/>
+      <c r="O6" s="181" t="s">
         <v>230</v>
       </c>
-      <c r="N6" s="182" t="s">
+      <c r="P6" s="182" t="s">
         <v>231</v>
       </c>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
       <c r="Q6" s="153"/>
-    </row>
-    <row r="7" spans="1:17" s="154" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="149"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="184" t="s">
+      <c r="R6" s="153"/>
+      <c r="S6" s="153"/>
+    </row>
+    <row r="7" spans="1:19" s="154" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="152">
+        <v>3</v>
+      </c>
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="184" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="159" t="s">
+      <c r="H7" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="159" t="s">
+      <c r="I7" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="160" t="s">
+      <c r="J7" s="160" t="s">
         <v>233</v>
       </c>
-      <c r="I7" s="360" t="s">
+      <c r="K7" s="349" t="s">
         <v>249</v>
       </c>
-      <c r="J7" s="361"/>
-      <c r="K7" s="361"/>
-      <c r="L7" s="362"/>
-      <c r="M7" s="185" t="s">
+      <c r="L7" s="350"/>
+      <c r="M7" s="350"/>
+      <c r="N7" s="351"/>
+      <c r="O7" s="185" t="s">
         <v>234</v>
       </c>
-      <c r="N7" s="186" t="s">
+      <c r="P7" s="186" t="s">
         <v>244</v>
       </c>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
       <c r="Q7" s="153"/>
-    </row>
-    <row r="8" spans="1:17" s="154" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
-      <c r="B8" s="161"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="184" t="s">
+      <c r="R7" s="153"/>
+      <c r="S7" s="153"/>
+    </row>
+    <row r="8" spans="1:19" s="154" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="155">
+        <v>4</v>
+      </c>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="184" t="s">
         <v>238</v>
       </c>
-      <c r="F8" s="159" t="s">
+      <c r="H8" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="G8" s="159" t="s">
+      <c r="I8" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="H8" s="160" t="s">
+      <c r="J8" s="160" t="s">
         <v>239</v>
       </c>
-      <c r="I8" s="357" t="s">
+      <c r="K8" s="346" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="358"/>
-      <c r="K8" s="358"/>
-      <c r="L8" s="359"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
+      <c r="L8" s="347"/>
+      <c r="M8" s="347"/>
+      <c r="N8" s="348"/>
       <c r="O8" s="153"/>
       <c r="P8" s="153"/>
       <c r="Q8" s="153"/>
-    </row>
-    <row r="9" spans="1:17" s="199" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="191"/>
-      <c r="B9" s="192"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="195" t="s">
+      <c r="R8" s="153"/>
+      <c r="S8" s="153"/>
+    </row>
+    <row r="9" spans="1:19" s="199" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="191">
+        <v>5</v>
+      </c>
+      <c r="B9" s="191"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="195" t="s">
         <v>252</v>
       </c>
-      <c r="F9" s="196" t="s">
+      <c r="H9" s="196" t="s">
         <v>221</v>
       </c>
-      <c r="G9" s="196" t="s">
+      <c r="I9" s="196" t="s">
         <v>253</v>
       </c>
-      <c r="H9" s="197" t="s">
+      <c r="J9" s="197" t="s">
         <v>254</v>
       </c>
-      <c r="I9" s="363" t="s">
+      <c r="K9" s="352" t="s">
         <v>255</v>
       </c>
-      <c r="J9" s="364"/>
-      <c r="K9" s="364"/>
-      <c r="L9" s="365"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="198"/>
+      <c r="L9" s="353"/>
+      <c r="M9" s="353"/>
+      <c r="N9" s="354"/>
       <c r="O9" s="198"/>
       <c r="P9" s="198"/>
       <c r="Q9" s="198"/>
-    </row>
-    <row r="10" spans="1:17" s="199" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="200"/>
-      <c r="B10" s="192"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="201" t="s">
+      <c r="R9" s="198"/>
+      <c r="S9" s="198"/>
+    </row>
+    <row r="10" spans="1:19" s="199" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="200">
+        <v>6</v>
+      </c>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="201" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="196" t="s">
+      <c r="H10" s="196" t="s">
         <v>221</v>
       </c>
-      <c r="G10" s="196" t="s">
+      <c r="I10" s="196" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="197" t="s">
+      <c r="J10" s="197" t="s">
         <v>257</v>
       </c>
-      <c r="I10" s="345" t="s">
+      <c r="K10" s="356" t="s">
         <v>258</v>
       </c>
-      <c r="J10" s="346"/>
-      <c r="K10" s="346"/>
-      <c r="L10" s="347"/>
-      <c r="M10" s="202" t="s">
+      <c r="L10" s="357"/>
+      <c r="M10" s="357"/>
+      <c r="N10" s="358"/>
+      <c r="O10" s="202" t="s">
         <v>259</v>
       </c>
-      <c r="N10" s="203" t="s">
+      <c r="P10" s="203" t="s">
         <v>260</v>
       </c>
-      <c r="O10" s="198"/>
-      <c r="P10" s="198"/>
       <c r="Q10" s="198"/>
-    </row>
-    <row r="11" spans="1:17" s="199" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="204"/>
-      <c r="B11" s="192"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="195" t="s">
+      <c r="R10" s="198"/>
+      <c r="S10" s="198"/>
+    </row>
+    <row r="11" spans="1:19" s="199" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="191">
+        <v>7</v>
+      </c>
+      <c r="B11" s="204"/>
+      <c r="C11" s="204"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="195" t="s">
         <v>261</v>
       </c>
-      <c r="F11" s="196" t="s">
+      <c r="H11" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G11" s="196" t="s">
+      <c r="I11" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="197" t="s">
+      <c r="J11" s="197" t="s">
         <v>262</v>
       </c>
-      <c r="I11" s="345" t="s">
+      <c r="K11" s="356" t="s">
         <v>263</v>
       </c>
-      <c r="J11" s="346"/>
-      <c r="K11" s="346"/>
-      <c r="L11" s="347"/>
-      <c r="M11" s="205" t="s">
+      <c r="L11" s="357"/>
+      <c r="M11" s="357"/>
+      <c r="N11" s="358"/>
+      <c r="O11" s="205" t="s">
         <v>264</v>
       </c>
-      <c r="N11" s="206" t="s">
+      <c r="P11" s="206" t="s">
         <v>244</v>
       </c>
-      <c r="O11" s="198"/>
-      <c r="P11" s="198"/>
       <c r="Q11" s="198"/>
-    </row>
-    <row r="12" spans="1:17" s="199" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="204"/>
-      <c r="B12" s="192"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="195" t="s">
+      <c r="R11" s="198"/>
+      <c r="S11" s="198"/>
+    </row>
+    <row r="12" spans="1:19" s="199" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="200">
+        <v>8</v>
+      </c>
+      <c r="B12" s="204"/>
+      <c r="C12" s="204"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="195" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="196" t="s">
+      <c r="H12" s="196" t="s">
         <v>266</v>
       </c>
-      <c r="G12" s="196" t="s">
+      <c r="I12" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="197" t="s">
+      <c r="J12" s="197" t="s">
         <v>267</v>
       </c>
-      <c r="I12" s="345" t="s">
+      <c r="K12" s="356" t="s">
         <v>268</v>
       </c>
-      <c r="J12" s="346"/>
-      <c r="K12" s="346"/>
-      <c r="L12" s="347"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
+      <c r="L12" s="357"/>
+      <c r="M12" s="357"/>
+      <c r="N12" s="358"/>
       <c r="O12" s="198"/>
       <c r="P12" s="198"/>
       <c r="Q12" s="198"/>
-    </row>
-    <row r="13" spans="1:17" s="236" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="228"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="229" t="s">
+      <c r="R12" s="198"/>
+      <c r="S12" s="198"/>
+    </row>
+    <row r="13" spans="1:19" s="236" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="228">
+        <v>9</v>
+      </c>
+      <c r="B13" s="228"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="229" t="s">
         <v>280</v>
       </c>
-      <c r="D13" s="230" t="s">
+      <c r="F13" s="230" t="s">
         <v>281</v>
       </c>
-      <c r="E13" s="231" t="s">
+      <c r="G13" s="231" t="s">
         <v>280</v>
       </c>
-      <c r="F13" s="232" t="s">
+      <c r="H13" s="232" t="s">
         <v>221</v>
       </c>
-      <c r="G13" s="232" t="s">
+      <c r="I13" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="233" t="s">
+      <c r="J13" s="233" t="s">
         <v>288</v>
       </c>
-      <c r="I13" s="348" t="s">
+      <c r="K13" s="359" t="s">
         <v>282</v>
       </c>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
-      <c r="M13" s="234" t="s">
+      <c r="L13" s="360"/>
+      <c r="M13" s="360"/>
+      <c r="N13" s="361"/>
+      <c r="O13" s="234" t="s">
         <v>283</v>
       </c>
-      <c r="N13" s="234" t="s">
+      <c r="P13" s="234" t="s">
         <v>284</v>
       </c>
-      <c r="O13" s="235"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="231" t="s">
+      <c r="Q13" s="235"/>
+      <c r="R13" s="235"/>
+      <c r="S13" s="231" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="236" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="253"/>
-      <c r="B14" s="254"/>
-      <c r="C14" s="255" t="s">
+    <row r="14" spans="1:19" s="236" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="253">
+        <v>10</v>
+      </c>
+      <c r="B14" s="253"/>
+      <c r="C14" s="253"/>
+      <c r="D14" s="254"/>
+      <c r="E14" s="255" t="s">
         <v>286</v>
       </c>
-      <c r="D14" s="256" t="s">
+      <c r="F14" s="256" t="s">
         <v>287</v>
       </c>
-      <c r="E14" s="257" t="s">
+      <c r="G14" s="257" t="s">
         <v>286</v>
       </c>
-      <c r="F14" s="235" t="s">
+      <c r="H14" s="235" t="s">
         <v>221</v>
       </c>
-      <c r="G14" s="235" t="s">
+      <c r="I14" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="258" t="s">
+      <c r="J14" s="258" t="s">
         <v>292</v>
       </c>
-      <c r="I14" s="351" t="s">
+      <c r="K14" s="362" t="s">
         <v>289</v>
       </c>
-      <c r="J14" s="352"/>
-      <c r="K14" s="352"/>
-      <c r="L14" s="353"/>
-      <c r="M14" s="259" t="s">
+      <c r="L14" s="363"/>
+      <c r="M14" s="363"/>
+      <c r="N14" s="364"/>
+      <c r="O14" s="259" t="s">
         <v>290</v>
       </c>
-      <c r="N14" s="259" t="s">
+      <c r="P14" s="259" t="s">
         <v>291</v>
       </c>
-      <c r="O14" s="235"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="257" t="s">
+      <c r="Q14" s="235"/>
+      <c r="R14" s="235"/>
+      <c r="S14" s="257" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="272" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="264"/>
-      <c r="B15" s="265" t="s">
+    <row r="15" spans="1:19" s="272" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="264">
+        <v>11</v>
+      </c>
+      <c r="B15" s="264" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="264">
+        <v>51</v>
+      </c>
+      <c r="D15" s="265" t="s">
         <v>306</v>
       </c>
-      <c r="C15" s="266"/>
-      <c r="D15" s="267" t="s">
+      <c r="E15" s="266"/>
+      <c r="F15" s="267" t="s">
         <v>308</v>
       </c>
-      <c r="E15" s="268" t="s">
+      <c r="G15" s="268" t="s">
         <v>305</v>
       </c>
-      <c r="F15" s="269" t="s">
+      <c r="H15" s="269" t="s">
         <v>221</v>
       </c>
-      <c r="G15" s="269" t="s">
+      <c r="I15" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="270" t="s">
+      <c r="J15" s="270" t="s">
         <v>309</v>
       </c>
-      <c r="I15" s="354" t="s">
+      <c r="K15" s="365" t="s">
         <v>310</v>
       </c>
-      <c r="J15" s="355"/>
-      <c r="K15" s="355"/>
-      <c r="L15" s="356"/>
-      <c r="M15" s="271" t="s">
+      <c r="L15" s="366"/>
+      <c r="M15" s="366"/>
+      <c r="N15" s="367"/>
+      <c r="O15" s="271" t="s">
         <v>311</v>
       </c>
-      <c r="N15" s="271" t="s">
+      <c r="P15" s="271" t="s">
         <v>312</v>
       </c>
-      <c r="O15" s="269" t="s">
+      <c r="Q15" s="269" t="s">
         <v>307</v>
       </c>
-      <c r="P15" s="269" t="s">
+      <c r="R15" s="269" t="s">
         <v>171</v>
       </c>
-      <c r="Q15" s="268" t="s">
+      <c r="S15" s="268" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="260"/>
-      <c r="B16" s="261"/>
-      <c r="C16" s="262"/>
-      <c r="D16" s="260"/>
-      <c r="E16" s="263"/>
-      <c r="F16" s="263"/>
+      <c r="B16" s="260"/>
+      <c r="C16" s="260"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="262"/>
+      <c r="F16" s="260"/>
       <c r="G16" s="263"/>
       <c r="H16" s="263"/>
       <c r="I16" s="263"/>
       <c r="J16" s="263"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="K16" s="263"/>
+      <c r="L16" s="263"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="344"/>
-      <c r="F17" s="344"/>
-      <c r="G17" s="344"/>
-      <c r="H17" s="344"/>
-      <c r="I17" s="344"/>
-      <c r="J17" s="344"/>
-    </row>
-    <row r="18" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="355"/>
+      <c r="H17" s="355"/>
+      <c r="I17" s="355"/>
+      <c r="J17" s="355"/>
+      <c r="K17" s="355"/>
+      <c r="L17" s="355"/>
+    </row>
+    <row r="18" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="344"/>
-      <c r="F18" s="344"/>
-      <c r="G18" s="344"/>
-      <c r="H18" s="344"/>
-      <c r="I18" s="344"/>
-      <c r="J18" s="344"/>
-    </row>
-    <row r="19" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="355"/>
+      <c r="H18" s="355"/>
+      <c r="I18" s="355"/>
+      <c r="J18" s="355"/>
+      <c r="K18" s="355"/>
+      <c r="L18" s="355"/>
+    </row>
+    <row r="19" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="344"/>
-      <c r="F19" s="344"/>
-      <c r="G19" s="344"/>
-      <c r="H19" s="344"/>
-      <c r="I19" s="344"/>
-      <c r="J19" s="344"/>
-    </row>
-    <row r="20" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="355"/>
+      <c r="H19" s="355"/>
+      <c r="I19" s="355"/>
+      <c r="J19" s="355"/>
+      <c r="K19" s="355"/>
+      <c r="L19" s="355"/>
+    </row>
+    <row r="20" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="344"/>
-      <c r="F20" s="344"/>
-      <c r="G20" s="344"/>
-      <c r="H20" s="344"/>
-      <c r="I20" s="344"/>
-      <c r="J20" s="344"/>
-    </row>
-    <row r="21" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="355"/>
+      <c r="H20" s="355"/>
+      <c r="I20" s="355"/>
+      <c r="J20" s="355"/>
+      <c r="K20" s="355"/>
+      <c r="L20" s="355"/>
+    </row>
+    <row r="21" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="344"/>
-      <c r="F21" s="344"/>
-      <c r="G21" s="344"/>
-      <c r="H21" s="344"/>
-      <c r="I21" s="344"/>
-      <c r="J21" s="344"/>
-    </row>
-    <row r="22" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="355"/>
+      <c r="H21" s="355"/>
+      <c r="I21" s="355"/>
+      <c r="J21" s="355"/>
+      <c r="K21" s="355"/>
+      <c r="L21" s="355"/>
+    </row>
+    <row r="22" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="344"/>
-      <c r="F22" s="344"/>
-      <c r="G22" s="344"/>
-      <c r="H22" s="344"/>
-      <c r="I22" s="344"/>
-      <c r="J22" s="344"/>
-    </row>
-    <row r="23" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="355"/>
+      <c r="H22" s="355"/>
+      <c r="I22" s="355"/>
+      <c r="J22" s="355"/>
+      <c r="K22" s="355"/>
+      <c r="L22" s="355"/>
+    </row>
+    <row r="23" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="344"/>
-      <c r="H23" s="344"/>
-      <c r="I23" s="344"/>
-      <c r="J23" s="344"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="355"/>
+      <c r="H23" s="355"/>
+      <c r="I23" s="355"/>
+      <c r="J23" s="355"/>
+      <c r="K23" s="355"/>
+      <c r="L23" s="355"/>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="279"/>
-      <c r="F24" s="279"/>
-      <c r="G24" s="279"/>
-      <c r="H24" s="279"/>
-      <c r="I24" s="279"/>
-      <c r="J24" s="279"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="294"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="294"/>
+      <c r="J24" s="294"/>
+      <c r="K24" s="294"/>
+      <c r="L24" s="294"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279"/>
-      <c r="H25" s="279"/>
-      <c r="I25" s="279"/>
-      <c r="J25" s="279"/>
-    </row>
-    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="294"/>
+      <c r="H25" s="294"/>
+      <c r="I25" s="294"/>
+      <c r="J25" s="294"/>
+      <c r="K25" s="294"/>
+      <c r="L25" s="294"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="279"/>
-      <c r="F26" s="279"/>
-      <c r="G26" s="279"/>
-      <c r="H26" s="279"/>
-      <c r="I26" s="279"/>
-      <c r="J26" s="279"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="294"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="294"/>
+      <c r="J26" s="294"/>
+      <c r="K26" s="294"/>
+      <c r="L26" s="294"/>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="279"/>
-      <c r="G27" s="279"/>
-      <c r="H27" s="279"/>
-      <c r="I27" s="279"/>
-      <c r="J27" s="279"/>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="294"/>
+      <c r="H27" s="294"/>
+      <c r="I27" s="294"/>
+      <c r="J27" s="294"/>
+      <c r="K27" s="294"/>
+      <c r="L27" s="294"/>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="279"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
-      <c r="H28" s="279"/>
-      <c r="I28" s="279"/>
-      <c r="J28" s="279"/>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="294"/>
+      <c r="I28" s="294"/>
+      <c r="J28" s="294"/>
+      <c r="K28" s="294"/>
+      <c r="L28" s="294"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="279"/>
-      <c r="G29" s="279"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="294"/>
+      <c r="H29" s="294"/>
+      <c r="I29" s="294"/>
+      <c r="J29" s="294"/>
+      <c r="K29" s="294"/>
+      <c r="L29" s="294"/>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="279"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
-      <c r="H30" s="279"/>
-      <c r="I30" s="279"/>
-      <c r="J30" s="279"/>
-    </row>
-    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="294"/>
+      <c r="H30" s="294"/>
+      <c r="I30" s="294"/>
+      <c r="J30" s="294"/>
+      <c r="K30" s="294"/>
+      <c r="L30" s="294"/>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="279"/>
-      <c r="F31" s="279"/>
-      <c r="G31" s="279"/>
-      <c r="H31" s="279"/>
-      <c r="I31" s="279"/>
-      <c r="J31" s="279"/>
-    </row>
-    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="294"/>
+      <c r="H31" s="294"/>
+      <c r="I31" s="294"/>
+      <c r="J31" s="294"/>
+      <c r="K31" s="294"/>
+      <c r="L31" s="294"/>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="279"/>
-      <c r="F32" s="279"/>
-      <c r="G32" s="279"/>
-      <c r="H32" s="279"/>
-      <c r="I32" s="279"/>
-      <c r="J32" s="279"/>
-    </row>
-    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="294"/>
+      <c r="H32" s="294"/>
+      <c r="I32" s="294"/>
+      <c r="J32" s="294"/>
+      <c r="K32" s="294"/>
+      <c r="L32" s="294"/>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="279"/>
-      <c r="F33" s="279"/>
-      <c r="G33" s="279"/>
-      <c r="H33" s="279"/>
-      <c r="I33" s="279"/>
-      <c r="J33" s="279"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="294"/>
+      <c r="H33" s="294"/>
+      <c r="I33" s="294"/>
+      <c r="J33" s="294"/>
+      <c r="K33" s="294"/>
+      <c r="L33" s="294"/>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="279"/>
-      <c r="F34" s="279"/>
-      <c r="G34" s="279"/>
-      <c r="H34" s="279"/>
-      <c r="I34" s="279"/>
-      <c r="J34" s="279"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="294"/>
+      <c r="H34" s="294"/>
+      <c r="I34" s="294"/>
+      <c r="J34" s="294"/>
+      <c r="K34" s="294"/>
+      <c r="L34" s="294"/>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="279"/>
-      <c r="F35" s="279"/>
-      <c r="G35" s="279"/>
-      <c r="H35" s="279"/>
-      <c r="I35" s="279"/>
-      <c r="J35" s="279"/>
-    </row>
-    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="294"/>
+      <c r="H35" s="294"/>
+      <c r="I35" s="294"/>
+      <c r="J35" s="294"/>
+      <c r="K35" s="294"/>
+      <c r="L35" s="294"/>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="279"/>
-      <c r="F36" s="279"/>
-      <c r="G36" s="279"/>
-      <c r="H36" s="279"/>
-      <c r="I36" s="279"/>
-      <c r="J36" s="279"/>
-    </row>
-    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="294"/>
+      <c r="H36" s="294"/>
+      <c r="I36" s="294"/>
+      <c r="J36" s="294"/>
+      <c r="K36" s="294"/>
+      <c r="L36" s="294"/>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="279"/>
-      <c r="F37" s="279"/>
-      <c r="G37" s="279"/>
-      <c r="H37" s="279"/>
-      <c r="I37" s="279"/>
-      <c r="J37" s="279"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="294"/>
+      <c r="H37" s="294"/>
+      <c r="I37" s="294"/>
+      <c r="J37" s="294"/>
+      <c r="K37" s="294"/>
+      <c r="L37" s="294"/>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="279"/>
-      <c r="F38" s="279"/>
-      <c r="G38" s="279"/>
-      <c r="H38" s="279"/>
-      <c r="I38" s="279"/>
-      <c r="J38" s="279"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="294"/>
+      <c r="H38" s="294"/>
+      <c r="I38" s="294"/>
+      <c r="J38" s="294"/>
+      <c r="K38" s="294"/>
+      <c r="L38" s="294"/>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="279"/>
-      <c r="F39" s="279"/>
-      <c r="G39" s="279"/>
-      <c r="H39" s="279"/>
-      <c r="I39" s="279"/>
-      <c r="J39" s="279"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="294"/>
+      <c r="H39" s="294"/>
+      <c r="I39" s="294"/>
+      <c r="J39" s="294"/>
+      <c r="K39" s="294"/>
+      <c r="L39" s="294"/>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="279"/>
-      <c r="F40" s="279"/>
-      <c r="G40" s="279"/>
-      <c r="H40" s="279"/>
-      <c r="I40" s="279"/>
-      <c r="J40" s="279"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="294"/>
+      <c r="H40" s="294"/>
+      <c r="I40" s="294"/>
+      <c r="J40" s="294"/>
+      <c r="K40" s="294"/>
+      <c r="L40" s="294"/>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="279"/>
-      <c r="F41" s="279"/>
-      <c r="G41" s="279"/>
-      <c r="H41" s="279"/>
-      <c r="I41" s="279"/>
-      <c r="J41" s="279"/>
-    </row>
-    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="294"/>
+      <c r="H41" s="294"/>
+      <c r="I41" s="294"/>
+      <c r="J41" s="294"/>
+      <c r="K41" s="294"/>
+      <c r="L41" s="294"/>
+    </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="279"/>
-      <c r="F42" s="279"/>
-      <c r="G42" s="279"/>
-      <c r="H42" s="279"/>
-      <c r="I42" s="279"/>
-      <c r="J42" s="279"/>
-    </row>
-    <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="294"/>
+      <c r="H42" s="294"/>
+      <c r="I42" s="294"/>
+      <c r="J42" s="294"/>
+      <c r="K42" s="294"/>
+      <c r="L42" s="294"/>
+    </row>
+    <row r="43" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="279"/>
-      <c r="F43" s="279"/>
-      <c r="G43" s="279"/>
-      <c r="H43" s="279"/>
-      <c r="I43" s="279"/>
-      <c r="J43" s="279"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="294"/>
+      <c r="H43" s="294"/>
+      <c r="I43" s="294"/>
+      <c r="J43" s="294"/>
+      <c r="K43" s="294"/>
+      <c r="L43" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G33:L33"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
       <formula1>"ASOFT - ERP.NET,ASOFT - ACC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5 P13:P15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 R13:R15">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I15">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H15">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O13:O15"/>
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q5 Q13:Q15"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="28" orientation="portrait" r:id="rId1"/>
@@ -11094,7 +11315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C37" sqref="C37:K37"/>
     </sheetView>
   </sheetViews>
@@ -11114,11 +11335,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="284" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -11149,9 +11370,9 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="301"/>
-      <c r="B2" s="301"/>
-      <c r="C2" s="301"/>
+      <c r="A2" s="284"/>
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -11699,17 +11920,17 @@
         <v>313</v>
       </c>
       <c r="B37" s="274"/>
-      <c r="C37" s="366" t="s">
+      <c r="C37" s="368" t="s">
         <v>320</v>
       </c>
-      <c r="D37" s="366"/>
-      <c r="E37" s="366"/>
-      <c r="F37" s="366"/>
-      <c r="G37" s="366"/>
-      <c r="H37" s="366"/>
-      <c r="I37" s="366"/>
-      <c r="J37" s="366"/>
-      <c r="K37" s="366"/>
+      <c r="D37" s="368"/>
+      <c r="E37" s="368"/>
+      <c r="F37" s="368"/>
+      <c r="G37" s="368"/>
+      <c r="H37" s="368"/>
+      <c r="I37" s="368"/>
+      <c r="J37" s="368"/>
+      <c r="K37" s="368"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="167" t="s">
@@ -11798,12 +12019,12 @@
       <c r="C43" s="39"/>
       <c r="D43" s="42"/>
       <c r="E43" s="38"/>
-      <c r="F43" s="344"/>
-      <c r="G43" s="344"/>
-      <c r="H43" s="344"/>
-      <c r="I43" s="344"/>
-      <c r="J43" s="344"/>
-      <c r="K43" s="344"/>
+      <c r="F43" s="355"/>
+      <c r="G43" s="355"/>
+      <c r="H43" s="355"/>
+      <c r="I43" s="355"/>
+      <c r="J43" s="355"/>
+      <c r="K43" s="355"/>
       <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:12" s="199" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11829,12 +12050,12 @@
       <c r="C45" s="39"/>
       <c r="D45" s="42"/>
       <c r="E45" s="38"/>
-      <c r="F45" s="344"/>
-      <c r="G45" s="344"/>
-      <c r="H45" s="344"/>
-      <c r="I45" s="344"/>
-      <c r="J45" s="344"/>
-      <c r="K45" s="344"/>
+      <c r="F45" s="355"/>
+      <c r="G45" s="355"/>
+      <c r="H45" s="355"/>
+      <c r="I45" s="355"/>
+      <c r="J45" s="355"/>
+      <c r="K45" s="355"/>
       <c r="L45" s="17"/>
     </row>
     <row r="46" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11845,12 +12066,12 @@
       <c r="C46" s="39"/>
       <c r="D46" s="42"/>
       <c r="E46" s="38"/>
-      <c r="F46" s="344"/>
-      <c r="G46" s="344"/>
-      <c r="H46" s="344"/>
-      <c r="I46" s="344"/>
-      <c r="J46" s="344"/>
-      <c r="K46" s="344"/>
+      <c r="F46" s="355"/>
+      <c r="G46" s="355"/>
+      <c r="H46" s="355"/>
+      <c r="I46" s="355"/>
+      <c r="J46" s="355"/>
+      <c r="K46" s="355"/>
       <c r="L46" s="17"/>
     </row>
     <row r="47" spans="1:12" s="199" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12072,11 +12293,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="284" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -12099,9 +12320,9 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="301"/>
-      <c r="B2" s="301"/>
-      <c r="C2" s="301"/>
+      <c r="A2" s="284"/>
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -12471,12 +12692,12 @@
       <c r="C28" s="39"/>
       <c r="D28" s="42"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="344"/>
-      <c r="G28" s="344"/>
-      <c r="H28" s="344"/>
-      <c r="I28" s="344"/>
-      <c r="J28" s="344"/>
-      <c r="K28" s="344"/>
+      <c r="F28" s="355"/>
+      <c r="G28" s="355"/>
+      <c r="H28" s="355"/>
+      <c r="I28" s="355"/>
+      <c r="J28" s="355"/>
+      <c r="K28" s="355"/>
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -12485,12 +12706,12 @@
       <c r="C29" s="39"/>
       <c r="D29" s="42"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="344"/>
-      <c r="G29" s="344"/>
-      <c r="H29" s="344"/>
-      <c r="I29" s="344"/>
-      <c r="J29" s="344"/>
-      <c r="K29" s="344"/>
+      <c r="F29" s="355"/>
+      <c r="G29" s="355"/>
+      <c r="H29" s="355"/>
+      <c r="I29" s="355"/>
+      <c r="J29" s="355"/>
+      <c r="K29" s="355"/>
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -12499,12 +12720,12 @@
       <c r="C30" s="39"/>
       <c r="D30" s="42"/>
       <c r="E30" s="38"/>
-      <c r="F30" s="344"/>
-      <c r="G30" s="344"/>
-      <c r="H30" s="344"/>
-      <c r="I30" s="344"/>
-      <c r="J30" s="344"/>
-      <c r="K30" s="344"/>
+      <c r="F30" s="355"/>
+      <c r="G30" s="355"/>
+      <c r="H30" s="355"/>
+      <c r="I30" s="355"/>
+      <c r="J30" s="355"/>
+      <c r="K30" s="355"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12513,12 +12734,12 @@
       <c r="C31" s="39"/>
       <c r="D31" s="42"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="344"/>
-      <c r="G31" s="344"/>
-      <c r="H31" s="344"/>
-      <c r="I31" s="344"/>
-      <c r="J31" s="344"/>
-      <c r="K31" s="344"/>
+      <c r="F31" s="355"/>
+      <c r="G31" s="355"/>
+      <c r="H31" s="355"/>
+      <c r="I31" s="355"/>
+      <c r="J31" s="355"/>
+      <c r="K31" s="355"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12738,14 +12959,14 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
-      <c r="E2" s="367" t="s">
+      <c r="E2" s="369" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="367"/>
-      <c r="G2" s="367"/>
-      <c r="H2" s="367"/>
-      <c r="I2" s="367"/>
-      <c r="J2" s="367"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
@@ -13166,11 +13387,11 @@
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
-      <c r="E28" s="368" t="s">
+      <c r="E28" s="370" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="369"/>
-      <c r="G28" s="370"/>
+      <c r="F28" s="371"/>
+      <c r="G28" s="372"/>
       <c r="H28" s="78"/>
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat phieu nhap kho/WF0011 Cap nhat phieu nhap kho.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat phieu nhap kho/WF0011 Cap nhat phieu nhap kho.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="791" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Form Func Spec'!$A$1:$K$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Func Spec'!$A$1:$K$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Help!$A$1:$Q$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$L$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$L$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Item Screen'!$A$1:$N$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Layout Screen'!$A$1:$J$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Update History'!$A$1:$J$14</definedName>
@@ -1147,30 +1147,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ngày tạo tài liệu</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -1952,7 +1928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="321">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3397,11 +3373,6 @@
     <t>@SQL011</t>
   </si>
   <si>
-    <t>SELECT TOP 1 1 FROM AT2006
-WHERE DivisionID = @DivisionID
-AND VoucherID = @VoucherID AND IsWeb=1</t>
-  </si>
-  <si>
     <t>@DivisionID @VoucherID  
 @IsWeb</t>
   </si>
@@ -3414,36 +3385,65 @@
     <t>Ver 6.0</t>
   </si>
   <si>
-    <t>Sửa</t>
-  </si>
-  <si>
-    <t>Require</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>WFML000186</t>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>CustomizeIndex</t>
   </si>
   <si>
     <t>-CustomizeIndex = 51 (Hoàng Trần) 
-+ Sheet Input Check thêm WFML000186
 + Sheet Data Input Thêm @SQL009
 + Sheet Form Func Spec thêm xử lý khi sửa</t>
   </si>
   <si>
-    <t>Chỉ dùng Customize Hoàng Trần (CustomizeIndex = 51) Kiểm tra điều kiện nhập Web khi thực hiện sửa Phiếu nhập</t>
-  </si>
-  <si>
-    <t>CustomizeIndex = 51: Click LinkEdit  thực thi câu @SQL009 kiểm tra điều kiện IsWeb 
-+ Nếu =1 Warn message WFML000186, Click Ok thực hiện @SQL004 load Form WF0011 Chỉ Enabled trường Description , RefNo01, RefNo02, ActualQuantity, Ana01ID, Ana02ID, Ana03ID, Ana04ID, Ana05ID, Ana06ID, Ana07ID, Ana08ID, Ana09ID, Ana10ID, PeriodID, ProductID để sửa còn lại Disabled. Click No thoát ra 
+    <r>
+      <t xml:space="preserve">SELECT TOP 1 1 FROM AT2006
+WHERE DivisionID = @DivisionID
+AND VoucherID = @VoucherID AND </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>IsWeb=1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiểm tra điều kiện nhập Web khi thực hiện sửa Phiếu nhập</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Luồng nghiệp vụ 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+CustomizeIndex = 51: Click LinkEdit  thực thi câu @SQL011 kiểm tra điều kiện IsWeb 
++ Nếu =1 Warn message WFML000186, Click Yes thực hiện @SQL004 load Form WF0011 Chỉ Enabled trường Description , RefNo01, RefNo02, ActualQuantity, Ana01ID, Ana02ID, Ana03ID, Ana04ID, Ana05ID, Ana06ID, Ana07ID, Ana08ID, Ana09ID, Ana10ID, PeriodID, ProductID để sửa còn lại Disabled. Click No thoát ra 
 + Nếu =0 thực thi @SQL004 load giá trị cho Form WF0011</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>CustomizeIndex</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver 6.0  </t>
+  </si>
+  <si>
+    <t>Tham khảo luồng nghiệp vụ 1</t>
   </si>
 </sst>
 </file>
@@ -3453,7 +3453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3583,6 +3583,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color theme="0"/>
       <name val="Tahoma"/>
@@ -3912,7 +3919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4670,18 +4677,6 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4851,15 +4846,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5565,7 +5551,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:J10"/>
+      <selection activeCell="E11" sqref="E11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5584,10 +5570,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="280" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="284"/>
+      <c r="B1" s="280"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -5614,8 +5600,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="284"/>
-      <c r="B2" s="284"/>
+      <c r="A2" s="280"/>
+      <c r="B2" s="280"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -5666,14 +5652,14 @@
       <c r="D4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="285" t="s">
+      <c r="E4" s="281" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285"/>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
+      <c r="F4" s="281"/>
+      <c r="G4" s="281"/>
+      <c r="H4" s="281"/>
+      <c r="I4" s="281"/>
+      <c r="J4" s="281"/>
     </row>
     <row r="5" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -5690,14 +5676,14 @@
         <f>H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="E5" s="286" t="s">
+      <c r="E5" s="282" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="287"/>
-      <c r="G5" s="287"/>
-      <c r="H5" s="287"/>
-      <c r="I5" s="287"/>
-      <c r="J5" s="287"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="283"/>
+      <c r="H5" s="283"/>
+      <c r="I5" s="283"/>
+      <c r="J5" s="283"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -5712,14 +5698,14 @@
       <c r="D6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="288" t="s">
+      <c r="E6" s="284" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="289"/>
-      <c r="G6" s="289"/>
-      <c r="H6" s="289"/>
-      <c r="I6" s="289"/>
-      <c r="J6" s="290"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="285"/>
+      <c r="H6" s="285"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="286"/>
     </row>
     <row r="7" spans="1:10" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="187">
@@ -5734,14 +5720,14 @@
       <c r="D7" s="190" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="291" t="s">
+      <c r="E7" s="287" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="292"/>
-      <c r="J7" s="293"/>
+      <c r="F7" s="288"/>
+      <c r="G7" s="288"/>
+      <c r="H7" s="288"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="289"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -5756,14 +5742,14 @@
       <c r="D8" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="281" t="s">
+      <c r="E8" s="277" t="s">
         <v>279</v>
       </c>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="282"/>
-      <c r="I8" s="282"/>
-      <c r="J8" s="283"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="279"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -5778,14 +5764,14 @@
       <c r="D9" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="295" t="s">
+      <c r="E9" s="291" t="s">
         <v>300</v>
       </c>
-      <c r="F9" s="296"/>
-      <c r="G9" s="296"/>
-      <c r="H9" s="296"/>
-      <c r="I9" s="296"/>
-      <c r="J9" s="297"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="293"/>
     </row>
     <row r="10" spans="1:10" s="30" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -5800,14 +5786,14 @@
       <c r="D10" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="E10" s="298" t="s">
-        <v>318</v>
-      </c>
-      <c r="F10" s="299"/>
-      <c r="G10" s="299"/>
-      <c r="H10" s="299"/>
-      <c r="I10" s="299"/>
-      <c r="J10" s="300"/>
+      <c r="E10" s="294" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="295"/>
+      <c r="G10" s="295"/>
+      <c r="H10" s="295"/>
+      <c r="I10" s="295"/>
+      <c r="J10" s="296"/>
     </row>
     <row r="11" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5818,12 +5804,12 @@
       </c>
       <c r="C11" s="116"/>
       <c r="D11" s="117"/>
-      <c r="E11" s="301"/>
-      <c r="F11" s="302"/>
-      <c r="G11" s="302"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="303"/>
+      <c r="E11" s="297"/>
+      <c r="F11" s="298"/>
+      <c r="G11" s="298"/>
+      <c r="H11" s="298"/>
+      <c r="I11" s="298"/>
+      <c r="J11" s="299"/>
     </row>
     <row r="12" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -5834,12 +5820,12 @@
       </c>
       <c r="C12" s="119"/>
       <c r="D12" s="120"/>
-      <c r="E12" s="304"/>
-      <c r="F12" s="305"/>
-      <c r="G12" s="305"/>
-      <c r="H12" s="305"/>
-      <c r="I12" s="305"/>
-      <c r="J12" s="306"/>
+      <c r="E12" s="300"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="301"/>
+      <c r="H12" s="301"/>
+      <c r="I12" s="301"/>
+      <c r="J12" s="302"/>
     </row>
     <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -5850,12 +5836,12 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="309"/>
+      <c r="E13" s="303"/>
+      <c r="F13" s="304"/>
+      <c r="G13" s="304"/>
+      <c r="H13" s="304"/>
+      <c r="I13" s="304"/>
+      <c r="J13" s="305"/>
     </row>
     <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -5866,348 +5852,348 @@
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="310"/>
-      <c r="F14" s="311"/>
-      <c r="G14" s="311"/>
-      <c r="H14" s="311"/>
-      <c r="I14" s="311"/>
-      <c r="J14" s="312"/>
+      <c r="E14" s="306"/>
+      <c r="F14" s="307"/>
+      <c r="G14" s="307"/>
+      <c r="H14" s="307"/>
+      <c r="I14" s="307"/>
+      <c r="J14" s="308"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="294"/>
-      <c r="F15" s="294"/>
-      <c r="G15" s="294"/>
-      <c r="H15" s="294"/>
-      <c r="I15" s="294"/>
-      <c r="J15" s="294"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="290"/>
+      <c r="J15" s="290"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="294"/>
-      <c r="F16" s="294"/>
-      <c r="G16" s="294"/>
-      <c r="H16" s="294"/>
-      <c r="I16" s="294"/>
-      <c r="J16" s="294"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
+      <c r="J16" s="290"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="294"/>
-      <c r="F17" s="294"/>
-      <c r="G17" s="294"/>
-      <c r="H17" s="294"/>
-      <c r="I17" s="294"/>
-      <c r="J17" s="294"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="290"/>
+      <c r="I17" s="290"/>
+      <c r="J17" s="290"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="294"/>
-      <c r="F18" s="294"/>
-      <c r="G18" s="294"/>
-      <c r="H18" s="294"/>
-      <c r="I18" s="294"/>
-      <c r="J18" s="294"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="290"/>
+      <c r="J18" s="290"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="294"/>
-      <c r="F19" s="294"/>
-      <c r="G19" s="294"/>
-      <c r="H19" s="294"/>
-      <c r="I19" s="294"/>
-      <c r="J19" s="294"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="290"/>
+      <c r="H19" s="290"/>
+      <c r="I19" s="290"/>
+      <c r="J19" s="290"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="294"/>
-      <c r="F20" s="294"/>
-      <c r="G20" s="294"/>
-      <c r="H20" s="294"/>
-      <c r="I20" s="294"/>
-      <c r="J20" s="294"/>
+      <c r="E20" s="290"/>
+      <c r="F20" s="290"/>
+      <c r="G20" s="290"/>
+      <c r="H20" s="290"/>
+      <c r="I20" s="290"/>
+      <c r="J20" s="290"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="294"/>
-      <c r="F21" s="294"/>
-      <c r="G21" s="294"/>
-      <c r="H21" s="294"/>
-      <c r="I21" s="294"/>
-      <c r="J21" s="294"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="290"/>
+      <c r="G21" s="290"/>
+      <c r="H21" s="290"/>
+      <c r="I21" s="290"/>
+      <c r="J21" s="290"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="294"/>
-      <c r="F22" s="294"/>
-      <c r="G22" s="294"/>
-      <c r="H22" s="294"/>
-      <c r="I22" s="294"/>
-      <c r="J22" s="294"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="290"/>
+      <c r="G22" s="290"/>
+      <c r="H22" s="290"/>
+      <c r="I22" s="290"/>
+      <c r="J22" s="290"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="294"/>
-      <c r="F23" s="294"/>
-      <c r="G23" s="294"/>
-      <c r="H23" s="294"/>
-      <c r="I23" s="294"/>
-      <c r="J23" s="294"/>
+      <c r="E23" s="290"/>
+      <c r="F23" s="290"/>
+      <c r="G23" s="290"/>
+      <c r="H23" s="290"/>
+      <c r="I23" s="290"/>
+      <c r="J23" s="290"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="294"/>
-      <c r="F24" s="294"/>
-      <c r="G24" s="294"/>
-      <c r="H24" s="294"/>
-      <c r="I24" s="294"/>
-      <c r="J24" s="294"/>
+      <c r="E24" s="290"/>
+      <c r="F24" s="290"/>
+      <c r="G24" s="290"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="290"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="294"/>
-      <c r="F25" s="294"/>
-      <c r="G25" s="294"/>
-      <c r="H25" s="294"/>
-      <c r="I25" s="294"/>
-      <c r="J25" s="294"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="290"/>
+      <c r="G25" s="290"/>
+      <c r="H25" s="290"/>
+      <c r="I25" s="290"/>
+      <c r="J25" s="290"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="294"/>
-      <c r="F26" s="294"/>
-      <c r="G26" s="294"/>
-      <c r="H26" s="294"/>
-      <c r="I26" s="294"/>
-      <c r="J26" s="294"/>
+      <c r="E26" s="290"/>
+      <c r="F26" s="290"/>
+      <c r="G26" s="290"/>
+      <c r="H26" s="290"/>
+      <c r="I26" s="290"/>
+      <c r="J26" s="290"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="294"/>
-      <c r="F27" s="294"/>
-      <c r="G27" s="294"/>
-      <c r="H27" s="294"/>
-      <c r="I27" s="294"/>
-      <c r="J27" s="294"/>
+      <c r="E27" s="290"/>
+      <c r="F27" s="290"/>
+      <c r="G27" s="290"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="290"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="294"/>
-      <c r="F28" s="294"/>
-      <c r="G28" s="294"/>
-      <c r="H28" s="294"/>
-      <c r="I28" s="294"/>
-      <c r="J28" s="294"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="290"/>
+      <c r="H28" s="290"/>
+      <c r="I28" s="290"/>
+      <c r="J28" s="290"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="294"/>
-      <c r="F29" s="294"/>
-      <c r="G29" s="294"/>
-      <c r="H29" s="294"/>
-      <c r="I29" s="294"/>
-      <c r="J29" s="294"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="290"/>
+      <c r="G29" s="290"/>
+      <c r="H29" s="290"/>
+      <c r="I29" s="290"/>
+      <c r="J29" s="290"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="294"/>
-      <c r="F30" s="294"/>
-      <c r="G30" s="294"/>
-      <c r="H30" s="294"/>
-      <c r="I30" s="294"/>
-      <c r="J30" s="294"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="290"/>
+      <c r="G30" s="290"/>
+      <c r="H30" s="290"/>
+      <c r="I30" s="290"/>
+      <c r="J30" s="290"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="294"/>
-      <c r="F31" s="294"/>
-      <c r="G31" s="294"/>
-      <c r="H31" s="294"/>
-      <c r="I31" s="294"/>
-      <c r="J31" s="294"/>
+      <c r="E31" s="290"/>
+      <c r="F31" s="290"/>
+      <c r="G31" s="290"/>
+      <c r="H31" s="290"/>
+      <c r="I31" s="290"/>
+      <c r="J31" s="290"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="294"/>
-      <c r="F32" s="294"/>
-      <c r="G32" s="294"/>
-      <c r="H32" s="294"/>
-      <c r="I32" s="294"/>
-      <c r="J32" s="294"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="290"/>
+      <c r="H32" s="290"/>
+      <c r="I32" s="290"/>
+      <c r="J32" s="290"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="294"/>
-      <c r="F33" s="294"/>
-      <c r="G33" s="294"/>
-      <c r="H33" s="294"/>
-      <c r="I33" s="294"/>
-      <c r="J33" s="294"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="290"/>
+      <c r="G33" s="290"/>
+      <c r="H33" s="290"/>
+      <c r="I33" s="290"/>
+      <c r="J33" s="290"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="294"/>
-      <c r="F34" s="294"/>
-      <c r="G34" s="294"/>
-      <c r="H34" s="294"/>
-      <c r="I34" s="294"/>
-      <c r="J34" s="294"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="290"/>
+      <c r="G34" s="290"/>
+      <c r="H34" s="290"/>
+      <c r="I34" s="290"/>
+      <c r="J34" s="290"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="294"/>
-      <c r="F35" s="294"/>
-      <c r="G35" s="294"/>
-      <c r="H35" s="294"/>
-      <c r="I35" s="294"/>
-      <c r="J35" s="294"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
+      <c r="G35" s="290"/>
+      <c r="H35" s="290"/>
+      <c r="I35" s="290"/>
+      <c r="J35" s="290"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="294"/>
-      <c r="F36" s="294"/>
-      <c r="G36" s="294"/>
-      <c r="H36" s="294"/>
-      <c r="I36" s="294"/>
-      <c r="J36" s="294"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
+      <c r="G36" s="290"/>
+      <c r="H36" s="290"/>
+      <c r="I36" s="290"/>
+      <c r="J36" s="290"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="294"/>
-      <c r="F37" s="294"/>
-      <c r="G37" s="294"/>
-      <c r="H37" s="294"/>
-      <c r="I37" s="294"/>
-      <c r="J37" s="294"/>
+      <c r="E37" s="290"/>
+      <c r="F37" s="290"/>
+      <c r="G37" s="290"/>
+      <c r="H37" s="290"/>
+      <c r="I37" s="290"/>
+      <c r="J37" s="290"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="294"/>
-      <c r="F38" s="294"/>
-      <c r="G38" s="294"/>
-      <c r="H38" s="294"/>
-      <c r="I38" s="294"/>
-      <c r="J38" s="294"/>
+      <c r="E38" s="290"/>
+      <c r="F38" s="290"/>
+      <c r="G38" s="290"/>
+      <c r="H38" s="290"/>
+      <c r="I38" s="290"/>
+      <c r="J38" s="290"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="294"/>
-      <c r="F39" s="294"/>
-      <c r="G39" s="294"/>
-      <c r="H39" s="294"/>
-      <c r="I39" s="294"/>
-      <c r="J39" s="294"/>
+      <c r="E39" s="290"/>
+      <c r="F39" s="290"/>
+      <c r="G39" s="290"/>
+      <c r="H39" s="290"/>
+      <c r="I39" s="290"/>
+      <c r="J39" s="290"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="294"/>
-      <c r="F40" s="294"/>
-      <c r="G40" s="294"/>
-      <c r="H40" s="294"/>
-      <c r="I40" s="294"/>
-      <c r="J40" s="294"/>
+      <c r="E40" s="290"/>
+      <c r="F40" s="290"/>
+      <c r="G40" s="290"/>
+      <c r="H40" s="290"/>
+      <c r="I40" s="290"/>
+      <c r="J40" s="290"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="294"/>
-      <c r="F41" s="294"/>
-      <c r="G41" s="294"/>
-      <c r="H41" s="294"/>
-      <c r="I41" s="294"/>
-      <c r="J41" s="294"/>
+      <c r="E41" s="290"/>
+      <c r="F41" s="290"/>
+      <c r="G41" s="290"/>
+      <c r="H41" s="290"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="290"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="294"/>
-      <c r="F42" s="294"/>
-      <c r="G42" s="294"/>
-      <c r="H42" s="294"/>
-      <c r="I42" s="294"/>
-      <c r="J42" s="294"/>
+      <c r="E42" s="290"/>
+      <c r="F42" s="290"/>
+      <c r="G42" s="290"/>
+      <c r="H42" s="290"/>
+      <c r="I42" s="290"/>
+      <c r="J42" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -6459,10 +6445,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="280" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="284"/>
+      <c r="B1" s="280"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -6493,8 +6479,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="284"/>
-      <c r="B2" s="284"/>
+      <c r="A2" s="280"/>
+      <c r="B2" s="280"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -6537,76 +6523,76 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="284" t="s">
+      <c r="A4" s="280" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="284"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="284"/>
-      <c r="E4" s="284"/>
-      <c r="F4" s="284"/>
-      <c r="G4" s="284"/>
-      <c r="H4" s="284"/>
-      <c r="I4" s="284" t="s">
+      <c r="B4" s="280"/>
+      <c r="C4" s="280"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="280" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="284"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="321"/>
-      <c r="B5" s="322"/>
-      <c r="C5" s="322"/>
-      <c r="D5" s="322"/>
-      <c r="E5" s="322"/>
-      <c r="F5" s="322"/>
-      <c r="G5" s="322"/>
-      <c r="H5" s="323"/>
-      <c r="I5" s="313" t="s">
+      <c r="A5" s="317"/>
+      <c r="B5" s="318"/>
+      <c r="C5" s="318"/>
+      <c r="D5" s="318"/>
+      <c r="E5" s="318"/>
+      <c r="F5" s="318"/>
+      <c r="G5" s="318"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="309" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="314"/>
+      <c r="J5" s="310"/>
     </row>
     <row r="6" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="324"/>
-      <c r="B6" s="325"/>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
-      <c r="G6" s="325"/>
-      <c r="H6" s="326"/>
-      <c r="I6" s="315" t="s">
+      <c r="A6" s="320"/>
+      <c r="B6" s="321"/>
+      <c r="C6" s="321"/>
+      <c r="D6" s="321"/>
+      <c r="E6" s="321"/>
+      <c r="F6" s="321"/>
+      <c r="G6" s="321"/>
+      <c r="H6" s="322"/>
+      <c r="I6" s="311" t="s">
         <v>247</v>
       </c>
-      <c r="J6" s="316"/>
+      <c r="J6" s="312"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="324"/>
-      <c r="B7" s="325"/>
-      <c r="C7" s="325"/>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="325"/>
-      <c r="G7" s="325"/>
-      <c r="H7" s="326"/>
-      <c r="I7" s="317" t="s">
+      <c r="A7" s="320"/>
+      <c r="B7" s="321"/>
+      <c r="C7" s="321"/>
+      <c r="D7" s="321"/>
+      <c r="E7" s="321"/>
+      <c r="F7" s="321"/>
+      <c r="G7" s="321"/>
+      <c r="H7" s="322"/>
+      <c r="I7" s="313" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="318"/>
+      <c r="J7" s="314"/>
     </row>
     <row r="8" spans="1:10" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="324"/>
-      <c r="B8" s="325"/>
-      <c r="C8" s="325"/>
-      <c r="D8" s="325"/>
-      <c r="E8" s="325"/>
-      <c r="F8" s="325"/>
-      <c r="G8" s="325"/>
-      <c r="H8" s="326"/>
-      <c r="I8" s="319" t="s">
+      <c r="A8" s="320"/>
+      <c r="B8" s="321"/>
+      <c r="C8" s="321"/>
+      <c r="D8" s="321"/>
+      <c r="E8" s="321"/>
+      <c r="F8" s="321"/>
+      <c r="G8" s="321"/>
+      <c r="H8" s="322"/>
+      <c r="I8" s="315" t="s">
         <v>241</v>
       </c>
-      <c r="J8" s="320"/>
+      <c r="J8" s="316"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -6685,336 +6671,336 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="294"/>
-      <c r="F15" s="294"/>
-      <c r="G15" s="294"/>
-      <c r="H15" s="294"/>
-      <c r="I15" s="294"/>
-      <c r="J15" s="294"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="290"/>
+      <c r="J15" s="290"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="294"/>
-      <c r="F16" s="294"/>
-      <c r="G16" s="294"/>
-      <c r="H16" s="294"/>
-      <c r="I16" s="294"/>
-      <c r="J16" s="294"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
+      <c r="J16" s="290"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="294"/>
-      <c r="F17" s="294"/>
-      <c r="G17" s="294"/>
-      <c r="H17" s="294"/>
-      <c r="I17" s="294"/>
-      <c r="J17" s="294"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="290"/>
+      <c r="I17" s="290"/>
+      <c r="J17" s="290"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="294"/>
-      <c r="F18" s="294"/>
-      <c r="G18" s="294"/>
-      <c r="H18" s="294"/>
-      <c r="I18" s="294"/>
-      <c r="J18" s="294"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="290"/>
+      <c r="J18" s="290"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="294"/>
-      <c r="F19" s="294"/>
-      <c r="G19" s="294"/>
-      <c r="H19" s="294"/>
-      <c r="I19" s="294"/>
-      <c r="J19" s="294"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="290"/>
+      <c r="H19" s="290"/>
+      <c r="I19" s="290"/>
+      <c r="J19" s="290"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="294"/>
-      <c r="F20" s="294"/>
-      <c r="G20" s="294"/>
-      <c r="H20" s="294"/>
-      <c r="I20" s="294"/>
-      <c r="J20" s="294"/>
+      <c r="E20" s="290"/>
+      <c r="F20" s="290"/>
+      <c r="G20" s="290"/>
+      <c r="H20" s="290"/>
+      <c r="I20" s="290"/>
+      <c r="J20" s="290"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="294"/>
-      <c r="F21" s="294"/>
-      <c r="G21" s="294"/>
-      <c r="H21" s="294"/>
-      <c r="I21" s="294"/>
-      <c r="J21" s="294"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="290"/>
+      <c r="G21" s="290"/>
+      <c r="H21" s="290"/>
+      <c r="I21" s="290"/>
+      <c r="J21" s="290"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="294"/>
-      <c r="F22" s="294"/>
-      <c r="G22" s="294"/>
-      <c r="H22" s="294"/>
-      <c r="I22" s="294"/>
-      <c r="J22" s="294"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="290"/>
+      <c r="G22" s="290"/>
+      <c r="H22" s="290"/>
+      <c r="I22" s="290"/>
+      <c r="J22" s="290"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="294"/>
-      <c r="F23" s="294"/>
-      <c r="G23" s="294"/>
-      <c r="H23" s="294"/>
-      <c r="I23" s="294"/>
-      <c r="J23" s="294"/>
+      <c r="E23" s="290"/>
+      <c r="F23" s="290"/>
+      <c r="G23" s="290"/>
+      <c r="H23" s="290"/>
+      <c r="I23" s="290"/>
+      <c r="J23" s="290"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="294"/>
-      <c r="F24" s="294"/>
-      <c r="G24" s="294"/>
-      <c r="H24" s="294"/>
-      <c r="I24" s="294"/>
-      <c r="J24" s="294"/>
+      <c r="E24" s="290"/>
+      <c r="F24" s="290"/>
+      <c r="G24" s="290"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="290"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="294"/>
-      <c r="F25" s="294"/>
-      <c r="G25" s="294"/>
-      <c r="H25" s="294"/>
-      <c r="I25" s="294"/>
-      <c r="J25" s="294"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="290"/>
+      <c r="G25" s="290"/>
+      <c r="H25" s="290"/>
+      <c r="I25" s="290"/>
+      <c r="J25" s="290"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="294"/>
-      <c r="F26" s="294"/>
-      <c r="G26" s="294"/>
-      <c r="H26" s="294"/>
-      <c r="I26" s="294"/>
-      <c r="J26" s="294"/>
+      <c r="E26" s="290"/>
+      <c r="F26" s="290"/>
+      <c r="G26" s="290"/>
+      <c r="H26" s="290"/>
+      <c r="I26" s="290"/>
+      <c r="J26" s="290"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="294"/>
-      <c r="F27" s="294"/>
-      <c r="G27" s="294"/>
-      <c r="H27" s="294"/>
-      <c r="I27" s="294"/>
-      <c r="J27" s="294"/>
+      <c r="E27" s="290"/>
+      <c r="F27" s="290"/>
+      <c r="G27" s="290"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="290"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="294"/>
-      <c r="F28" s="294"/>
-      <c r="G28" s="294"/>
-      <c r="H28" s="294"/>
-      <c r="I28" s="294"/>
-      <c r="J28" s="294"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="290"/>
+      <c r="H28" s="290"/>
+      <c r="I28" s="290"/>
+      <c r="J28" s="290"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="294"/>
-      <c r="F29" s="294"/>
-      <c r="G29" s="294"/>
-      <c r="H29" s="294"/>
-      <c r="I29" s="294"/>
-      <c r="J29" s="294"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="290"/>
+      <c r="G29" s="290"/>
+      <c r="H29" s="290"/>
+      <c r="I29" s="290"/>
+      <c r="J29" s="290"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="294"/>
-      <c r="F30" s="294"/>
-      <c r="G30" s="294"/>
-      <c r="H30" s="294"/>
-      <c r="I30" s="294"/>
-      <c r="J30" s="294"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="290"/>
+      <c r="G30" s="290"/>
+      <c r="H30" s="290"/>
+      <c r="I30" s="290"/>
+      <c r="J30" s="290"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="294"/>
-      <c r="F31" s="294"/>
-      <c r="G31" s="294"/>
-      <c r="H31" s="294"/>
-      <c r="I31" s="294"/>
-      <c r="J31" s="294"/>
+      <c r="E31" s="290"/>
+      <c r="F31" s="290"/>
+      <c r="G31" s="290"/>
+      <c r="H31" s="290"/>
+      <c r="I31" s="290"/>
+      <c r="J31" s="290"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="294"/>
-      <c r="F32" s="294"/>
-      <c r="G32" s="294"/>
-      <c r="H32" s="294"/>
-      <c r="I32" s="294"/>
-      <c r="J32" s="294"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="290"/>
+      <c r="H32" s="290"/>
+      <c r="I32" s="290"/>
+      <c r="J32" s="290"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="294"/>
-      <c r="F33" s="294"/>
-      <c r="G33" s="294"/>
-      <c r="H33" s="294"/>
-      <c r="I33" s="294"/>
-      <c r="J33" s="294"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="290"/>
+      <c r="G33" s="290"/>
+      <c r="H33" s="290"/>
+      <c r="I33" s="290"/>
+      <c r="J33" s="290"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="294"/>
-      <c r="F34" s="294"/>
-      <c r="G34" s="294"/>
-      <c r="H34" s="294"/>
-      <c r="I34" s="294"/>
-      <c r="J34" s="294"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="290"/>
+      <c r="G34" s="290"/>
+      <c r="H34" s="290"/>
+      <c r="I34" s="290"/>
+      <c r="J34" s="290"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="294"/>
-      <c r="F35" s="294"/>
-      <c r="G35" s="294"/>
-      <c r="H35" s="294"/>
-      <c r="I35" s="294"/>
-      <c r="J35" s="294"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
+      <c r="G35" s="290"/>
+      <c r="H35" s="290"/>
+      <c r="I35" s="290"/>
+      <c r="J35" s="290"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="294"/>
-      <c r="F36" s="294"/>
-      <c r="G36" s="294"/>
-      <c r="H36" s="294"/>
-      <c r="I36" s="294"/>
-      <c r="J36" s="294"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
+      <c r="G36" s="290"/>
+      <c r="H36" s="290"/>
+      <c r="I36" s="290"/>
+      <c r="J36" s="290"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="294"/>
-      <c r="F37" s="294"/>
-      <c r="G37" s="294"/>
-      <c r="H37" s="294"/>
-      <c r="I37" s="294"/>
-      <c r="J37" s="294"/>
+      <c r="E37" s="290"/>
+      <c r="F37" s="290"/>
+      <c r="G37" s="290"/>
+      <c r="H37" s="290"/>
+      <c r="I37" s="290"/>
+      <c r="J37" s="290"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="294"/>
-      <c r="F38" s="294"/>
-      <c r="G38" s="294"/>
-      <c r="H38" s="294"/>
-      <c r="I38" s="294"/>
-      <c r="J38" s="294"/>
+      <c r="E38" s="290"/>
+      <c r="F38" s="290"/>
+      <c r="G38" s="290"/>
+      <c r="H38" s="290"/>
+      <c r="I38" s="290"/>
+      <c r="J38" s="290"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="294"/>
-      <c r="F39" s="294"/>
-      <c r="G39" s="294"/>
-      <c r="H39" s="294"/>
-      <c r="I39" s="294"/>
-      <c r="J39" s="294"/>
+      <c r="E39" s="290"/>
+      <c r="F39" s="290"/>
+      <c r="G39" s="290"/>
+      <c r="H39" s="290"/>
+      <c r="I39" s="290"/>
+      <c r="J39" s="290"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="294"/>
-      <c r="F40" s="294"/>
-      <c r="G40" s="294"/>
-      <c r="H40" s="294"/>
-      <c r="I40" s="294"/>
-      <c r="J40" s="294"/>
+      <c r="E40" s="290"/>
+      <c r="F40" s="290"/>
+      <c r="G40" s="290"/>
+      <c r="H40" s="290"/>
+      <c r="I40" s="290"/>
+      <c r="J40" s="290"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="294"/>
-      <c r="F41" s="294"/>
-      <c r="G41" s="294"/>
-      <c r="H41" s="294"/>
-      <c r="I41" s="294"/>
-      <c r="J41" s="294"/>
+      <c r="E41" s="290"/>
+      <c r="F41" s="290"/>
+      <c r="G41" s="290"/>
+      <c r="H41" s="290"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="290"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="294"/>
-      <c r="F42" s="294"/>
-      <c r="G42" s="294"/>
-      <c r="H42" s="294"/>
-      <c r="I42" s="294"/>
-      <c r="J42" s="294"/>
+      <c r="E42" s="290"/>
+      <c r="F42" s="290"/>
+      <c r="G42" s="290"/>
+      <c r="H42" s="290"/>
+      <c r="I42" s="290"/>
+      <c r="J42" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -7095,10 +7081,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="280" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="327"/>
+      <c r="B1" s="323"/>
       <c r="C1" s="124" t="s">
         <v>1</v>
       </c>
@@ -7123,18 +7109,18 @@
       <c r="I1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="328" t="str">
+      <c r="J1" s="324" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="K1" s="329"/>
+      <c r="K1" s="325"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="284"/>
-      <c r="B2" s="327"/>
+      <c r="A2" s="280"/>
+      <c r="B2" s="323"/>
       <c r="C2" s="124" t="s">
         <v>7</v>
       </c>
@@ -7159,11 +7145,11 @@
       <c r="I2" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="330">
+      <c r="J2" s="326">
         <f>'Update History'!J2</f>
         <v>42381</v>
       </c>
-      <c r="K2" s="331"/>
+      <c r="K2" s="327"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -8873,10 +8859,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8894,12 +8880,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="280" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
       <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
@@ -8930,10 +8916,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="284"/>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
+      <c r="A2" s="280"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
       <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
@@ -8981,11 +8967,11 @@
       <c r="A4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="279" t="s">
-        <v>321</v>
-      </c>
-      <c r="C4" s="279" t="s">
-        <v>322</v>
+      <c r="B4" s="275" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="275" t="s">
+        <v>314</v>
       </c>
       <c r="D4" s="61" t="s">
         <v>22</v>
@@ -9005,67 +8991,53 @@
       <c r="I4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="335" t="s">
+      <c r="J4" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="335"/>
-      <c r="L4" s="335"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114" t="s">
-        <v>313</v>
-      </c>
-      <c r="C5" s="114">
-        <v>51</v>
-      </c>
-      <c r="D5" s="112" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" s="275" t="s">
-        <v>315</v>
-      </c>
-      <c r="F5" s="276"/>
-      <c r="G5" s="277"/>
-      <c r="H5" s="278" t="s">
-        <v>307</v>
-      </c>
-      <c r="I5" s="278" t="s">
-        <v>316</v>
-      </c>
-      <c r="J5" s="336" t="s">
-        <v>317</v>
-      </c>
-      <c r="K5" s="337"/>
-      <c r="L5" s="338"/>
+      <c r="K4" s="331"/>
+      <c r="L4" s="331"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="328"/>
+      <c r="K5" s="329"/>
+      <c r="L5" s="330"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="332"/>
-      <c r="K6" s="333"/>
-      <c r="L6" s="334"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="328"/>
+      <c r="K6" s="329"/>
+      <c r="L6" s="330"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="19"/>
       <c r="E7" s="57"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="332"/>
-      <c r="K7" s="333"/>
-      <c r="L7" s="334"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="328"/>
+      <c r="K7" s="329"/>
+      <c r="L7" s="330"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
@@ -9074,26 +9046,26 @@
       <c r="D8" s="19"/>
       <c r="E8" s="57"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="332"/>
-      <c r="K8" s="333"/>
-      <c r="L8" s="334"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="328"/>
+      <c r="K8" s="329"/>
+      <c r="L8" s="330"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="19"/>
       <c r="E9" s="57"/>
       <c r="F9" s="18"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="332"/>
-      <c r="K9" s="333"/>
-      <c r="L9" s="334"/>
+      <c r="J9" s="328"/>
+      <c r="K9" s="329"/>
+      <c r="L9" s="330"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
@@ -9105,9 +9077,9 @@
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="332"/>
-      <c r="K10" s="333"/>
-      <c r="L10" s="334"/>
+      <c r="J10" s="328"/>
+      <c r="K10" s="329"/>
+      <c r="L10" s="330"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
@@ -9119,23 +9091,23 @@
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
-      <c r="J11" s="332"/>
-      <c r="K11" s="333"/>
-      <c r="L11" s="334"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="328"/>
+      <c r="K11" s="329"/>
+      <c r="L11" s="330"/>
+    </row>
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="332"/>
-      <c r="K12" s="333"/>
-      <c r="L12" s="334"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="328"/>
+      <c r="K12" s="329"/>
+      <c r="L12" s="330"/>
     </row>
     <row r="13" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
@@ -9147,65 +9119,65 @@
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="333"/>
-      <c r="L13" s="334"/>
-    </row>
-    <row r="14" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="332"/>
-      <c r="K14" s="333"/>
-      <c r="L14" s="334"/>
+      <c r="J13" s="328"/>
+      <c r="K13" s="329"/>
+      <c r="L13" s="330"/>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="290"/>
+      <c r="H14" s="290"/>
+      <c r="I14" s="290"/>
+      <c r="J14" s="290"/>
+      <c r="K14" s="290"/>
+      <c r="L14" s="290"/>
     </row>
     <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="35"/>
       <c r="E15" s="36"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="294"/>
-      <c r="H15" s="294"/>
-      <c r="I15" s="294"/>
-      <c r="J15" s="294"/>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="290"/>
+      <c r="J15" s="290"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="294"/>
-      <c r="H16" s="294"/>
-      <c r="I16" s="294"/>
-      <c r="J16" s="294"/>
-      <c r="K16" s="294"/>
-      <c r="L16" s="294"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
+      <c r="J16" s="290"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="35"/>
       <c r="E17" s="36"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="294"/>
-      <c r="H17" s="294"/>
-      <c r="I17" s="294"/>
-      <c r="J17" s="294"/>
-      <c r="K17" s="294"/>
-      <c r="L17" s="294"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="290"/>
+      <c r="I17" s="290"/>
+      <c r="J17" s="290"/>
+      <c r="K17" s="290"/>
+      <c r="L17" s="290"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -9214,26 +9186,26 @@
       <c r="D18" s="35"/>
       <c r="E18" s="36"/>
       <c r="F18" s="34"/>
-      <c r="G18" s="294"/>
-      <c r="H18" s="294"/>
-      <c r="I18" s="294"/>
-      <c r="J18" s="294"/>
-      <c r="K18" s="294"/>
-      <c r="L18" s="294"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="290"/>
+      <c r="J18" s="290"/>
+      <c r="K18" s="290"/>
+      <c r="L18" s="290"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="35"/>
       <c r="E19" s="36"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="294"/>
-      <c r="H19" s="294"/>
-      <c r="I19" s="294"/>
-      <c r="J19" s="294"/>
-      <c r="K19" s="294"/>
-      <c r="L19" s="294"/>
+      <c r="G19" s="290"/>
+      <c r="H19" s="290"/>
+      <c r="I19" s="290"/>
+      <c r="J19" s="290"/>
+      <c r="K19" s="290"/>
+      <c r="L19" s="290"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -9242,12 +9214,12 @@
       <c r="D20" s="35"/>
       <c r="E20" s="36"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="294"/>
-      <c r="H20" s="294"/>
-      <c r="I20" s="294"/>
-      <c r="J20" s="294"/>
-      <c r="K20" s="294"/>
-      <c r="L20" s="294"/>
+      <c r="G20" s="290"/>
+      <c r="H20" s="290"/>
+      <c r="I20" s="290"/>
+      <c r="J20" s="290"/>
+      <c r="K20" s="290"/>
+      <c r="L20" s="290"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -9256,12 +9228,12 @@
       <c r="D21" s="35"/>
       <c r="E21" s="36"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="294"/>
-      <c r="H21" s="294"/>
-      <c r="I21" s="294"/>
-      <c r="J21" s="294"/>
-      <c r="K21" s="294"/>
-      <c r="L21" s="294"/>
+      <c r="G21" s="290"/>
+      <c r="H21" s="290"/>
+      <c r="I21" s="290"/>
+      <c r="J21" s="290"/>
+      <c r="K21" s="290"/>
+      <c r="L21" s="290"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -9270,12 +9242,12 @@
       <c r="D22" s="35"/>
       <c r="E22" s="36"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="294"/>
-      <c r="H22" s="294"/>
-      <c r="I22" s="294"/>
-      <c r="J22" s="294"/>
-      <c r="K22" s="294"/>
-      <c r="L22" s="294"/>
+      <c r="G22" s="290"/>
+      <c r="H22" s="290"/>
+      <c r="I22" s="290"/>
+      <c r="J22" s="290"/>
+      <c r="K22" s="290"/>
+      <c r="L22" s="290"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -9284,68 +9256,68 @@
       <c r="D23" s="35"/>
       <c r="E23" s="36"/>
       <c r="F23" s="34"/>
-      <c r="G23" s="294"/>
-      <c r="H23" s="294"/>
-      <c r="I23" s="294"/>
-      <c r="J23" s="294"/>
-      <c r="K23" s="294"/>
-      <c r="L23" s="294"/>
+      <c r="G23" s="290"/>
+      <c r="H23" s="290"/>
+      <c r="I23" s="290"/>
+      <c r="J23" s="290"/>
+      <c r="K23" s="290"/>
+      <c r="L23" s="290"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="294"/>
-      <c r="H24" s="294"/>
-      <c r="I24" s="294"/>
-      <c r="J24" s="294"/>
-      <c r="K24" s="294"/>
-      <c r="L24" s="294"/>
+      <c r="G24" s="290"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="290"/>
+      <c r="K24" s="290"/>
+      <c r="L24" s="290"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="294"/>
-      <c r="H25" s="294"/>
-      <c r="I25" s="294"/>
-      <c r="J25" s="294"/>
-      <c r="K25" s="294"/>
-      <c r="L25" s="294"/>
+      <c r="G25" s="290"/>
+      <c r="H25" s="290"/>
+      <c r="I25" s="290"/>
+      <c r="J25" s="290"/>
+      <c r="K25" s="290"/>
+      <c r="L25" s="290"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="294"/>
-      <c r="H26" s="294"/>
-      <c r="I26" s="294"/>
-      <c r="J26" s="294"/>
-      <c r="K26" s="294"/>
-      <c r="L26" s="294"/>
+      <c r="G26" s="290"/>
+      <c r="H26" s="290"/>
+      <c r="I26" s="290"/>
+      <c r="J26" s="290"/>
+      <c r="K26" s="290"/>
+      <c r="L26" s="290"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="35"/>
       <c r="E27" s="36"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="294"/>
-      <c r="H27" s="294"/>
-      <c r="I27" s="294"/>
-      <c r="J27" s="294"/>
-      <c r="K27" s="294"/>
-      <c r="L27" s="294"/>
+      <c r="G27" s="290"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="290"/>
+      <c r="K27" s="290"/>
+      <c r="L27" s="290"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -9354,26 +9326,26 @@
       <c r="D28" s="35"/>
       <c r="E28" s="36"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="294"/>
-      <c r="H28" s="294"/>
-      <c r="I28" s="294"/>
-      <c r="J28" s="294"/>
-      <c r="K28" s="294"/>
-      <c r="L28" s="294"/>
+      <c r="G28" s="290"/>
+      <c r="H28" s="290"/>
+      <c r="I28" s="290"/>
+      <c r="J28" s="290"/>
+      <c r="K28" s="290"/>
+      <c r="L28" s="290"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="35"/>
       <c r="E29" s="36"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="294"/>
-      <c r="H29" s="294"/>
-      <c r="I29" s="294"/>
-      <c r="J29" s="294"/>
-      <c r="K29" s="294"/>
-      <c r="L29" s="294"/>
+      <c r="G29" s="290"/>
+      <c r="H29" s="290"/>
+      <c r="I29" s="290"/>
+      <c r="J29" s="290"/>
+      <c r="K29" s="290"/>
+      <c r="L29" s="290"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -9382,12 +9354,12 @@
       <c r="D30" s="35"/>
       <c r="E30" s="36"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="294"/>
-      <c r="H30" s="294"/>
-      <c r="I30" s="294"/>
-      <c r="J30" s="294"/>
-      <c r="K30" s="294"/>
-      <c r="L30" s="294"/>
+      <c r="G30" s="290"/>
+      <c r="H30" s="290"/>
+      <c r="I30" s="290"/>
+      <c r="J30" s="290"/>
+      <c r="K30" s="290"/>
+      <c r="L30" s="290"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -9396,12 +9368,12 @@
       <c r="D31" s="35"/>
       <c r="E31" s="36"/>
       <c r="F31" s="34"/>
-      <c r="G31" s="294"/>
-      <c r="H31" s="294"/>
-      <c r="I31" s="294"/>
-      <c r="J31" s="294"/>
-      <c r="K31" s="294"/>
-      <c r="L31" s="294"/>
+      <c r="G31" s="290"/>
+      <c r="H31" s="290"/>
+      <c r="I31" s="290"/>
+      <c r="J31" s="290"/>
+      <c r="K31" s="290"/>
+      <c r="L31" s="290"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -9410,12 +9382,12 @@
       <c r="D32" s="35"/>
       <c r="E32" s="36"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="294"/>
-      <c r="H32" s="294"/>
-      <c r="I32" s="294"/>
-      <c r="J32" s="294"/>
-      <c r="K32" s="294"/>
-      <c r="L32" s="294"/>
+      <c r="G32" s="290"/>
+      <c r="H32" s="290"/>
+      <c r="I32" s="290"/>
+      <c r="J32" s="290"/>
+      <c r="K32" s="290"/>
+      <c r="L32" s="290"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -9424,68 +9396,68 @@
       <c r="D33" s="35"/>
       <c r="E33" s="36"/>
       <c r="F33" s="34"/>
-      <c r="G33" s="294"/>
-      <c r="H33" s="294"/>
-      <c r="I33" s="294"/>
-      <c r="J33" s="294"/>
-      <c r="K33" s="294"/>
-      <c r="L33" s="294"/>
+      <c r="G33" s="290"/>
+      <c r="H33" s="290"/>
+      <c r="I33" s="290"/>
+      <c r="J33" s="290"/>
+      <c r="K33" s="290"/>
+      <c r="L33" s="290"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="35"/>
       <c r="E34" s="36"/>
       <c r="F34" s="34"/>
-      <c r="G34" s="294"/>
-      <c r="H34" s="294"/>
-      <c r="I34" s="294"/>
-      <c r="J34" s="294"/>
-      <c r="K34" s="294"/>
-      <c r="L34" s="294"/>
+      <c r="G34" s="290"/>
+      <c r="H34" s="290"/>
+      <c r="I34" s="290"/>
+      <c r="J34" s="290"/>
+      <c r="K34" s="290"/>
+      <c r="L34" s="290"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="35"/>
       <c r="E35" s="36"/>
       <c r="F35" s="34"/>
-      <c r="G35" s="294"/>
-      <c r="H35" s="294"/>
-      <c r="I35" s="294"/>
-      <c r="J35" s="294"/>
-      <c r="K35" s="294"/>
-      <c r="L35" s="294"/>
+      <c r="G35" s="290"/>
+      <c r="H35" s="290"/>
+      <c r="I35" s="290"/>
+      <c r="J35" s="290"/>
+      <c r="K35" s="290"/>
+      <c r="L35" s="290"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="35"/>
       <c r="E36" s="36"/>
       <c r="F36" s="34"/>
-      <c r="G36" s="294"/>
-      <c r="H36" s="294"/>
-      <c r="I36" s="294"/>
-      <c r="J36" s="294"/>
-      <c r="K36" s="294"/>
-      <c r="L36" s="294"/>
+      <c r="G36" s="290"/>
+      <c r="H36" s="290"/>
+      <c r="I36" s="290"/>
+      <c r="J36" s="290"/>
+      <c r="K36" s="290"/>
+      <c r="L36" s="290"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="294"/>
-      <c r="H37" s="294"/>
-      <c r="I37" s="294"/>
-      <c r="J37" s="294"/>
-      <c r="K37" s="294"/>
-      <c r="L37" s="294"/>
+      <c r="G37" s="290"/>
+      <c r="H37" s="290"/>
+      <c r="I37" s="290"/>
+      <c r="J37" s="290"/>
+      <c r="K37" s="290"/>
+      <c r="L37" s="290"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -9494,26 +9466,26 @@
       <c r="D38" s="35"/>
       <c r="E38" s="36"/>
       <c r="F38" s="34"/>
-      <c r="G38" s="294"/>
-      <c r="H38" s="294"/>
-      <c r="I38" s="294"/>
-      <c r="J38" s="294"/>
-      <c r="K38" s="294"/>
-      <c r="L38" s="294"/>
+      <c r="G38" s="290"/>
+      <c r="H38" s="290"/>
+      <c r="I38" s="290"/>
+      <c r="J38" s="290"/>
+      <c r="K38" s="290"/>
+      <c r="L38" s="290"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
       <c r="F39" s="34"/>
-      <c r="G39" s="294"/>
-      <c r="H39" s="294"/>
-      <c r="I39" s="294"/>
-      <c r="J39" s="294"/>
-      <c r="K39" s="294"/>
-      <c r="L39" s="294"/>
+      <c r="G39" s="290"/>
+      <c r="H39" s="290"/>
+      <c r="I39" s="290"/>
+      <c r="J39" s="290"/>
+      <c r="K39" s="290"/>
+      <c r="L39" s="290"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -9522,75 +9494,61 @@
       <c r="D40" s="35"/>
       <c r="E40" s="36"/>
       <c r="F40" s="34"/>
-      <c r="G40" s="294"/>
-      <c r="H40" s="294"/>
-      <c r="I40" s="294"/>
-      <c r="J40" s="294"/>
-      <c r="K40" s="294"/>
-      <c r="L40" s="294"/>
-    </row>
-    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G40" s="290"/>
+      <c r="H40" s="290"/>
+      <c r="I40" s="290"/>
+      <c r="J40" s="290"/>
+      <c r="K40" s="290"/>
+      <c r="L40" s="290"/>
+    </row>
+    <row r="41" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="35"/>
       <c r="E41" s="36"/>
       <c r="F41" s="34"/>
-      <c r="G41" s="294"/>
-      <c r="H41" s="294"/>
-      <c r="I41" s="294"/>
-      <c r="J41" s="294"/>
-      <c r="K41" s="294"/>
-      <c r="L41" s="294"/>
-    </row>
-    <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="294"/>
-      <c r="H42" s="294"/>
-      <c r="I42" s="294"/>
-      <c r="J42" s="294"/>
-      <c r="K42" s="294"/>
-      <c r="L42" s="294"/>
+      <c r="G41" s="290"/>
+      <c r="H41" s="290"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="290"/>
+      <c r="K41" s="290"/>
+      <c r="L41" s="290"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="39">
+    <mergeCell ref="J9:L9"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="G34:L34"/>
     <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G26:L26"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="G29:L29"/>
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G22:L22"/>
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G32:L32"/>
     <mergeCell ref="G33:L33"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="G38:L38"/>
     <mergeCell ref="G39:L39"/>
     <mergeCell ref="G40:L40"/>
     <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G36:L36"/>
     <mergeCell ref="G37:L37"/>
-    <mergeCell ref="G38:L38"/>
-    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G14:L14"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="G17:L17"/>
@@ -9598,7 +9556,6 @@
     <mergeCell ref="G19:L19"/>
     <mergeCell ref="G20:L20"/>
     <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G22:L22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
@@ -9634,10 +9591,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="280" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="284"/>
+      <c r="B1" s="280"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -9668,8 +9625,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="284"/>
-      <c r="B2" s="284"/>
+      <c r="A2" s="280"/>
+      <c r="B2" s="280"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -9700,16 +9657,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="343"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="344"/>
-      <c r="F3" s="344"/>
-      <c r="G3" s="344"/>
-      <c r="H3" s="344"/>
-      <c r="I3" s="344"/>
-      <c r="J3" s="345"/>
+      <c r="A3" s="336"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="338"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
@@ -9724,16 +9681,16 @@
       <c r="D4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="332" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="339"/>
-      <c r="G4" s="340" t="s">
+      <c r="F4" s="332"/>
+      <c r="G4" s="333" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="341"/>
-      <c r="I4" s="341"/>
-      <c r="J4" s="342"/>
+      <c r="H4" s="334"/>
+      <c r="I4" s="334"/>
+      <c r="J4" s="335"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -9860,336 +9817,336 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="294"/>
-      <c r="F15" s="294"/>
-      <c r="G15" s="294"/>
-      <c r="H15" s="294"/>
-      <c r="I15" s="294"/>
-      <c r="J15" s="294"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="290"/>
+      <c r="J15" s="290"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="294"/>
-      <c r="F16" s="294"/>
-      <c r="G16" s="294"/>
-      <c r="H16" s="294"/>
-      <c r="I16" s="294"/>
-      <c r="J16" s="294"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
+      <c r="J16" s="290"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="294"/>
-      <c r="F17" s="294"/>
-      <c r="G17" s="294"/>
-      <c r="H17" s="294"/>
-      <c r="I17" s="294"/>
-      <c r="J17" s="294"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="290"/>
+      <c r="I17" s="290"/>
+      <c r="J17" s="290"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="294"/>
-      <c r="F18" s="294"/>
-      <c r="G18" s="294"/>
-      <c r="H18" s="294"/>
-      <c r="I18" s="294"/>
-      <c r="J18" s="294"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="290"/>
+      <c r="J18" s="290"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="294"/>
-      <c r="F19" s="294"/>
-      <c r="G19" s="294"/>
-      <c r="H19" s="294"/>
-      <c r="I19" s="294"/>
-      <c r="J19" s="294"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="290"/>
+      <c r="H19" s="290"/>
+      <c r="I19" s="290"/>
+      <c r="J19" s="290"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="294"/>
-      <c r="F20" s="294"/>
-      <c r="G20" s="294"/>
-      <c r="H20" s="294"/>
-      <c r="I20" s="294"/>
-      <c r="J20" s="294"/>
+      <c r="E20" s="290"/>
+      <c r="F20" s="290"/>
+      <c r="G20" s="290"/>
+      <c r="H20" s="290"/>
+      <c r="I20" s="290"/>
+      <c r="J20" s="290"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="294"/>
-      <c r="F21" s="294"/>
-      <c r="G21" s="294"/>
-      <c r="H21" s="294"/>
-      <c r="I21" s="294"/>
-      <c r="J21" s="294"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="290"/>
+      <c r="G21" s="290"/>
+      <c r="H21" s="290"/>
+      <c r="I21" s="290"/>
+      <c r="J21" s="290"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="294"/>
-      <c r="F22" s="294"/>
-      <c r="G22" s="294"/>
-      <c r="H22" s="294"/>
-      <c r="I22" s="294"/>
-      <c r="J22" s="294"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="290"/>
+      <c r="G22" s="290"/>
+      <c r="H22" s="290"/>
+      <c r="I22" s="290"/>
+      <c r="J22" s="290"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="294"/>
-      <c r="F23" s="294"/>
-      <c r="G23" s="294"/>
-      <c r="H23" s="294"/>
-      <c r="I23" s="294"/>
-      <c r="J23" s="294"/>
+      <c r="E23" s="290"/>
+      <c r="F23" s="290"/>
+      <c r="G23" s="290"/>
+      <c r="H23" s="290"/>
+      <c r="I23" s="290"/>
+      <c r="J23" s="290"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="294"/>
-      <c r="F24" s="294"/>
-      <c r="G24" s="294"/>
-      <c r="H24" s="294"/>
-      <c r="I24" s="294"/>
-      <c r="J24" s="294"/>
+      <c r="E24" s="290"/>
+      <c r="F24" s="290"/>
+      <c r="G24" s="290"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="290"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="294"/>
-      <c r="F25" s="294"/>
-      <c r="G25" s="294"/>
-      <c r="H25" s="294"/>
-      <c r="I25" s="294"/>
-      <c r="J25" s="294"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="290"/>
+      <c r="G25" s="290"/>
+      <c r="H25" s="290"/>
+      <c r="I25" s="290"/>
+      <c r="J25" s="290"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="294"/>
-      <c r="F26" s="294"/>
-      <c r="G26" s="294"/>
-      <c r="H26" s="294"/>
-      <c r="I26" s="294"/>
-      <c r="J26" s="294"/>
+      <c r="E26" s="290"/>
+      <c r="F26" s="290"/>
+      <c r="G26" s="290"/>
+      <c r="H26" s="290"/>
+      <c r="I26" s="290"/>
+      <c r="J26" s="290"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="294"/>
-      <c r="F27" s="294"/>
-      <c r="G27" s="294"/>
-      <c r="H27" s="294"/>
-      <c r="I27" s="294"/>
-      <c r="J27" s="294"/>
+      <c r="E27" s="290"/>
+      <c r="F27" s="290"/>
+      <c r="G27" s="290"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="290"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="294"/>
-      <c r="F28" s="294"/>
-      <c r="G28" s="294"/>
-      <c r="H28" s="294"/>
-      <c r="I28" s="294"/>
-      <c r="J28" s="294"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="290"/>
+      <c r="H28" s="290"/>
+      <c r="I28" s="290"/>
+      <c r="J28" s="290"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="294"/>
-      <c r="F29" s="294"/>
-      <c r="G29" s="294"/>
-      <c r="H29" s="294"/>
-      <c r="I29" s="294"/>
-      <c r="J29" s="294"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="290"/>
+      <c r="G29" s="290"/>
+      <c r="H29" s="290"/>
+      <c r="I29" s="290"/>
+      <c r="J29" s="290"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="294"/>
-      <c r="F30" s="294"/>
-      <c r="G30" s="294"/>
-      <c r="H30" s="294"/>
-      <c r="I30" s="294"/>
-      <c r="J30" s="294"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="290"/>
+      <c r="G30" s="290"/>
+      <c r="H30" s="290"/>
+      <c r="I30" s="290"/>
+      <c r="J30" s="290"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="294"/>
-      <c r="F31" s="294"/>
-      <c r="G31" s="294"/>
-      <c r="H31" s="294"/>
-      <c r="I31" s="294"/>
-      <c r="J31" s="294"/>
+      <c r="E31" s="290"/>
+      <c r="F31" s="290"/>
+      <c r="G31" s="290"/>
+      <c r="H31" s="290"/>
+      <c r="I31" s="290"/>
+      <c r="J31" s="290"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="294"/>
-      <c r="F32" s="294"/>
-      <c r="G32" s="294"/>
-      <c r="H32" s="294"/>
-      <c r="I32" s="294"/>
-      <c r="J32" s="294"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="290"/>
+      <c r="H32" s="290"/>
+      <c r="I32" s="290"/>
+      <c r="J32" s="290"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="294"/>
-      <c r="F33" s="294"/>
-      <c r="G33" s="294"/>
-      <c r="H33" s="294"/>
-      <c r="I33" s="294"/>
-      <c r="J33" s="294"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="290"/>
+      <c r="G33" s="290"/>
+      <c r="H33" s="290"/>
+      <c r="I33" s="290"/>
+      <c r="J33" s="290"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="294"/>
-      <c r="F34" s="294"/>
-      <c r="G34" s="294"/>
-      <c r="H34" s="294"/>
-      <c r="I34" s="294"/>
-      <c r="J34" s="294"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="290"/>
+      <c r="G34" s="290"/>
+      <c r="H34" s="290"/>
+      <c r="I34" s="290"/>
+      <c r="J34" s="290"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="294"/>
-      <c r="F35" s="294"/>
-      <c r="G35" s="294"/>
-      <c r="H35" s="294"/>
-      <c r="I35" s="294"/>
-      <c r="J35" s="294"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
+      <c r="G35" s="290"/>
+      <c r="H35" s="290"/>
+      <c r="I35" s="290"/>
+      <c r="J35" s="290"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="294"/>
-      <c r="F36" s="294"/>
-      <c r="G36" s="294"/>
-      <c r="H36" s="294"/>
-      <c r="I36" s="294"/>
-      <c r="J36" s="294"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
+      <c r="G36" s="290"/>
+      <c r="H36" s="290"/>
+      <c r="I36" s="290"/>
+      <c r="J36" s="290"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="294"/>
-      <c r="F37" s="294"/>
-      <c r="G37" s="294"/>
-      <c r="H37" s="294"/>
-      <c r="I37" s="294"/>
-      <c r="J37" s="294"/>
+      <c r="E37" s="290"/>
+      <c r="F37" s="290"/>
+      <c r="G37" s="290"/>
+      <c r="H37" s="290"/>
+      <c r="I37" s="290"/>
+      <c r="J37" s="290"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="294"/>
-      <c r="F38" s="294"/>
-      <c r="G38" s="294"/>
-      <c r="H38" s="294"/>
-      <c r="I38" s="294"/>
-      <c r="J38" s="294"/>
+      <c r="E38" s="290"/>
+      <c r="F38" s="290"/>
+      <c r="G38" s="290"/>
+      <c r="H38" s="290"/>
+      <c r="I38" s="290"/>
+      <c r="J38" s="290"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="294"/>
-      <c r="F39" s="294"/>
-      <c r="G39" s="294"/>
-      <c r="H39" s="294"/>
-      <c r="I39" s="294"/>
-      <c r="J39" s="294"/>
+      <c r="E39" s="290"/>
+      <c r="F39" s="290"/>
+      <c r="G39" s="290"/>
+      <c r="H39" s="290"/>
+      <c r="I39" s="290"/>
+      <c r="J39" s="290"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="294"/>
-      <c r="F40" s="294"/>
-      <c r="G40" s="294"/>
-      <c r="H40" s="294"/>
-      <c r="I40" s="294"/>
-      <c r="J40" s="294"/>
+      <c r="E40" s="290"/>
+      <c r="F40" s="290"/>
+      <c r="G40" s="290"/>
+      <c r="H40" s="290"/>
+      <c r="I40" s="290"/>
+      <c r="J40" s="290"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="294"/>
-      <c r="F41" s="294"/>
-      <c r="G41" s="294"/>
-      <c r="H41" s="294"/>
-      <c r="I41" s="294"/>
-      <c r="J41" s="294"/>
+      <c r="E41" s="290"/>
+      <c r="F41" s="290"/>
+      <c r="G41" s="290"/>
+      <c r="H41" s="290"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="290"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="294"/>
-      <c r="F42" s="294"/>
-      <c r="G42" s="294"/>
-      <c r="H42" s="294"/>
-      <c r="I42" s="294"/>
-      <c r="J42" s="294"/>
+      <c r="E42" s="290"/>
+      <c r="F42" s="290"/>
+      <c r="G42" s="290"/>
+      <c r="H42" s="290"/>
+      <c r="I42" s="290"/>
+      <c r="J42" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -10241,8 +10198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10269,12 +10226,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="280" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
       <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
@@ -10312,10 +10269,10 @@
       <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="284"/>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
+      <c r="A2" s="280"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
       <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
@@ -10353,18 +10310,18 @@
       <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="343"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="344"/>
-      <c r="F3" s="344"/>
-      <c r="G3" s="344"/>
-      <c r="H3" s="344"/>
-      <c r="I3" s="344"/>
-      <c r="J3" s="344"/>
-      <c r="K3" s="344"/>
-      <c r="L3" s="345"/>
+      <c r="A3" s="336"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="337"/>
+      <c r="K3" s="337"/>
+      <c r="L3" s="338"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -10377,11 +10334,11 @@
       <c r="A4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="280" t="s">
-        <v>321</v>
-      </c>
-      <c r="C4" s="280" t="s">
-        <v>322</v>
+      <c r="B4" s="276" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="276" t="s">
+        <v>314</v>
       </c>
       <c r="D4" s="66" t="s">
         <v>46</v>
@@ -10404,12 +10361,12 @@
       <c r="J4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="340" t="s">
+      <c r="K4" s="333" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="341"/>
-      <c r="M4" s="341"/>
-      <c r="N4" s="342"/>
+      <c r="L4" s="334"/>
+      <c r="M4" s="334"/>
+      <c r="N4" s="335"/>
       <c r="O4" s="66" t="s">
         <v>44</v>
       </c>
@@ -10447,12 +10404,12 @@
       <c r="J5" s="160" t="s">
         <v>223</v>
       </c>
-      <c r="K5" s="346" t="s">
+      <c r="K5" s="339" t="s">
         <v>224</v>
       </c>
-      <c r="L5" s="347"/>
-      <c r="M5" s="347"/>
-      <c r="N5" s="348"/>
+      <c r="L5" s="340"/>
+      <c r="M5" s="340"/>
+      <c r="N5" s="341"/>
       <c r="O5" s="160"/>
       <c r="P5" s="159"/>
       <c r="Q5" s="164" t="s">
@@ -10484,12 +10441,12 @@
       <c r="J6" s="160" t="s">
         <v>227</v>
       </c>
-      <c r="K6" s="349" t="s">
+      <c r="K6" s="342" t="s">
         <v>228</v>
       </c>
-      <c r="L6" s="350"/>
-      <c r="M6" s="350"/>
-      <c r="N6" s="351"/>
+      <c r="L6" s="343"/>
+      <c r="M6" s="343"/>
+      <c r="N6" s="344"/>
       <c r="O6" s="181" t="s">
         <v>230</v>
       </c>
@@ -10521,12 +10478,12 @@
       <c r="J7" s="160" t="s">
         <v>233</v>
       </c>
-      <c r="K7" s="349" t="s">
+      <c r="K7" s="342" t="s">
         <v>249</v>
       </c>
-      <c r="L7" s="350"/>
-      <c r="M7" s="350"/>
-      <c r="N7" s="351"/>
+      <c r="L7" s="343"/>
+      <c r="M7" s="343"/>
+      <c r="N7" s="344"/>
       <c r="O7" s="185" t="s">
         <v>234</v>
       </c>
@@ -10558,12 +10515,12 @@
       <c r="J8" s="160" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="346" t="s">
+      <c r="K8" s="339" t="s">
         <v>248</v>
       </c>
-      <c r="L8" s="347"/>
-      <c r="M8" s="347"/>
-      <c r="N8" s="348"/>
+      <c r="L8" s="340"/>
+      <c r="M8" s="340"/>
+      <c r="N8" s="341"/>
       <c r="O8" s="153"/>
       <c r="P8" s="153"/>
       <c r="Q8" s="153"/>
@@ -10591,12 +10548,12 @@
       <c r="J9" s="197" t="s">
         <v>254</v>
       </c>
-      <c r="K9" s="352" t="s">
+      <c r="K9" s="345" t="s">
         <v>255</v>
       </c>
-      <c r="L9" s="353"/>
-      <c r="M9" s="353"/>
-      <c r="N9" s="354"/>
+      <c r="L9" s="346"/>
+      <c r="M9" s="346"/>
+      <c r="N9" s="347"/>
       <c r="O9" s="198"/>
       <c r="P9" s="198"/>
       <c r="Q9" s="198"/>
@@ -10624,12 +10581,12 @@
       <c r="J10" s="197" t="s">
         <v>257</v>
       </c>
-      <c r="K10" s="356" t="s">
+      <c r="K10" s="349" t="s">
         <v>258</v>
       </c>
-      <c r="L10" s="357"/>
-      <c r="M10" s="357"/>
-      <c r="N10" s="358"/>
+      <c r="L10" s="350"/>
+      <c r="M10" s="350"/>
+      <c r="N10" s="351"/>
       <c r="O10" s="202" t="s">
         <v>259</v>
       </c>
@@ -10661,12 +10618,12 @@
       <c r="J11" s="197" t="s">
         <v>262</v>
       </c>
-      <c r="K11" s="356" t="s">
+      <c r="K11" s="349" t="s">
         <v>263</v>
       </c>
-      <c r="L11" s="357"/>
-      <c r="M11" s="357"/>
-      <c r="N11" s="358"/>
+      <c r="L11" s="350"/>
+      <c r="M11" s="350"/>
+      <c r="N11" s="351"/>
       <c r="O11" s="205" t="s">
         <v>264</v>
       </c>
@@ -10698,12 +10655,12 @@
       <c r="J12" s="197" t="s">
         <v>267</v>
       </c>
-      <c r="K12" s="356" t="s">
+      <c r="K12" s="349" t="s">
         <v>268</v>
       </c>
-      <c r="L12" s="357"/>
-      <c r="M12" s="357"/>
-      <c r="N12" s="358"/>
+      <c r="L12" s="350"/>
+      <c r="M12" s="350"/>
+      <c r="N12" s="351"/>
       <c r="O12" s="198"/>
       <c r="P12" s="198"/>
       <c r="Q12" s="198"/>
@@ -10735,12 +10692,12 @@
       <c r="J13" s="233" t="s">
         <v>288</v>
       </c>
-      <c r="K13" s="359" t="s">
+      <c r="K13" s="352" t="s">
         <v>282</v>
       </c>
-      <c r="L13" s="360"/>
-      <c r="M13" s="360"/>
-      <c r="N13" s="361"/>
+      <c r="L13" s="353"/>
+      <c r="M13" s="353"/>
+      <c r="N13" s="354"/>
       <c r="O13" s="234" t="s">
         <v>283</v>
       </c>
@@ -10778,12 +10735,12 @@
       <c r="J14" s="258" t="s">
         <v>292</v>
       </c>
-      <c r="K14" s="362" t="s">
+      <c r="K14" s="355" t="s">
         <v>289</v>
       </c>
-      <c r="L14" s="363"/>
-      <c r="M14" s="363"/>
-      <c r="N14" s="364"/>
+      <c r="L14" s="356"/>
+      <c r="M14" s="356"/>
+      <c r="N14" s="357"/>
       <c r="O14" s="259" t="s">
         <v>290</v>
       </c>
@@ -10801,7 +10758,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="264" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C15" s="264">
         <v>51</v>
@@ -10825,17 +10782,17 @@
       <c r="J15" s="270" t="s">
         <v>309</v>
       </c>
-      <c r="K15" s="365" t="s">
+      <c r="K15" s="358" t="s">
+        <v>316</v>
+      </c>
+      <c r="L15" s="359"/>
+      <c r="M15" s="359"/>
+      <c r="N15" s="360"/>
+      <c r="O15" s="271" t="s">
         <v>310</v>
       </c>
-      <c r="L15" s="366"/>
-      <c r="M15" s="366"/>
-      <c r="N15" s="367"/>
-      <c r="O15" s="271" t="s">
+      <c r="P15" s="271" t="s">
         <v>311</v>
-      </c>
-      <c r="P15" s="271" t="s">
-        <v>312</v>
       </c>
       <c r="Q15" s="269" t="s">
         <v>307</v>
@@ -10844,7 +10801,7 @@
         <v>171</v>
       </c>
       <c r="S15" s="268" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10875,12 +10832,12 @@
       <c r="D17" s="39"/>
       <c r="E17" s="42"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="355"/>
-      <c r="H17" s="355"/>
-      <c r="I17" s="355"/>
-      <c r="J17" s="355"/>
-      <c r="K17" s="355"/>
-      <c r="L17" s="355"/>
+      <c r="G17" s="348"/>
+      <c r="H17" s="348"/>
+      <c r="I17" s="348"/>
+      <c r="J17" s="348"/>
+      <c r="K17" s="348"/>
+      <c r="L17" s="348"/>
     </row>
     <row r="18" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
@@ -10889,12 +10846,12 @@
       <c r="D18" s="39"/>
       <c r="E18" s="42"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="355"/>
-      <c r="H18" s="355"/>
-      <c r="I18" s="355"/>
-      <c r="J18" s="355"/>
-      <c r="K18" s="355"/>
-      <c r="L18" s="355"/>
+      <c r="G18" s="348"/>
+      <c r="H18" s="348"/>
+      <c r="I18" s="348"/>
+      <c r="J18" s="348"/>
+      <c r="K18" s="348"/>
+      <c r="L18" s="348"/>
     </row>
     <row r="19" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
@@ -10903,12 +10860,12 @@
       <c r="D19" s="39"/>
       <c r="E19" s="42"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="355"/>
-      <c r="H19" s="355"/>
-      <c r="I19" s="355"/>
-      <c r="J19" s="355"/>
-      <c r="K19" s="355"/>
-      <c r="L19" s="355"/>
+      <c r="G19" s="348"/>
+      <c r="H19" s="348"/>
+      <c r="I19" s="348"/>
+      <c r="J19" s="348"/>
+      <c r="K19" s="348"/>
+      <c r="L19" s="348"/>
     </row>
     <row r="20" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -10917,12 +10874,12 @@
       <c r="D20" s="39"/>
       <c r="E20" s="42"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="355"/>
-      <c r="H20" s="355"/>
-      <c r="I20" s="355"/>
-      <c r="J20" s="355"/>
-      <c r="K20" s="355"/>
-      <c r="L20" s="355"/>
+      <c r="G20" s="348"/>
+      <c r="H20" s="348"/>
+      <c r="I20" s="348"/>
+      <c r="J20" s="348"/>
+      <c r="K20" s="348"/>
+      <c r="L20" s="348"/>
     </row>
     <row r="21" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
@@ -10931,12 +10888,12 @@
       <c r="D21" s="39"/>
       <c r="E21" s="42"/>
       <c r="F21" s="38"/>
-      <c r="G21" s="355"/>
-      <c r="H21" s="355"/>
-      <c r="I21" s="355"/>
-      <c r="J21" s="355"/>
-      <c r="K21" s="355"/>
-      <c r="L21" s="355"/>
+      <c r="G21" s="348"/>
+      <c r="H21" s="348"/>
+      <c r="I21" s="348"/>
+      <c r="J21" s="348"/>
+      <c r="K21" s="348"/>
+      <c r="L21" s="348"/>
     </row>
     <row r="22" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -10945,12 +10902,12 @@
       <c r="D22" s="39"/>
       <c r="E22" s="42"/>
       <c r="F22" s="38"/>
-      <c r="G22" s="355"/>
-      <c r="H22" s="355"/>
-      <c r="I22" s="355"/>
-      <c r="J22" s="355"/>
-      <c r="K22" s="355"/>
-      <c r="L22" s="355"/>
+      <c r="G22" s="348"/>
+      <c r="H22" s="348"/>
+      <c r="I22" s="348"/>
+      <c r="J22" s="348"/>
+      <c r="K22" s="348"/>
+      <c r="L22" s="348"/>
     </row>
     <row r="23" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
@@ -10959,12 +10916,12 @@
       <c r="D23" s="39"/>
       <c r="E23" s="42"/>
       <c r="F23" s="38"/>
-      <c r="G23" s="355"/>
-      <c r="H23" s="355"/>
-      <c r="I23" s="355"/>
-      <c r="J23" s="355"/>
-      <c r="K23" s="355"/>
-      <c r="L23" s="355"/>
+      <c r="G23" s="348"/>
+      <c r="H23" s="348"/>
+      <c r="I23" s="348"/>
+      <c r="J23" s="348"/>
+      <c r="K23" s="348"/>
+      <c r="L23" s="348"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -10973,12 +10930,12 @@
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="294"/>
-      <c r="H24" s="294"/>
-      <c r="I24" s="294"/>
-      <c r="J24" s="294"/>
-      <c r="K24" s="294"/>
-      <c r="L24" s="294"/>
+      <c r="G24" s="290"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="290"/>
+      <c r="K24" s="290"/>
+      <c r="L24" s="290"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -10987,12 +10944,12 @@
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="294"/>
-      <c r="H25" s="294"/>
-      <c r="I25" s="294"/>
-      <c r="J25" s="294"/>
-      <c r="K25" s="294"/>
-      <c r="L25" s="294"/>
+      <c r="G25" s="290"/>
+      <c r="H25" s="290"/>
+      <c r="I25" s="290"/>
+      <c r="J25" s="290"/>
+      <c r="K25" s="290"/>
+      <c r="L25" s="290"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
@@ -11001,12 +10958,12 @@
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="294"/>
-      <c r="H26" s="294"/>
-      <c r="I26" s="294"/>
-      <c r="J26" s="294"/>
-      <c r="K26" s="294"/>
-      <c r="L26" s="294"/>
+      <c r="G26" s="290"/>
+      <c r="H26" s="290"/>
+      <c r="I26" s="290"/>
+      <c r="J26" s="290"/>
+      <c r="K26" s="290"/>
+      <c r="L26" s="290"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -11015,12 +10972,12 @@
       <c r="D27" s="35"/>
       <c r="E27" s="36"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="294"/>
-      <c r="H27" s="294"/>
-      <c r="I27" s="294"/>
-      <c r="J27" s="294"/>
-      <c r="K27" s="294"/>
-      <c r="L27" s="294"/>
+      <c r="G27" s="290"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="290"/>
+      <c r="K27" s="290"/>
+      <c r="L27" s="290"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -11029,12 +10986,12 @@
       <c r="D28" s="35"/>
       <c r="E28" s="36"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="294"/>
-      <c r="H28" s="294"/>
-      <c r="I28" s="294"/>
-      <c r="J28" s="294"/>
-      <c r="K28" s="294"/>
-      <c r="L28" s="294"/>
+      <c r="G28" s="290"/>
+      <c r="H28" s="290"/>
+      <c r="I28" s="290"/>
+      <c r="J28" s="290"/>
+      <c r="K28" s="290"/>
+      <c r="L28" s="290"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
@@ -11043,12 +11000,12 @@
       <c r="D29" s="35"/>
       <c r="E29" s="36"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="294"/>
-      <c r="H29" s="294"/>
-      <c r="I29" s="294"/>
-      <c r="J29" s="294"/>
-      <c r="K29" s="294"/>
-      <c r="L29" s="294"/>
+      <c r="G29" s="290"/>
+      <c r="H29" s="290"/>
+      <c r="I29" s="290"/>
+      <c r="J29" s="290"/>
+      <c r="K29" s="290"/>
+      <c r="L29" s="290"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
@@ -11057,12 +11014,12 @@
       <c r="D30" s="35"/>
       <c r="E30" s="36"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="294"/>
-      <c r="H30" s="294"/>
-      <c r="I30" s="294"/>
-      <c r="J30" s="294"/>
-      <c r="K30" s="294"/>
-      <c r="L30" s="294"/>
+      <c r="G30" s="290"/>
+      <c r="H30" s="290"/>
+      <c r="I30" s="290"/>
+      <c r="J30" s="290"/>
+      <c r="K30" s="290"/>
+      <c r="L30" s="290"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -11071,12 +11028,12 @@
       <c r="D31" s="35"/>
       <c r="E31" s="36"/>
       <c r="F31" s="34"/>
-      <c r="G31" s="294"/>
-      <c r="H31" s="294"/>
-      <c r="I31" s="294"/>
-      <c r="J31" s="294"/>
-      <c r="K31" s="294"/>
-      <c r="L31" s="294"/>
+      <c r="G31" s="290"/>
+      <c r="H31" s="290"/>
+      <c r="I31" s="290"/>
+      <c r="J31" s="290"/>
+      <c r="K31" s="290"/>
+      <c r="L31" s="290"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -11085,12 +11042,12 @@
       <c r="D32" s="35"/>
       <c r="E32" s="36"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="294"/>
-      <c r="H32" s="294"/>
-      <c r="I32" s="294"/>
-      <c r="J32" s="294"/>
-      <c r="K32" s="294"/>
-      <c r="L32" s="294"/>
+      <c r="G32" s="290"/>
+      <c r="H32" s="290"/>
+      <c r="I32" s="290"/>
+      <c r="J32" s="290"/>
+      <c r="K32" s="290"/>
+      <c r="L32" s="290"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -11099,12 +11056,12 @@
       <c r="D33" s="35"/>
       <c r="E33" s="36"/>
       <c r="F33" s="34"/>
-      <c r="G33" s="294"/>
-      <c r="H33" s="294"/>
-      <c r="I33" s="294"/>
-      <c r="J33" s="294"/>
-      <c r="K33" s="294"/>
-      <c r="L33" s="294"/>
+      <c r="G33" s="290"/>
+      <c r="H33" s="290"/>
+      <c r="I33" s="290"/>
+      <c r="J33" s="290"/>
+      <c r="K33" s="290"/>
+      <c r="L33" s="290"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -11113,12 +11070,12 @@
       <c r="D34" s="35"/>
       <c r="E34" s="36"/>
       <c r="F34" s="34"/>
-      <c r="G34" s="294"/>
-      <c r="H34" s="294"/>
-      <c r="I34" s="294"/>
-      <c r="J34" s="294"/>
-      <c r="K34" s="294"/>
-      <c r="L34" s="294"/>
+      <c r="G34" s="290"/>
+      <c r="H34" s="290"/>
+      <c r="I34" s="290"/>
+      <c r="J34" s="290"/>
+      <c r="K34" s="290"/>
+      <c r="L34" s="290"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -11127,12 +11084,12 @@
       <c r="D35" s="35"/>
       <c r="E35" s="36"/>
       <c r="F35" s="34"/>
-      <c r="G35" s="294"/>
-      <c r="H35" s="294"/>
-      <c r="I35" s="294"/>
-      <c r="J35" s="294"/>
-      <c r="K35" s="294"/>
-      <c r="L35" s="294"/>
+      <c r="G35" s="290"/>
+      <c r="H35" s="290"/>
+      <c r="I35" s="290"/>
+      <c r="J35" s="290"/>
+      <c r="K35" s="290"/>
+      <c r="L35" s="290"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="34"/>
@@ -11141,12 +11098,12 @@
       <c r="D36" s="35"/>
       <c r="E36" s="36"/>
       <c r="F36" s="34"/>
-      <c r="G36" s="294"/>
-      <c r="H36" s="294"/>
-      <c r="I36" s="294"/>
-      <c r="J36" s="294"/>
-      <c r="K36" s="294"/>
-      <c r="L36" s="294"/>
+      <c r="G36" s="290"/>
+      <c r="H36" s="290"/>
+      <c r="I36" s="290"/>
+      <c r="J36" s="290"/>
+      <c r="K36" s="290"/>
+      <c r="L36" s="290"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
@@ -11155,12 +11112,12 @@
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="294"/>
-      <c r="H37" s="294"/>
-      <c r="I37" s="294"/>
-      <c r="J37" s="294"/>
-      <c r="K37" s="294"/>
-      <c r="L37" s="294"/>
+      <c r="G37" s="290"/>
+      <c r="H37" s="290"/>
+      <c r="I37" s="290"/>
+      <c r="J37" s="290"/>
+      <c r="K37" s="290"/>
+      <c r="L37" s="290"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -11169,12 +11126,12 @@
       <c r="D38" s="35"/>
       <c r="E38" s="36"/>
       <c r="F38" s="34"/>
-      <c r="G38" s="294"/>
-      <c r="H38" s="294"/>
-      <c r="I38" s="294"/>
-      <c r="J38" s="294"/>
-      <c r="K38" s="294"/>
-      <c r="L38" s="294"/>
+      <c r="G38" s="290"/>
+      <c r="H38" s="290"/>
+      <c r="I38" s="290"/>
+      <c r="J38" s="290"/>
+      <c r="K38" s="290"/>
+      <c r="L38" s="290"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
@@ -11183,12 +11140,12 @@
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
       <c r="F39" s="34"/>
-      <c r="G39" s="294"/>
-      <c r="H39" s="294"/>
-      <c r="I39" s="294"/>
-      <c r="J39" s="294"/>
-      <c r="K39" s="294"/>
-      <c r="L39" s="294"/>
+      <c r="G39" s="290"/>
+      <c r="H39" s="290"/>
+      <c r="I39" s="290"/>
+      <c r="J39" s="290"/>
+      <c r="K39" s="290"/>
+      <c r="L39" s="290"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -11197,12 +11154,12 @@
       <c r="D40" s="35"/>
       <c r="E40" s="36"/>
       <c r="F40" s="34"/>
-      <c r="G40" s="294"/>
-      <c r="H40" s="294"/>
-      <c r="I40" s="294"/>
-      <c r="J40" s="294"/>
-      <c r="K40" s="294"/>
-      <c r="L40" s="294"/>
+      <c r="G40" s="290"/>
+      <c r="H40" s="290"/>
+      <c r="I40" s="290"/>
+      <c r="J40" s="290"/>
+      <c r="K40" s="290"/>
+      <c r="L40" s="290"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
@@ -11211,12 +11168,12 @@
       <c r="D41" s="35"/>
       <c r="E41" s="36"/>
       <c r="F41" s="34"/>
-      <c r="G41" s="294"/>
-      <c r="H41" s="294"/>
-      <c r="I41" s="294"/>
-      <c r="J41" s="294"/>
-      <c r="K41" s="294"/>
-      <c r="L41" s="294"/>
+      <c r="G41" s="290"/>
+      <c r="H41" s="290"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="290"/>
+      <c r="K41" s="290"/>
+      <c r="L41" s="290"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
@@ -11225,12 +11182,12 @@
       <c r="D42" s="35"/>
       <c r="E42" s="36"/>
       <c r="F42" s="34"/>
-      <c r="G42" s="294"/>
-      <c r="H42" s="294"/>
-      <c r="I42" s="294"/>
-      <c r="J42" s="294"/>
-      <c r="K42" s="294"/>
-      <c r="L42" s="294"/>
+      <c r="G42" s="290"/>
+      <c r="H42" s="290"/>
+      <c r="I42" s="290"/>
+      <c r="J42" s="290"/>
+      <c r="K42" s="290"/>
+      <c r="L42" s="290"/>
     </row>
     <row r="43" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
@@ -11239,12 +11196,12 @@
       <c r="D43" s="35"/>
       <c r="E43" s="36"/>
       <c r="F43" s="34"/>
-      <c r="G43" s="294"/>
-      <c r="H43" s="294"/>
-      <c r="I43" s="294"/>
-      <c r="J43" s="294"/>
-      <c r="K43" s="294"/>
-      <c r="L43" s="294"/>
+      <c r="G43" s="290"/>
+      <c r="H43" s="290"/>
+      <c r="I43" s="290"/>
+      <c r="J43" s="290"/>
+      <c r="K43" s="290"/>
+      <c r="L43" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -11315,8 +11272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:K37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11335,11 +11292,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="280" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -11370,9 +11327,9 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="284"/>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
+      <c r="A2" s="280"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -11915,22 +11872,22 @@
       <c r="J36" s="251"/>
       <c r="K36" s="251"/>
     </row>
-    <row r="37" spans="1:12" s="272" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="272" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="273" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B37" s="274"/>
-      <c r="C37" s="368" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" s="368"/>
-      <c r="E37" s="368"/>
-      <c r="F37" s="368"/>
-      <c r="G37" s="368"/>
-      <c r="H37" s="368"/>
-      <c r="I37" s="368"/>
-      <c r="J37" s="368"/>
-      <c r="K37" s="368"/>
+      <c r="C37" s="361" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37" s="361"/>
+      <c r="E37" s="361"/>
+      <c r="F37" s="361"/>
+      <c r="G37" s="361"/>
+      <c r="H37" s="361"/>
+      <c r="I37" s="361"/>
+      <c r="J37" s="361"/>
+      <c r="K37" s="361"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="167" t="s">
@@ -12019,12 +11976,12 @@
       <c r="C43" s="39"/>
       <c r="D43" s="42"/>
       <c r="E43" s="38"/>
-      <c r="F43" s="355"/>
-      <c r="G43" s="355"/>
-      <c r="H43" s="355"/>
-      <c r="I43" s="355"/>
-      <c r="J43" s="355"/>
-      <c r="K43" s="355"/>
+      <c r="F43" s="348"/>
+      <c r="G43" s="348"/>
+      <c r="H43" s="348"/>
+      <c r="I43" s="348"/>
+      <c r="J43" s="348"/>
+      <c r="K43" s="348"/>
       <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:12" s="199" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12050,12 +12007,12 @@
       <c r="C45" s="39"/>
       <c r="D45" s="42"/>
       <c r="E45" s="38"/>
-      <c r="F45" s="355"/>
-      <c r="G45" s="355"/>
-      <c r="H45" s="355"/>
-      <c r="I45" s="355"/>
-      <c r="J45" s="355"/>
-      <c r="K45" s="355"/>
+      <c r="F45" s="348"/>
+      <c r="G45" s="348"/>
+      <c r="H45" s="348"/>
+      <c r="I45" s="348"/>
+      <c r="J45" s="348"/>
+      <c r="K45" s="348"/>
       <c r="L45" s="17"/>
     </row>
     <row r="46" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12066,12 +12023,12 @@
       <c r="C46" s="39"/>
       <c r="D46" s="42"/>
       <c r="E46" s="38"/>
-      <c r="F46" s="355"/>
-      <c r="G46" s="355"/>
-      <c r="H46" s="355"/>
-      <c r="I46" s="355"/>
-      <c r="J46" s="355"/>
-      <c r="K46" s="355"/>
+      <c r="F46" s="348"/>
+      <c r="G46" s="348"/>
+      <c r="H46" s="348"/>
+      <c r="I46" s="348"/>
+      <c r="J46" s="348"/>
+      <c r="K46" s="348"/>
       <c r="L46" s="17"/>
     </row>
     <row r="47" spans="1:12" s="199" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12082,19 +12039,13 @@
         <v>275</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
+    <row r="48" spans="1:12" s="272" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="272" t="s">
+        <v>319</v>
+      </c>
+      <c r="C48" s="272" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="49" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
@@ -12293,11 +12244,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="280" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -12320,9 +12271,9 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="284"/>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
+      <c r="A2" s="280"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -12692,12 +12643,12 @@
       <c r="C28" s="39"/>
       <c r="D28" s="42"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="355"/>
-      <c r="G28" s="355"/>
-      <c r="H28" s="355"/>
-      <c r="I28" s="355"/>
-      <c r="J28" s="355"/>
-      <c r="K28" s="355"/>
+      <c r="F28" s="348"/>
+      <c r="G28" s="348"/>
+      <c r="H28" s="348"/>
+      <c r="I28" s="348"/>
+      <c r="J28" s="348"/>
+      <c r="K28" s="348"/>
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -12706,12 +12657,12 @@
       <c r="C29" s="39"/>
       <c r="D29" s="42"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="355"/>
-      <c r="G29" s="355"/>
-      <c r="H29" s="355"/>
-      <c r="I29" s="355"/>
-      <c r="J29" s="355"/>
-      <c r="K29" s="355"/>
+      <c r="F29" s="348"/>
+      <c r="G29" s="348"/>
+      <c r="H29" s="348"/>
+      <c r="I29" s="348"/>
+      <c r="J29" s="348"/>
+      <c r="K29" s="348"/>
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -12720,12 +12671,12 @@
       <c r="C30" s="39"/>
       <c r="D30" s="42"/>
       <c r="E30" s="38"/>
-      <c r="F30" s="355"/>
-      <c r="G30" s="355"/>
-      <c r="H30" s="355"/>
-      <c r="I30" s="355"/>
-      <c r="J30" s="355"/>
-      <c r="K30" s="355"/>
+      <c r="F30" s="348"/>
+      <c r="G30" s="348"/>
+      <c r="H30" s="348"/>
+      <c r="I30" s="348"/>
+      <c r="J30" s="348"/>
+      <c r="K30" s="348"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12734,12 +12685,12 @@
       <c r="C31" s="39"/>
       <c r="D31" s="42"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="355"/>
-      <c r="G31" s="355"/>
-      <c r="H31" s="355"/>
-      <c r="I31" s="355"/>
-      <c r="J31" s="355"/>
-      <c r="K31" s="355"/>
+      <c r="F31" s="348"/>
+      <c r="G31" s="348"/>
+      <c r="H31" s="348"/>
+      <c r="I31" s="348"/>
+      <c r="J31" s="348"/>
+      <c r="K31" s="348"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12959,14 +12910,14 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
-      <c r="E2" s="369" t="s">
+      <c r="E2" s="362" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
-      <c r="H2" s="369"/>
-      <c r="I2" s="369"/>
-      <c r="J2" s="369"/>
+      <c r="F2" s="362"/>
+      <c r="G2" s="362"/>
+      <c r="H2" s="362"/>
+      <c r="I2" s="362"/>
+      <c r="J2" s="362"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
@@ -13387,11 +13338,11 @@
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
-      <c r="E28" s="370" t="s">
+      <c r="E28" s="363" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="371"/>
-      <c r="G28" s="372"/>
+      <c r="F28" s="364"/>
+      <c r="G28" s="365"/>
       <c r="H28" s="78"/>
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat phieu nhap kho/WF0011 Cap nhat phieu nhap kho.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat phieu nhap kho/WF0011 Cap nhat phieu nhap kho.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Cap nhat phieu nhap kho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVNs\SVN81\10_DOCUMENT\13_DETAIL_DESIGN\1.STANDARD\ASOFT_WM\03_DetailDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="791" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Code Standar'!$A$1:$D$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Data Difination'!$A$1:$J$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Input'!$A$1:$S$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Form Func Spec'!$A$1:$K$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Form Func Spec'!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Func Spec'!$A$1:$K$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Help!$A$1:$Q$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$L$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$L$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Item Screen'!$A$1:$N$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Layout Screen'!$A$1:$J$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Update History'!$A$1:$J$14</definedName>
@@ -1147,6 +1147,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ngày tạo tài liệu</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1828,7 +1852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="1" shapeId="0">
+    <comment ref="B19" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1842,7 +1866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="1" shapeId="0">
+    <comment ref="A26" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1928,7 +1952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="352">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3142,9 +3166,6 @@
     </r>
   </si>
   <si>
-    <t>V. LƯU (SAVE_CLICK)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Kiểm tra nếu có check Quản lý mặt hàng theo quy cách ở Thiết lập hệ thống (ASOFT - CI) thì mới thực thi </t>
     </r>
@@ -3373,6 +3394,11 @@
     <t>@SQL011</t>
   </si>
   <si>
+    <t>SELECT TOP 1 1 FROM AT2006
+WHERE DivisionID = @DivisionID
+AND VoucherID = @VoucherID AND IsWeb=1</t>
+  </si>
+  <si>
     <t>@DivisionID @VoucherID  
 @IsWeb</t>
   </si>
@@ -3385,65 +3411,143 @@
     <t>Ver 6.0</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>CustomizeIndex</t>
+    <t>Sửa</t>
+  </si>
+  <si>
+    <t>Require</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>WFML000186</t>
   </si>
   <si>
     <t>-CustomizeIndex = 51 (Hoàng Trần) 
++ Sheet Input Check thêm WFML000186
 + Sheet Data Input Thêm @SQL009
 + Sheet Form Func Spec thêm xử lý khi sửa</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">SELECT TOP 1 1 FROM AT2006
-WHERE DivisionID = @DivisionID
-AND VoucherID = @VoucherID AND </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>IsWeb=1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kiểm tra điều kiện nhập Web khi thực hiện sửa Phiếu nhập</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Luồng nghiệp vụ 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-CustomizeIndex = 51: Click LinkEdit  thực thi câu @SQL011 kiểm tra điều kiện IsWeb 
-+ Nếu =1 Warn message WFML000186, Click Yes thực hiện @SQL004 load Form WF0011 Chỉ Enabled trường Description , RefNo01, RefNo02, ActualQuantity, Ana01ID, Ana02ID, Ana03ID, Ana04ID, Ana05ID, Ana06ID, Ana07ID, Ana08ID, Ana09ID, Ana10ID, PeriodID, ProductID để sửa còn lại Disabled. Click No thoát ra 
+    <t>Chỉ dùng Customize Hoàng Trần (CustomizeIndex = 51) Kiểm tra điều kiện nhập Web khi thực hiện sửa Phiếu nhập</t>
+  </si>
+  <si>
+    <t>CustomizeIndex = 51: Click LinkEdit  thực thi câu @SQL009 kiểm tra điều kiện IsWeb 
++ Nếu =1 Warn message WFML000186, Click Ok thực hiện @SQL004 load Form WF0011 Chỉ Enabled trường Description , RefNo01, RefNo02, ActualQuantity, Ana01ID, Ana02ID, Ana03ID, Ana04ID, Ana05ID, Ana06ID, Ana07ID, Ana08ID, Ana09ID, Ana10ID, PeriodID, ProductID để sửa còn lại Disabled. Click No thoát ra 
 + Nếu =0 thực thi @SQL004 load giá trị cho Form WF0011</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver 6.0  </t>
-  </si>
-  <si>
-    <t>Tham khảo luồng nghiệp vụ 1</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>CustomizeIndex</t>
+  </si>
+  <si>
+    <t>Bảo Anh</t>
+  </si>
+  <si>
+    <t>- Customize Angel: Bổ sung mã vạch thùng và số lượng thùng</t>
+  </si>
+  <si>
+    <t>Mã vạch thùng</t>
+  </si>
+  <si>
+    <t>KITID</t>
+  </si>
+  <si>
+    <t>Visible khi CustomerIndex = 57</t>
+  </si>
+  <si>
+    <t>Số lượng thùng</t>
+  </si>
+  <si>
+    <t>KITQuantity</t>
+  </si>
+  <si>
+    <t>Đổ nguồn dropdown KITID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SELECT DISTINCT KITID, MDescription 
+  FROM AT1326
+  WHERE DivisionID = @DivisionID
+AND Disabled = 0
+ORDER BY KITID</t>
+  </si>
+  <si>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>Load các mặt hàng trong KIT</t>
+  </si>
+  <si>
+    <t>@SQL012</t>
+  </si>
+  <si>
+    <t>SELECT AT1326.KITID, AT1326.InventoryID, InventoryName ,InventoryUnitID, InventoryQuantity 
+FROM AT1326
+LEFT JOIN AT1302
+ON AT1302.DivisionID = AT1326.DivisionID
+AND AT1302.InventoryID = AT1326.InventoryID
+WHERE AT1326.DivisionID = @DivisionID
+AND AT1326.KITID = @KITID</t>
+  </si>
+  <si>
+    <t>@KITID</t>
+  </si>
+  <si>
+    <t>Grid.KITID</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>@SQL013</t>
+  </si>
+  <si>
+    <t>Ver 7.0</t>
+  </si>
+  <si>
+    <t>Dropdown KITID: @SQL012</t>
+  </si>
+  <si>
+    <t>Nếu CustomerIndex = 57 (Angel):</t>
+  </si>
+  <si>
+    <t>Lưu thêm KITID và KITQuantity vào AT2007</t>
+  </si>
+  <si>
+    <t>V. LƯU ADDNEW (SAVE_CLICK)</t>
+  </si>
+  <si>
+    <t>@SQL014</t>
+  </si>
+  <si>
+    <t>- Grid.KITID_Change và Grid.InventoryID = "" (trường hợp quét thùng): Thực thi @SQL013 để load lưới (chỉ load giá trị cho các cột mã vạch thùng, mã hàng, tên hàng, ĐVT)</t>
+  </si>
+  <si>
+    <t>Lấy InventoryQuantity để tính Số lượng nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SELECT InventoryQuantity 
+  FROM AT1326
+  WHERE DivisionID = @DivisionID
+AND KITID = @KITID
+AND InventoryID = @InventoryID
+ORDER BY KITID</t>
+  </si>
+  <si>
+    <t>@KITID
+@InventoryID</t>
+  </si>
+  <si>
+    <t>Grid.KITID
+Grid.InventoryID</t>
+  </si>
+  <si>
+    <t>- Grid.KITID_Change và Grid.InventoryID &lt;&gt; "" (trường hợp quét từng mặt hàng): Thực thi @SQL014 để lấy giá trị cột InventoryQuantity, sau khi người dùng nhập SL thùng thì tính cho cột SL nhập như dòng bên dưới</t>
+  </si>
+  <si>
+    <t>- Grid.KITQuantity_Change: Tính Grid.Quantity = Grid.KITQuantity * Giá trị InventoryQuantity của Dataset trả ra từ @SQL013 (nếu quét thùng) hoặc @SQL014 (nếu quét từng mặt hàng)</t>
   </si>
 </sst>
 </file>
@@ -3453,7 +3557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3595,6 +3699,27 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -3706,7 +3831,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3915,11 +4040,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="430">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4198,15 +4347,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4284,12 +4424,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4632,57 +4766,195 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4722,62 +4994,29 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4797,30 +5036,6 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4836,6 +5051,12 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4869,6 +5090,72 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4896,47 +5183,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4948,6 +5202,93 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4958,9 +5299,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FF00FFFF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF990000"/>
       <color rgb="FF008080"/>
@@ -5282,6 +5623,392 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3057525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="2933700"/>
+          <a:ext cx="76200" cy="3019425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1547813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1704975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="4443413"/>
+          <a:ext cx="457200" cy="157162"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1638300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2105025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133601" y="4533900"/>
+          <a:ext cx="1638300" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Bổ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> sung cột mã vạch thùng trước cột mã vạch</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3067050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="2943225"/>
+          <a:ext cx="76200" cy="3019425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1471613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1628775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553075" y="4367213"/>
+          <a:ext cx="457200" cy="157162"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1562100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2028825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048376" y="4457700"/>
+          <a:ext cx="1743074" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Bổ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> sung cột số lượng thùng trước cột số lượng nhập</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5328,7 +6055,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5363,7 +6090,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5550,8 +6277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:J11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5570,10 +6297,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="280"/>
+      <c r="B1" s="321"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -5595,13 +6322,13 @@
       <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="122" t="s">
-        <v>304</v>
+      <c r="J1" s="119" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="280"/>
-      <c r="B2" s="280"/>
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -5652,14 +6379,14 @@
       <c r="D4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="281" t="s">
+      <c r="E4" s="322" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="281"/>
-      <c r="J4" s="281"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
+      <c r="J4" s="322"/>
     </row>
     <row r="5" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -5676,14 +6403,14 @@
         <f>H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="E5" s="282" t="s">
+      <c r="E5" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="283"/>
-      <c r="G5" s="283"/>
-      <c r="H5" s="283"/>
-      <c r="I5" s="283"/>
-      <c r="J5" s="283"/>
+      <c r="F5" s="324"/>
+      <c r="G5" s="324"/>
+      <c r="H5" s="324"/>
+      <c r="I5" s="324"/>
+      <c r="J5" s="324"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -5698,36 +6425,36 @@
       <c r="D6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="284" t="s">
+      <c r="E6" s="325" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="285"/>
-      <c r="G6" s="285"/>
-      <c r="H6" s="285"/>
-      <c r="I6" s="285"/>
-      <c r="J6" s="286"/>
+      <c r="F6" s="326"/>
+      <c r="G6" s="326"/>
+      <c r="H6" s="326"/>
+      <c r="I6" s="326"/>
+      <c r="J6" s="327"/>
     </row>
     <row r="7" spans="1:10" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="187">
+      <c r="A7" s="182">
         <v>3</v>
       </c>
-      <c r="B7" s="188">
+      <c r="B7" s="183">
         <v>3</v>
       </c>
-      <c r="C7" s="189">
+      <c r="C7" s="184">
         <v>42305</v>
       </c>
-      <c r="D7" s="190" t="s">
+      <c r="D7" s="185" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="287" t="s">
+      <c r="E7" s="328" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="288"/>
-      <c r="G7" s="288"/>
-      <c r="H7" s="288"/>
-      <c r="I7" s="288"/>
-      <c r="J7" s="289"/>
+      <c r="F7" s="329"/>
+      <c r="G7" s="329"/>
+      <c r="H7" s="329"/>
+      <c r="I7" s="329"/>
+      <c r="J7" s="330"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -5742,14 +6469,14 @@
       <c r="D8" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="277" t="s">
-        <v>279</v>
-      </c>
-      <c r="F8" s="278"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="279"/>
+      <c r="E8" s="318" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="319"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="319"/>
+      <c r="I8" s="319"/>
+      <c r="J8" s="320"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -5764,68 +6491,74 @@
       <c r="D9" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="291" t="s">
-        <v>300</v>
-      </c>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="293"/>
+      <c r="E9" s="303" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="304"/>
+      <c r="G9" s="304"/>
+      <c r="H9" s="304"/>
+      <c r="I9" s="304"/>
+      <c r="J9" s="305"/>
     </row>
     <row r="10" spans="1:10" s="30" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="112">
+      <c r="B10" s="401">
         <v>6</v>
       </c>
-      <c r="C10" s="113">
+      <c r="C10" s="402">
         <v>42381</v>
       </c>
-      <c r="D10" s="114" t="s">
-        <v>304</v>
-      </c>
-      <c r="E10" s="294" t="s">
-        <v>315</v>
-      </c>
-      <c r="F10" s="295"/>
-      <c r="G10" s="295"/>
-      <c r="H10" s="295"/>
-      <c r="I10" s="295"/>
-      <c r="J10" s="296"/>
+      <c r="D10" s="403" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="404" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="405"/>
+      <c r="G10" s="405"/>
+      <c r="H10" s="405"/>
+      <c r="I10" s="405"/>
+      <c r="J10" s="406"/>
     </row>
     <row r="11" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="112">
         <v>7</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="297"/>
-      <c r="F11" s="298"/>
-      <c r="G11" s="298"/>
-      <c r="H11" s="298"/>
-      <c r="I11" s="298"/>
-      <c r="J11" s="299"/>
+      <c r="C11" s="113">
+        <v>42387</v>
+      </c>
+      <c r="D11" s="114" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" s="306" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="307"/>
+      <c r="G11" s="307"/>
+      <c r="H11" s="307"/>
+      <c r="I11" s="307"/>
+      <c r="J11" s="308"/>
     </row>
     <row r="12" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="115">
         <v>8</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="300"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="301"/>
-      <c r="H12" s="301"/>
-      <c r="I12" s="301"/>
-      <c r="J12" s="302"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="309"/>
+      <c r="F12" s="310"/>
+      <c r="G12" s="310"/>
+      <c r="H12" s="310"/>
+      <c r="I12" s="310"/>
+      <c r="J12" s="311"/>
     </row>
     <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -5836,12 +6569,12 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="305"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="313"/>
+      <c r="G13" s="313"/>
+      <c r="H13" s="313"/>
+      <c r="I13" s="313"/>
+      <c r="J13" s="314"/>
     </row>
     <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -5852,361 +6585,369 @@
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="306"/>
-      <c r="F14" s="307"/>
-      <c r="G14" s="307"/>
-      <c r="H14" s="307"/>
-      <c r="I14" s="307"/>
-      <c r="J14" s="308"/>
+      <c r="E14" s="315"/>
+      <c r="F14" s="316"/>
+      <c r="G14" s="316"/>
+      <c r="H14" s="316"/>
+      <c r="I14" s="316"/>
+      <c r="J14" s="317"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="290"/>
-      <c r="I15" s="290"/>
-      <c r="J15" s="290"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="302"/>
+      <c r="I15" s="302"/>
+      <c r="J15" s="302"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="290"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
-      <c r="J16" s="290"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="302"/>
+      <c r="I16" s="302"/>
+      <c r="J16" s="302"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="290"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="290"/>
-      <c r="H17" s="290"/>
-      <c r="I17" s="290"/>
-      <c r="J17" s="290"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="302"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="290"/>
-      <c r="F18" s="290"/>
-      <c r="G18" s="290"/>
-      <c r="H18" s="290"/>
-      <c r="I18" s="290"/>
-      <c r="J18" s="290"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="302"/>
+      <c r="I18" s="302"/>
+      <c r="J18" s="302"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="290"/>
-      <c r="F19" s="290"/>
-      <c r="G19" s="290"/>
-      <c r="H19" s="290"/>
-      <c r="I19" s="290"/>
-      <c r="J19" s="290"/>
+      <c r="E19" s="302"/>
+      <c r="F19" s="302"/>
+      <c r="G19" s="302"/>
+      <c r="H19" s="302"/>
+      <c r="I19" s="302"/>
+      <c r="J19" s="302"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="290"/>
-      <c r="F20" s="290"/>
-      <c r="G20" s="290"/>
-      <c r="H20" s="290"/>
-      <c r="I20" s="290"/>
-      <c r="J20" s="290"/>
+      <c r="E20" s="302"/>
+      <c r="F20" s="302"/>
+      <c r="G20" s="302"/>
+      <c r="H20" s="302"/>
+      <c r="I20" s="302"/>
+      <c r="J20" s="302"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="290"/>
-      <c r="F21" s="290"/>
-      <c r="G21" s="290"/>
-      <c r="H21" s="290"/>
-      <c r="I21" s="290"/>
-      <c r="J21" s="290"/>
+      <c r="E21" s="302"/>
+      <c r="F21" s="302"/>
+      <c r="G21" s="302"/>
+      <c r="H21" s="302"/>
+      <c r="I21" s="302"/>
+      <c r="J21" s="302"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="290"/>
-      <c r="F22" s="290"/>
-      <c r="G22" s="290"/>
-      <c r="H22" s="290"/>
-      <c r="I22" s="290"/>
-      <c r="J22" s="290"/>
+      <c r="E22" s="302"/>
+      <c r="F22" s="302"/>
+      <c r="G22" s="302"/>
+      <c r="H22" s="302"/>
+      <c r="I22" s="302"/>
+      <c r="J22" s="302"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="290"/>
-      <c r="F23" s="290"/>
-      <c r="G23" s="290"/>
-      <c r="H23" s="290"/>
-      <c r="I23" s="290"/>
-      <c r="J23" s="290"/>
+      <c r="E23" s="302"/>
+      <c r="F23" s="302"/>
+      <c r="G23" s="302"/>
+      <c r="H23" s="302"/>
+      <c r="I23" s="302"/>
+      <c r="J23" s="302"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="290"/>
-      <c r="F24" s="290"/>
-      <c r="G24" s="290"/>
-      <c r="H24" s="290"/>
-      <c r="I24" s="290"/>
-      <c r="J24" s="290"/>
+      <c r="E24" s="302"/>
+      <c r="F24" s="302"/>
+      <c r="G24" s="302"/>
+      <c r="H24" s="302"/>
+      <c r="I24" s="302"/>
+      <c r="J24" s="302"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="290"/>
-      <c r="G25" s="290"/>
-      <c r="H25" s="290"/>
-      <c r="I25" s="290"/>
-      <c r="J25" s="290"/>
+      <c r="E25" s="302"/>
+      <c r="F25" s="302"/>
+      <c r="G25" s="302"/>
+      <c r="H25" s="302"/>
+      <c r="I25" s="302"/>
+      <c r="J25" s="302"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="290"/>
-      <c r="F26" s="290"/>
-      <c r="G26" s="290"/>
-      <c r="H26" s="290"/>
-      <c r="I26" s="290"/>
-      <c r="J26" s="290"/>
+      <c r="E26" s="302"/>
+      <c r="F26" s="302"/>
+      <c r="G26" s="302"/>
+      <c r="H26" s="302"/>
+      <c r="I26" s="302"/>
+      <c r="J26" s="302"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="290"/>
-      <c r="F27" s="290"/>
-      <c r="G27" s="290"/>
-      <c r="H27" s="290"/>
-      <c r="I27" s="290"/>
-      <c r="J27" s="290"/>
+      <c r="E27" s="302"/>
+      <c r="F27" s="302"/>
+      <c r="G27" s="302"/>
+      <c r="H27" s="302"/>
+      <c r="I27" s="302"/>
+      <c r="J27" s="302"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="290"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="290"/>
-      <c r="I28" s="290"/>
-      <c r="J28" s="290"/>
+      <c r="E28" s="302"/>
+      <c r="F28" s="302"/>
+      <c r="G28" s="302"/>
+      <c r="H28" s="302"/>
+      <c r="I28" s="302"/>
+      <c r="J28" s="302"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="290"/>
-      <c r="H29" s="290"/>
-      <c r="I29" s="290"/>
-      <c r="J29" s="290"/>
+      <c r="E29" s="302"/>
+      <c r="F29" s="302"/>
+      <c r="G29" s="302"/>
+      <c r="H29" s="302"/>
+      <c r="I29" s="302"/>
+      <c r="J29" s="302"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="290"/>
-      <c r="H30" s="290"/>
-      <c r="I30" s="290"/>
-      <c r="J30" s="290"/>
+      <c r="E30" s="302"/>
+      <c r="F30" s="302"/>
+      <c r="G30" s="302"/>
+      <c r="H30" s="302"/>
+      <c r="I30" s="302"/>
+      <c r="J30" s="302"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="290"/>
-      <c r="F31" s="290"/>
-      <c r="G31" s="290"/>
-      <c r="H31" s="290"/>
-      <c r="I31" s="290"/>
-      <c r="J31" s="290"/>
+      <c r="E31" s="302"/>
+      <c r="F31" s="302"/>
+      <c r="G31" s="302"/>
+      <c r="H31" s="302"/>
+      <c r="I31" s="302"/>
+      <c r="J31" s="302"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="290"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="290"/>
-      <c r="H32" s="290"/>
-      <c r="I32" s="290"/>
-      <c r="J32" s="290"/>
+      <c r="E32" s="302"/>
+      <c r="F32" s="302"/>
+      <c r="G32" s="302"/>
+      <c r="H32" s="302"/>
+      <c r="I32" s="302"/>
+      <c r="J32" s="302"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="290"/>
-      <c r="F33" s="290"/>
-      <c r="G33" s="290"/>
-      <c r="H33" s="290"/>
-      <c r="I33" s="290"/>
-      <c r="J33" s="290"/>
+      <c r="E33" s="302"/>
+      <c r="F33" s="302"/>
+      <c r="G33" s="302"/>
+      <c r="H33" s="302"/>
+      <c r="I33" s="302"/>
+      <c r="J33" s="302"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="290"/>
-      <c r="F34" s="290"/>
-      <c r="G34" s="290"/>
-      <c r="H34" s="290"/>
-      <c r="I34" s="290"/>
-      <c r="J34" s="290"/>
+      <c r="E34" s="302"/>
+      <c r="F34" s="302"/>
+      <c r="G34" s="302"/>
+      <c r="H34" s="302"/>
+      <c r="I34" s="302"/>
+      <c r="J34" s="302"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="290"/>
-      <c r="F35" s="290"/>
-      <c r="G35" s="290"/>
-      <c r="H35" s="290"/>
-      <c r="I35" s="290"/>
-      <c r="J35" s="290"/>
+      <c r="E35" s="302"/>
+      <c r="F35" s="302"/>
+      <c r="G35" s="302"/>
+      <c r="H35" s="302"/>
+      <c r="I35" s="302"/>
+      <c r="J35" s="302"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="290"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="290"/>
-      <c r="H36" s="290"/>
-      <c r="I36" s="290"/>
-      <c r="J36" s="290"/>
+      <c r="E36" s="302"/>
+      <c r="F36" s="302"/>
+      <c r="G36" s="302"/>
+      <c r="H36" s="302"/>
+      <c r="I36" s="302"/>
+      <c r="J36" s="302"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="290"/>
-      <c r="F37" s="290"/>
-      <c r="G37" s="290"/>
-      <c r="H37" s="290"/>
-      <c r="I37" s="290"/>
-      <c r="J37" s="290"/>
+      <c r="E37" s="302"/>
+      <c r="F37" s="302"/>
+      <c r="G37" s="302"/>
+      <c r="H37" s="302"/>
+      <c r="I37" s="302"/>
+      <c r="J37" s="302"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="290"/>
-      <c r="F38" s="290"/>
-      <c r="G38" s="290"/>
-      <c r="H38" s="290"/>
-      <c r="I38" s="290"/>
-      <c r="J38" s="290"/>
+      <c r="E38" s="302"/>
+      <c r="F38" s="302"/>
+      <c r="G38" s="302"/>
+      <c r="H38" s="302"/>
+      <c r="I38" s="302"/>
+      <c r="J38" s="302"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="290"/>
-      <c r="F39" s="290"/>
-      <c r="G39" s="290"/>
-      <c r="H39" s="290"/>
-      <c r="I39" s="290"/>
-      <c r="J39" s="290"/>
+      <c r="E39" s="302"/>
+      <c r="F39" s="302"/>
+      <c r="G39" s="302"/>
+      <c r="H39" s="302"/>
+      <c r="I39" s="302"/>
+      <c r="J39" s="302"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="290"/>
-      <c r="F40" s="290"/>
-      <c r="G40" s="290"/>
-      <c r="H40" s="290"/>
-      <c r="I40" s="290"/>
-      <c r="J40" s="290"/>
+      <c r="E40" s="302"/>
+      <c r="F40" s="302"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
+      <c r="I40" s="302"/>
+      <c r="J40" s="302"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="290"/>
-      <c r="F41" s="290"/>
-      <c r="G41" s="290"/>
-      <c r="H41" s="290"/>
-      <c r="I41" s="290"/>
-      <c r="J41" s="290"/>
+      <c r="E41" s="302"/>
+      <c r="F41" s="302"/>
+      <c r="G41" s="302"/>
+      <c r="H41" s="302"/>
+      <c r="I41" s="302"/>
+      <c r="J41" s="302"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="290"/>
-      <c r="F42" s="290"/>
-      <c r="G42" s="290"/>
-      <c r="H42" s="290"/>
-      <c r="I42" s="290"/>
-      <c r="J42" s="290"/>
+      <c r="E42" s="302"/>
+      <c r="F42" s="302"/>
+      <c r="G42" s="302"/>
+      <c r="H42" s="302"/>
+      <c r="I42" s="302"/>
+      <c r="J42" s="302"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="E22:J22"/>
@@ -6219,24 +6960,16 @@
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6445,10 +7178,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="280"/>
+      <c r="B1" s="321"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -6459,7 +7192,7 @@
       <c r="E1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="121" t="str">
+      <c r="F1" s="118" t="str">
         <f>'Update History'!F1</f>
         <v>WF0011</v>
       </c>
@@ -6473,14 +7206,14 @@
       <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="122" t="str">
+      <c r="J1" s="119" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="280"/>
-      <c r="B2" s="280"/>
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -6523,76 +7256,76 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="280" t="s">
+      <c r="A4" s="321" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="280"/>
-      <c r="C4" s="280"/>
-      <c r="D4" s="280"/>
-      <c r="E4" s="280"/>
-      <c r="F4" s="280"/>
-      <c r="G4" s="280"/>
-      <c r="H4" s="280"/>
-      <c r="I4" s="280" t="s">
+      <c r="B4" s="321"/>
+      <c r="C4" s="321"/>
+      <c r="D4" s="321"/>
+      <c r="E4" s="321"/>
+      <c r="F4" s="321"/>
+      <c r="G4" s="321"/>
+      <c r="H4" s="321"/>
+      <c r="I4" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="280"/>
+      <c r="J4" s="321"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="317"/>
-      <c r="B5" s="318"/>
-      <c r="C5" s="318"/>
-      <c r="D5" s="318"/>
-      <c r="E5" s="318"/>
-      <c r="F5" s="318"/>
-      <c r="G5" s="318"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="309" t="s">
+      <c r="A5" s="333"/>
+      <c r="B5" s="334"/>
+      <c r="C5" s="334"/>
+      <c r="D5" s="334"/>
+      <c r="E5" s="334"/>
+      <c r="F5" s="334"/>
+      <c r="G5" s="334"/>
+      <c r="H5" s="335"/>
+      <c r="I5" s="339" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="310"/>
+      <c r="J5" s="340"/>
     </row>
     <row r="6" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="320"/>
-      <c r="B6" s="321"/>
-      <c r="C6" s="321"/>
-      <c r="D6" s="321"/>
-      <c r="E6" s="321"/>
-      <c r="F6" s="321"/>
-      <c r="G6" s="321"/>
-      <c r="H6" s="322"/>
-      <c r="I6" s="311" t="s">
+      <c r="A6" s="336"/>
+      <c r="B6" s="337"/>
+      <c r="C6" s="337"/>
+      <c r="D6" s="337"/>
+      <c r="E6" s="337"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="337"/>
+      <c r="H6" s="338"/>
+      <c r="I6" s="341" t="s">
         <v>247</v>
       </c>
-      <c r="J6" s="312"/>
+      <c r="J6" s="342"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="320"/>
-      <c r="B7" s="321"/>
-      <c r="C7" s="321"/>
-      <c r="D7" s="321"/>
-      <c r="E7" s="321"/>
-      <c r="F7" s="321"/>
-      <c r="G7" s="321"/>
-      <c r="H7" s="322"/>
-      <c r="I7" s="313" t="s">
+      <c r="A7" s="336"/>
+      <c r="B7" s="337"/>
+      <c r="C7" s="337"/>
+      <c r="D7" s="337"/>
+      <c r="E7" s="337"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="337"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="343" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="314"/>
+      <c r="J7" s="344"/>
     </row>
     <row r="8" spans="1:10" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="320"/>
-      <c r="B8" s="321"/>
-      <c r="C8" s="321"/>
-      <c r="D8" s="321"/>
-      <c r="E8" s="321"/>
-      <c r="F8" s="321"/>
-      <c r="G8" s="321"/>
-      <c r="H8" s="322"/>
-      <c r="I8" s="315" t="s">
+      <c r="A8" s="336"/>
+      <c r="B8" s="337"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="337"/>
+      <c r="E8" s="337"/>
+      <c r="F8" s="337"/>
+      <c r="G8" s="337"/>
+      <c r="H8" s="338"/>
+      <c r="I8" s="331" t="s">
         <v>241</v>
       </c>
-      <c r="J8" s="316"/>
+      <c r="J8" s="332"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -6671,359 +7404,339 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="290"/>
-      <c r="I15" s="290"/>
-      <c r="J15" s="290"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="302"/>
+      <c r="I15" s="302"/>
+      <c r="J15" s="302"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="290"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
-      <c r="J16" s="290"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="302"/>
+      <c r="I16" s="302"/>
+      <c r="J16" s="302"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="290"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="290"/>
-      <c r="H17" s="290"/>
-      <c r="I17" s="290"/>
-      <c r="J17" s="290"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="302"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="290"/>
-      <c r="F18" s="290"/>
-      <c r="G18" s="290"/>
-      <c r="H18" s="290"/>
-      <c r="I18" s="290"/>
-      <c r="J18" s="290"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="302"/>
+      <c r="I18" s="302"/>
+      <c r="J18" s="302"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="290"/>
-      <c r="F19" s="290"/>
-      <c r="G19" s="290"/>
-      <c r="H19" s="290"/>
-      <c r="I19" s="290"/>
-      <c r="J19" s="290"/>
+      <c r="E19" s="302"/>
+      <c r="F19" s="302"/>
+      <c r="G19" s="302"/>
+      <c r="H19" s="302"/>
+      <c r="I19" s="302"/>
+      <c r="J19" s="302"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="290"/>
-      <c r="F20" s="290"/>
-      <c r="G20" s="290"/>
-      <c r="H20" s="290"/>
-      <c r="I20" s="290"/>
-      <c r="J20" s="290"/>
+      <c r="E20" s="302"/>
+      <c r="F20" s="302"/>
+      <c r="G20" s="302"/>
+      <c r="H20" s="302"/>
+      <c r="I20" s="302"/>
+      <c r="J20" s="302"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="290"/>
-      <c r="F21" s="290"/>
-      <c r="G21" s="290"/>
-      <c r="H21" s="290"/>
-      <c r="I21" s="290"/>
-      <c r="J21" s="290"/>
+      <c r="E21" s="302"/>
+      <c r="F21" s="302"/>
+      <c r="G21" s="302"/>
+      <c r="H21" s="302"/>
+      <c r="I21" s="302"/>
+      <c r="J21" s="302"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="290"/>
-      <c r="F22" s="290"/>
-      <c r="G22" s="290"/>
-      <c r="H22" s="290"/>
-      <c r="I22" s="290"/>
-      <c r="J22" s="290"/>
+      <c r="E22" s="302"/>
+      <c r="F22" s="302"/>
+      <c r="G22" s="302"/>
+      <c r="H22" s="302"/>
+      <c r="I22" s="302"/>
+      <c r="J22" s="302"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="290"/>
-      <c r="F23" s="290"/>
-      <c r="G23" s="290"/>
-      <c r="H23" s="290"/>
-      <c r="I23" s="290"/>
-      <c r="J23" s="290"/>
+      <c r="E23" s="302"/>
+      <c r="F23" s="302"/>
+      <c r="G23" s="302"/>
+      <c r="H23" s="302"/>
+      <c r="I23" s="302"/>
+      <c r="J23" s="302"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="290"/>
-      <c r="F24" s="290"/>
-      <c r="G24" s="290"/>
-      <c r="H24" s="290"/>
-      <c r="I24" s="290"/>
-      <c r="J24" s="290"/>
+      <c r="E24" s="302"/>
+      <c r="F24" s="302"/>
+      <c r="G24" s="302"/>
+      <c r="H24" s="302"/>
+      <c r="I24" s="302"/>
+      <c r="J24" s="302"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="290"/>
-      <c r="G25" s="290"/>
-      <c r="H25" s="290"/>
-      <c r="I25" s="290"/>
-      <c r="J25" s="290"/>
+      <c r="E25" s="302"/>
+      <c r="F25" s="302"/>
+      <c r="G25" s="302"/>
+      <c r="H25" s="302"/>
+      <c r="I25" s="302"/>
+      <c r="J25" s="302"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="290"/>
-      <c r="F26" s="290"/>
-      <c r="G26" s="290"/>
-      <c r="H26" s="290"/>
-      <c r="I26" s="290"/>
-      <c r="J26" s="290"/>
+      <c r="E26" s="302"/>
+      <c r="F26" s="302"/>
+      <c r="G26" s="302"/>
+      <c r="H26" s="302"/>
+      <c r="I26" s="302"/>
+      <c r="J26" s="302"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="290"/>
-      <c r="F27" s="290"/>
-      <c r="G27" s="290"/>
-      <c r="H27" s="290"/>
-      <c r="I27" s="290"/>
-      <c r="J27" s="290"/>
+      <c r="E27" s="302"/>
+      <c r="F27" s="302"/>
+      <c r="G27" s="302"/>
+      <c r="H27" s="302"/>
+      <c r="I27" s="302"/>
+      <c r="J27" s="302"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="290"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="290"/>
-      <c r="I28" s="290"/>
-      <c r="J28" s="290"/>
+      <c r="E28" s="302"/>
+      <c r="F28" s="302"/>
+      <c r="G28" s="302"/>
+      <c r="H28" s="302"/>
+      <c r="I28" s="302"/>
+      <c r="J28" s="302"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="290"/>
-      <c r="H29" s="290"/>
-      <c r="I29" s="290"/>
-      <c r="J29" s="290"/>
+      <c r="E29" s="302"/>
+      <c r="F29" s="302"/>
+      <c r="G29" s="302"/>
+      <c r="H29" s="302"/>
+      <c r="I29" s="302"/>
+      <c r="J29" s="302"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="290"/>
-      <c r="H30" s="290"/>
-      <c r="I30" s="290"/>
-      <c r="J30" s="290"/>
+      <c r="E30" s="302"/>
+      <c r="F30" s="302"/>
+      <c r="G30" s="302"/>
+      <c r="H30" s="302"/>
+      <c r="I30" s="302"/>
+      <c r="J30" s="302"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="290"/>
-      <c r="F31" s="290"/>
-      <c r="G31" s="290"/>
-      <c r="H31" s="290"/>
-      <c r="I31" s="290"/>
-      <c r="J31" s="290"/>
+      <c r="E31" s="302"/>
+      <c r="F31" s="302"/>
+      <c r="G31" s="302"/>
+      <c r="H31" s="302"/>
+      <c r="I31" s="302"/>
+      <c r="J31" s="302"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="290"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="290"/>
-      <c r="H32" s="290"/>
-      <c r="I32" s="290"/>
-      <c r="J32" s="290"/>
+      <c r="E32" s="302"/>
+      <c r="F32" s="302"/>
+      <c r="G32" s="302"/>
+      <c r="H32" s="302"/>
+      <c r="I32" s="302"/>
+      <c r="J32" s="302"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="290"/>
-      <c r="F33" s="290"/>
-      <c r="G33" s="290"/>
-      <c r="H33" s="290"/>
-      <c r="I33" s="290"/>
-      <c r="J33" s="290"/>
+      <c r="E33" s="302"/>
+      <c r="F33" s="302"/>
+      <c r="G33" s="302"/>
+      <c r="H33" s="302"/>
+      <c r="I33" s="302"/>
+      <c r="J33" s="302"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="290"/>
-      <c r="F34" s="290"/>
-      <c r="G34" s="290"/>
-      <c r="H34" s="290"/>
-      <c r="I34" s="290"/>
-      <c r="J34" s="290"/>
+      <c r="E34" s="302"/>
+      <c r="F34" s="302"/>
+      <c r="G34" s="302"/>
+      <c r="H34" s="302"/>
+      <c r="I34" s="302"/>
+      <c r="J34" s="302"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="290"/>
-      <c r="F35" s="290"/>
-      <c r="G35" s="290"/>
-      <c r="H35" s="290"/>
-      <c r="I35" s="290"/>
-      <c r="J35" s="290"/>
+      <c r="E35" s="302"/>
+      <c r="F35" s="302"/>
+      <c r="G35" s="302"/>
+      <c r="H35" s="302"/>
+      <c r="I35" s="302"/>
+      <c r="J35" s="302"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="290"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="290"/>
-      <c r="H36" s="290"/>
-      <c r="I36" s="290"/>
-      <c r="J36" s="290"/>
+      <c r="E36" s="302"/>
+      <c r="F36" s="302"/>
+      <c r="G36" s="302"/>
+      <c r="H36" s="302"/>
+      <c r="I36" s="302"/>
+      <c r="J36" s="302"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="290"/>
-      <c r="F37" s="290"/>
-      <c r="G37" s="290"/>
-      <c r="H37" s="290"/>
-      <c r="I37" s="290"/>
-      <c r="J37" s="290"/>
+      <c r="E37" s="302"/>
+      <c r="F37" s="302"/>
+      <c r="G37" s="302"/>
+      <c r="H37" s="302"/>
+      <c r="I37" s="302"/>
+      <c r="J37" s="302"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="290"/>
-      <c r="F38" s="290"/>
-      <c r="G38" s="290"/>
-      <c r="H38" s="290"/>
-      <c r="I38" s="290"/>
-      <c r="J38" s="290"/>
+      <c r="E38" s="302"/>
+      <c r="F38" s="302"/>
+      <c r="G38" s="302"/>
+      <c r="H38" s="302"/>
+      <c r="I38" s="302"/>
+      <c r="J38" s="302"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="290"/>
-      <c r="F39" s="290"/>
-      <c r="G39" s="290"/>
-      <c r="H39" s="290"/>
-      <c r="I39" s="290"/>
-      <c r="J39" s="290"/>
+      <c r="E39" s="302"/>
+      <c r="F39" s="302"/>
+      <c r="G39" s="302"/>
+      <c r="H39" s="302"/>
+      <c r="I39" s="302"/>
+      <c r="J39" s="302"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="290"/>
-      <c r="F40" s="290"/>
-      <c r="G40" s="290"/>
-      <c r="H40" s="290"/>
-      <c r="I40" s="290"/>
-      <c r="J40" s="290"/>
+      <c r="E40" s="302"/>
+      <c r="F40" s="302"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
+      <c r="I40" s="302"/>
+      <c r="J40" s="302"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="290"/>
-      <c r="F41" s="290"/>
-      <c r="G41" s="290"/>
-      <c r="H41" s="290"/>
-      <c r="I41" s="290"/>
-      <c r="J41" s="290"/>
+      <c r="E41" s="302"/>
+      <c r="F41" s="302"/>
+      <c r="G41" s="302"/>
+      <c r="H41" s="302"/>
+      <c r="I41" s="302"/>
+      <c r="J41" s="302"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="290"/>
-      <c r="F42" s="290"/>
-      <c r="G42" s="290"/>
-      <c r="H42" s="290"/>
-      <c r="I42" s="290"/>
-      <c r="J42" s="290"/>
+      <c r="E42" s="302"/>
+      <c r="F42" s="302"/>
+      <c r="G42" s="302"/>
+      <c r="H42" s="302"/>
+      <c r="I42" s="302"/>
+      <c r="J42" s="302"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A5:H8"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="E40:J40"/>
     <mergeCell ref="E41:J41"/>
@@ -7040,6 +7753,26 @@
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A5:H8"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -7057,45 +7790,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N226"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="133" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="129" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="130" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="126" customWidth="1"/>
     <col min="5" max="6" width="21.42578125" style="16" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="16" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="140" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="140" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="137" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="137" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" style="16" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" style="16" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" style="16" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="16" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" style="16" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="124" t="s">
+      <c r="B1" s="345"/>
+      <c r="C1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="131" t="str">
+      <c r="D1" s="128" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
       <c r="E1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="121" t="str">
+      <c r="F1" s="118" t="str">
         <f>'Update History'!F1</f>
         <v>WF0011</v>
       </c>
@@ -7106,25 +7839,25 @@
         <f>'Update History'!H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="I1" s="124" t="s">
+      <c r="I1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="324" t="str">
+      <c r="J1" s="346" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="K1" s="325"/>
+      <c r="K1" s="347"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="280"/>
-      <c r="B2" s="323"/>
-      <c r="C2" s="124" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="131" t="str">
+      <c r="D2" s="128" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-WM</v>
       </c>
@@ -7142,14 +7875,14 @@
         <f>'Update History'!H2</f>
         <v>42174</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="326">
+      <c r="J2" s="348">
         <f>'Update History'!J2</f>
         <v>42381</v>
       </c>
-      <c r="K2" s="327"/>
+      <c r="K2" s="349"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -7157,14 +7890,14 @@
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -7186,19 +7919,19 @@
       <c r="E4" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="137" t="s">
+      <c r="G4" s="134" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="120" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="61" t="s">
@@ -7217,14 +7950,14 @@
     <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="63"/>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="139" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="138"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="51"/>
-      <c r="H5" s="136"/>
+      <c r="H5" s="133"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="60"/>
@@ -7235,22 +7968,22 @@
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
       <c r="B6" s="63"/>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="127" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="E6" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="135" t="s">
         <v>218</v>
       </c>
       <c r="G6" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="136"/>
+      <c r="H6" s="133"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18" t="s">
         <v>219</v>
@@ -7260,641 +7993,663 @@
       <c r="M6" s="60"/>
       <c r="N6" s="60"/>
     </row>
-    <row r="7" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="149"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="145" t="s">
+    <row r="7" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="144"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="140" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="146" t="s">
+      <c r="D7" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="146" t="s">
+      <c r="E7" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="147" t="s">
+      <c r="F7" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="148" t="s">
+      <c r="G7" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="151"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152" t="s">
+      <c r="H7" s="146"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
-    </row>
-    <row r="8" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="149"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="145" t="s">
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+    </row>
+    <row r="8" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="144"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="146" t="s">
+      <c r="D8" s="141" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="E8" s="141" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="147" t="s">
+      <c r="F8" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="148" t="s">
+      <c r="G8" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="151"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152" t="s">
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-    </row>
-    <row r="9" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="149"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="145" t="s">
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+    </row>
+    <row r="9" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="144"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="146" t="s">
+      <c r="D9" s="141" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="146" t="s">
+      <c r="E9" s="141" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="147" t="s">
+      <c r="F9" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="148" t="s">
+      <c r="G9" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="151"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152" t="s">
+      <c r="H9" s="146"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-    </row>
-    <row r="10" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="149"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="145" t="s">
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
+    </row>
+    <row r="10" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="144"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="140" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="146" t="s">
+      <c r="D10" s="141" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="146" t="s">
+      <c r="E10" s="141" t="s">
         <v>184</v>
       </c>
-      <c r="F10" s="147" t="s">
+      <c r="F10" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="148" t="s">
+      <c r="G10" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="151"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152" t="s">
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-    </row>
-    <row r="11" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="149"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="145" t="s">
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
+    </row>
+    <row r="11" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="144"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="141" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="E11" s="141" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="147" t="s">
+      <c r="F11" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="148" t="s">
+      <c r="G11" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="151"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152" t="s">
+      <c r="H11" s="146"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="153"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-    </row>
-    <row r="12" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="145" t="s">
+      <c r="K11" s="148"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+    </row>
+    <row r="12" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="150"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="140" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H12" s="151"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152" t="s">
+      <c r="H12" s="146"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="153"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-    </row>
-    <row r="13" spans="1:14" s="154" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="145" t="s">
+      <c r="K12" s="148"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="148"/>
+    </row>
+    <row r="13" spans="1:14" s="149" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="150"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="146" t="s">
+      <c r="D13" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="146" t="s">
+      <c r="E13" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="147" t="s">
+      <c r="F13" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="148" t="s">
+      <c r="G13" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H13" s="151"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152" t="s">
+      <c r="H13" s="146"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-    </row>
-    <row r="14" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="149"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="145" t="s">
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+    </row>
+    <row r="14" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="144"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="146" t="s">
+      <c r="D14" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="E14" s="146" t="s">
+      <c r="E14" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="F14" s="147" t="s">
+      <c r="F14" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="148" t="s">
+      <c r="G14" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="151"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152" t="s">
+      <c r="H14" s="146"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-    </row>
-    <row r="15" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="149"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="145" t="s">
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+    </row>
+    <row r="15" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="144"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="146" t="s">
+      <c r="D15" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="146" t="s">
+      <c r="E15" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="F15" s="147" t="s">
+      <c r="F15" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="148" t="s">
+      <c r="G15" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H15" s="151"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152" t="s">
+      <c r="H15" s="146"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-    </row>
-    <row r="16" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="149"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="145" t="s">
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+    </row>
+    <row r="16" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="144"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="140" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="146" t="s">
+      <c r="D16" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="E16" s="146" t="s">
+      <c r="E16" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="147" t="s">
+      <c r="F16" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="148" t="s">
+      <c r="G16" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H16" s="151"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152" t="s">
+      <c r="H16" s="146"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-    </row>
-    <row r="17" spans="1:14" s="158" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="149"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="145" t="s">
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+    </row>
+    <row r="17" spans="1:14" s="153" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="144"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="140" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="146" t="s">
+      <c r="D17" s="141" t="s">
         <v>198</v>
       </c>
-      <c r="E17" s="146" t="s">
+      <c r="E17" s="141" t="s">
         <v>198</v>
       </c>
-      <c r="F17" s="147" t="s">
+      <c r="F17" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="148" t="s">
+      <c r="G17" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H17" s="151"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152" t="s">
+      <c r="H17" s="146"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="157"/>
-    </row>
-    <row r="18" spans="1:14" s="158" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="149"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="145" t="s">
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+    </row>
+    <row r="18" spans="1:14" s="153" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="144"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="140" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="146" t="s">
+      <c r="D18" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="E18" s="146" t="s">
+      <c r="E18" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="F18" s="147" t="s">
+      <c r="F18" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G18" s="148" t="s">
+      <c r="G18" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H18" s="151"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152" t="s">
+      <c r="H18" s="146"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-    </row>
-    <row r="19" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="145" t="s">
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+    </row>
+    <row r="19" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="147"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="140" t="s">
         <v>201</v>
       </c>
-      <c r="D19" s="146" t="s">
+      <c r="D19" s="141" t="s">
         <v>202</v>
       </c>
-      <c r="E19" s="146" t="s">
+      <c r="E19" s="141" t="s">
         <v>202</v>
       </c>
-      <c r="F19" s="147" t="s">
+      <c r="F19" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="148" t="s">
+      <c r="G19" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H19" s="151"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152" t="s">
+      <c r="H19" s="146"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-    </row>
-    <row r="20" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="155"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="145" t="s">
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+    </row>
+    <row r="20" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="150"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="146" t="s">
+      <c r="D20" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="146" t="s">
+      <c r="E20" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="F20" s="147" t="s">
+      <c r="F20" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="148" t="s">
+      <c r="G20" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H20" s="151"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152" t="s">
+      <c r="H20" s="146"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-    </row>
-    <row r="21" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="149"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="145" t="s">
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
+    </row>
+    <row r="21" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="144"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="140" t="s">
         <v>205</v>
       </c>
-      <c r="D21" s="146" t="s">
+      <c r="D21" s="141" t="s">
         <v>206</v>
       </c>
-      <c r="E21" s="146" t="s">
+      <c r="E21" s="141" t="s">
         <v>206</v>
       </c>
-      <c r="F21" s="147" t="s">
+      <c r="F21" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="148" t="s">
+      <c r="G21" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H21" s="151"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="152" t="s">
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="153"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-    </row>
-    <row r="22" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="155"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="145" t="s">
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+    </row>
+    <row r="22" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="150"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="140" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="146" t="s">
+      <c r="D22" s="141" t="s">
         <v>208</v>
       </c>
-      <c r="E22" s="146" t="s">
+      <c r="E22" s="141" t="s">
         <v>208</v>
       </c>
-      <c r="F22" s="147" t="s">
+      <c r="F22" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G22" s="148" t="s">
+      <c r="G22" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H22" s="151"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152" t="s">
+      <c r="H22" s="146"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-    </row>
-    <row r="23" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="155"/>
-      <c r="B23" s="150"/>
-      <c r="C23" s="145" t="s">
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
+    </row>
+    <row r="23" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="150"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="140" t="s">
         <v>209</v>
       </c>
-      <c r="D23" s="146" t="s">
+      <c r="D23" s="141" t="s">
         <v>210</v>
       </c>
-      <c r="E23" s="146" t="s">
+      <c r="E23" s="141" t="s">
         <v>210</v>
       </c>
-      <c r="F23" s="147" t="s">
+      <c r="F23" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G23" s="148" t="s">
+      <c r="G23" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H23" s="151"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152" t="s">
+      <c r="H23" s="146"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-    </row>
-    <row r="24" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="149"/>
-      <c r="B24" s="150"/>
-      <c r="C24" s="145" t="s">
+      <c r="K23" s="148"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="148"/>
+    </row>
+    <row r="24" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="144"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="D24" s="146" t="s">
+      <c r="D24" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="E24" s="146" t="s">
+      <c r="E24" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="147" t="s">
+      <c r="F24" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="148" t="s">
+      <c r="G24" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H24" s="151"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152" t="s">
+      <c r="H24" s="146"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-    </row>
-    <row r="25" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="149"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="145" t="s">
+      <c r="K24" s="148"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="148"/>
+      <c r="N24" s="148"/>
+    </row>
+    <row r="25" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="144"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="140" t="s">
         <v>213</v>
       </c>
-      <c r="D25" s="146" t="s">
+      <c r="D25" s="141" t="s">
         <v>214</v>
       </c>
-      <c r="E25" s="146" t="s">
+      <c r="E25" s="141" t="s">
         <v>214</v>
       </c>
-      <c r="F25" s="147" t="s">
+      <c r="F25" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G25" s="148" t="s">
+      <c r="G25" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H25" s="151"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152" t="s">
+      <c r="H25" s="146"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-    </row>
-    <row r="26" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="149"/>
-      <c r="B26" s="150"/>
-      <c r="C26" s="145" t="s">
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
+      <c r="N25" s="148"/>
+    </row>
+    <row r="26" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="144"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="146" t="s">
+      <c r="D26" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="146" t="s">
+      <c r="E26" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="F26" s="147" t="s">
+      <c r="F26" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="148" t="s">
+      <c r="G26" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H26" s="151"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152" t="s">
+      <c r="H26" s="146"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-    </row>
-    <row r="27" spans="1:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="149"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="145" t="s">
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="148"/>
+    </row>
+    <row r="27" spans="1:14" s="149" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="144"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="140" t="s">
         <v>237</v>
       </c>
-      <c r="D27" s="146" t="s">
+      <c r="D27" s="141" t="s">
         <v>235</v>
       </c>
-      <c r="E27" s="146" t="s">
+      <c r="E27" s="141" t="s">
         <v>235</v>
       </c>
-      <c r="F27" s="147" t="s">
+      <c r="F27" s="142" t="s">
         <v>218</v>
       </c>
-      <c r="G27" s="148" t="s">
+      <c r="G27" s="143" t="s">
         <v>236</v>
       </c>
-      <c r="H27" s="151"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="152" t="s">
+      <c r="H27" s="146"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147" t="s">
         <v>219</v>
       </c>
-      <c r="K27" s="153"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153">
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148">
         <v>0</v>
       </c>
-      <c r="N27" s="153"/>
+      <c r="N27" s="148"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60">
-        <v>0</v>
-      </c>
-      <c r="N28" s="60"/>
+      <c r="A28" s="260"/>
+      <c r="B28" s="261"/>
+      <c r="C28" s="262" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="258" t="s">
+        <v>325</v>
+      </c>
+      <c r="E28" s="258" t="s">
+        <v>325</v>
+      </c>
+      <c r="F28" s="263" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" s="264" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="265"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="266"/>
+      <c r="L28" s="266"/>
+      <c r="M28" s="266"/>
+      <c r="N28" s="350" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60">
-        <v>0</v>
-      </c>
-      <c r="N29" s="60"/>
+      <c r="A29" s="267"/>
+      <c r="B29" s="261"/>
+      <c r="C29" s="262" t="s">
+        <v>327</v>
+      </c>
+      <c r="D29" s="259" t="s">
+        <v>328</v>
+      </c>
+      <c r="E29" s="259" t="s">
+        <v>328</v>
+      </c>
+      <c r="F29" s="263" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="264" t="s">
+        <v>236</v>
+      </c>
+      <c r="H29" s="265"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="266"/>
+      <c r="L29" s="266"/>
+      <c r="M29" s="266"/>
+      <c r="N29" s="351"/>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
       <c r="B30" s="63"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="138"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="135"/>
       <c r="G30" s="51"/>
-      <c r="H30" s="136"/>
+      <c r="H30" s="133"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
       <c r="K30" s="60"/>
@@ -7907,12 +8662,12 @@
     <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
       <c r="B31" s="63"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="138"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="135"/>
       <c r="G31" s="51"/>
-      <c r="H31" s="136"/>
+      <c r="H31" s="133"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
       <c r="K31" s="60"/>
@@ -7925,12 +8680,12 @@
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
       <c r="B32" s="63"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="138"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="135"/>
       <c r="G32" s="51"/>
-      <c r="H32" s="136"/>
+      <c r="H32" s="133"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="60"/>
@@ -7943,12 +8698,12 @@
     <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
       <c r="B33" s="63"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="138"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="135"/>
       <c r="G33" s="51"/>
-      <c r="H33" s="136"/>
+      <c r="H33" s="133"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="60"/>
@@ -7961,12 +8716,12 @@
     <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
       <c r="B34" s="63"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="138"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="135"/>
       <c r="G34" s="51"/>
-      <c r="H34" s="136"/>
+      <c r="H34" s="133"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="60"/>
@@ -7979,144 +8734,144 @@
     <row r="35" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="35"/>
-      <c r="C35" s="132"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="37"/>
-      <c r="E35" s="134"/>
+      <c r="E35" s="131"/>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
-      <c r="H35" s="134"/>
+      <c r="H35" s="131"/>
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
     </row>
     <row r="36" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="35"/>
-      <c r="C36" s="132"/>
+      <c r="C36" s="129"/>
       <c r="D36" s="37"/>
-      <c r="E36" s="134"/>
+      <c r="E36" s="131"/>
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
-      <c r="H36" s="134"/>
+      <c r="H36" s="131"/>
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
     </row>
     <row r="37" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
-      <c r="C37" s="132"/>
+      <c r="C37" s="129"/>
       <c r="D37" s="37"/>
-      <c r="E37" s="134"/>
+      <c r="E37" s="131"/>
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
-      <c r="H37" s="134"/>
+      <c r="H37" s="131"/>
       <c r="I37" s="34"/>
       <c r="J37" s="34"/>
     </row>
     <row r="38" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="35"/>
-      <c r="C38" s="132"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="37"/>
-      <c r="E38" s="134"/>
+      <c r="E38" s="131"/>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
-      <c r="H38" s="134"/>
+      <c r="H38" s="131"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
     </row>
     <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="34"/>
       <c r="B39" s="35"/>
-      <c r="C39" s="132"/>
+      <c r="C39" s="129"/>
       <c r="D39" s="37"/>
-      <c r="E39" s="134"/>
+      <c r="E39" s="131"/>
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
-      <c r="H39" s="134"/>
+      <c r="H39" s="131"/>
       <c r="I39" s="34"/>
       <c r="J39" s="34"/>
     </row>
     <row r="40" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="35"/>
-      <c r="C40" s="132"/>
+      <c r="C40" s="129"/>
       <c r="D40" s="37"/>
-      <c r="E40" s="134"/>
+      <c r="E40" s="131"/>
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
-      <c r="H40" s="134"/>
+      <c r="H40" s="131"/>
       <c r="I40" s="34"/>
       <c r="J40" s="34"/>
     </row>
     <row r="41" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
-      <c r="C41" s="132"/>
+      <c r="C41" s="129"/>
       <c r="D41" s="37"/>
-      <c r="E41" s="134"/>
+      <c r="E41" s="131"/>
       <c r="F41" s="48"/>
       <c r="G41" s="48"/>
-      <c r="H41" s="134"/>
+      <c r="H41" s="131"/>
       <c r="I41" s="34"/>
       <c r="J41" s="34"/>
     </row>
     <row r="42" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="35"/>
-      <c r="C42" s="132"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="37"/>
-      <c r="E42" s="134"/>
+      <c r="E42" s="131"/>
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
-      <c r="H42" s="134"/>
+      <c r="H42" s="131"/>
       <c r="I42" s="34"/>
       <c r="J42" s="34"/>
     </row>
     <row r="43" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="35"/>
-      <c r="C43" s="132"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="37"/>
-      <c r="E43" s="134"/>
+      <c r="E43" s="131"/>
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
-      <c r="H43" s="134"/>
+      <c r="H43" s="131"/>
       <c r="I43" s="34"/>
       <c r="J43" s="34"/>
     </row>
     <row r="44" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="35"/>
-      <c r="C44" s="132"/>
+      <c r="C44" s="129"/>
       <c r="D44" s="37"/>
-      <c r="E44" s="134"/>
+      <c r="E44" s="131"/>
       <c r="F44" s="48"/>
       <c r="G44" s="48"/>
-      <c r="H44" s="134"/>
+      <c r="H44" s="131"/>
       <c r="I44" s="34"/>
       <c r="J44" s="34"/>
     </row>
     <row r="45" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="35"/>
-      <c r="C45" s="132"/>
+      <c r="C45" s="129"/>
       <c r="D45" s="37"/>
-      <c r="E45" s="134"/>
+      <c r="E45" s="131"/>
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
-      <c r="H45" s="134"/>
+      <c r="H45" s="131"/>
       <c r="I45" s="34"/>
       <c r="J45" s="34"/>
     </row>
     <row r="46" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="35"/>
-      <c r="C46" s="132"/>
+      <c r="C46" s="129"/>
       <c r="D46" s="37"/>
-      <c r="E46" s="134"/>
+      <c r="E46" s="131"/>
       <c r="F46" s="48"/>
       <c r="G46" s="48"/>
-      <c r="H46" s="134"/>
+      <c r="H46" s="131"/>
       <c r="I46" s="34"/>
       <c r="J46" s="34"/>
     </row>
@@ -8835,10 +9590,11 @@
       <c r="F226" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N28:N29"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -8859,10 +9615,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="G23" sqref="G23:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8880,12 +9636,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
       <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
@@ -8896,7 +9652,7 @@
       <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="121" t="str">
+      <c r="H1" s="118" t="str">
         <f>'Update History'!F1</f>
         <v>WF0011</v>
       </c>
@@ -8910,16 +9666,16 @@
       <c r="K1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="122" t="str">
+      <c r="L1" s="119" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="280"/>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
       <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
@@ -8967,11 +9723,11 @@
       <c r="A4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="275" t="s">
-        <v>313</v>
-      </c>
-      <c r="C4" s="275" t="s">
-        <v>314</v>
+      <c r="B4" s="256" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="256" t="s">
+        <v>321</v>
       </c>
       <c r="D4" s="61" t="s">
         <v>22</v>
@@ -8991,53 +9747,67 @@
       <c r="I4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="331" t="s">
+      <c r="J4" s="355" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="331"/>
-      <c r="L4" s="331"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="328"/>
-      <c r="K5" s="329"/>
-      <c r="L5" s="330"/>
+      <c r="K4" s="355"/>
+      <c r="L4" s="355"/>
+    </row>
+    <row r="5" spans="1:12" s="414" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="403"/>
+      <c r="B5" s="403" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="403">
+        <v>51</v>
+      </c>
+      <c r="D5" s="401" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="407" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="408"/>
+      <c r="G5" s="409"/>
+      <c r="H5" s="410" t="s">
+        <v>306</v>
+      </c>
+      <c r="I5" s="410" t="s">
+        <v>315</v>
+      </c>
+      <c r="J5" s="411" t="s">
+        <v>316</v>
+      </c>
+      <c r="K5" s="412"/>
+      <c r="L5" s="413"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="328"/>
-      <c r="K6" s="329"/>
-      <c r="L6" s="330"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="352"/>
+      <c r="K6" s="353"/>
+      <c r="L6" s="354"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="19"/>
       <c r="E7" s="57"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="328"/>
-      <c r="K7" s="329"/>
-      <c r="L7" s="330"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="352"/>
+      <c r="K7" s="353"/>
+      <c r="L7" s="354"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
@@ -9046,26 +9816,26 @@
       <c r="D8" s="19"/>
       <c r="E8" s="57"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="328"/>
-      <c r="K8" s="329"/>
-      <c r="L8" s="330"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="352"/>
+      <c r="K8" s="353"/>
+      <c r="L8" s="354"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="19"/>
       <c r="E9" s="57"/>
       <c r="F9" s="18"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="328"/>
-      <c r="K9" s="329"/>
-      <c r="L9" s="330"/>
+      <c r="J9" s="352"/>
+      <c r="K9" s="353"/>
+      <c r="L9" s="354"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
@@ -9077,9 +9847,9 @@
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="328"/>
-      <c r="K10" s="329"/>
-      <c r="L10" s="330"/>
+      <c r="J10" s="352"/>
+      <c r="K10" s="353"/>
+      <c r="L10" s="354"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
@@ -9091,23 +9861,23 @@
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
-      <c r="J11" s="328"/>
-      <c r="K11" s="329"/>
-      <c r="L11" s="330"/>
-    </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="352"/>
+      <c r="K11" s="353"/>
+      <c r="L11" s="354"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="328"/>
-      <c r="K12" s="329"/>
-      <c r="L12" s="330"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="352"/>
+      <c r="K12" s="353"/>
+      <c r="L12" s="354"/>
     </row>
     <row r="13" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
@@ -9119,65 +9889,65 @@
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
-      <c r="J13" s="328"/>
-      <c r="K13" s="329"/>
-      <c r="L13" s="330"/>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="290"/>
-      <c r="H14" s="290"/>
-      <c r="I14" s="290"/>
-      <c r="J14" s="290"/>
-      <c r="K14" s="290"/>
-      <c r="L14" s="290"/>
+      <c r="J13" s="352"/>
+      <c r="K13" s="353"/>
+      <c r="L13" s="354"/>
+    </row>
+    <row r="14" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="352"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="354"/>
     </row>
     <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="35"/>
       <c r="E15" s="36"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="290"/>
-      <c r="I15" s="290"/>
-      <c r="J15" s="290"/>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="302"/>
+      <c r="I15" s="302"/>
+      <c r="J15" s="302"/>
+      <c r="K15" s="302"/>
+      <c r="L15" s="302"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
-      <c r="J16" s="290"/>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="302"/>
+      <c r="I16" s="302"/>
+      <c r="J16" s="302"/>
+      <c r="K16" s="302"/>
+      <c r="L16" s="302"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="35"/>
       <c r="E17" s="36"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="290"/>
-      <c r="H17" s="290"/>
-      <c r="I17" s="290"/>
-      <c r="J17" s="290"/>
-      <c r="K17" s="290"/>
-      <c r="L17" s="290"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="302"/>
+      <c r="K17" s="302"/>
+      <c r="L17" s="302"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -9186,26 +9956,26 @@
       <c r="D18" s="35"/>
       <c r="E18" s="36"/>
       <c r="F18" s="34"/>
-      <c r="G18" s="290"/>
-      <c r="H18" s="290"/>
-      <c r="I18" s="290"/>
-      <c r="J18" s="290"/>
-      <c r="K18" s="290"/>
-      <c r="L18" s="290"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="302"/>
+      <c r="I18" s="302"/>
+      <c r="J18" s="302"/>
+      <c r="K18" s="302"/>
+      <c r="L18" s="302"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="35"/>
       <c r="E19" s="36"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="290"/>
-      <c r="H19" s="290"/>
-      <c r="I19" s="290"/>
-      <c r="J19" s="290"/>
-      <c r="K19" s="290"/>
-      <c r="L19" s="290"/>
+      <c r="G19" s="302"/>
+      <c r="H19" s="302"/>
+      <c r="I19" s="302"/>
+      <c r="J19" s="302"/>
+      <c r="K19" s="302"/>
+      <c r="L19" s="302"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -9214,12 +9984,12 @@
       <c r="D20" s="35"/>
       <c r="E20" s="36"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="290"/>
-      <c r="H20" s="290"/>
-      <c r="I20" s="290"/>
-      <c r="J20" s="290"/>
-      <c r="K20" s="290"/>
-      <c r="L20" s="290"/>
+      <c r="G20" s="302"/>
+      <c r="H20" s="302"/>
+      <c r="I20" s="302"/>
+      <c r="J20" s="302"/>
+      <c r="K20" s="302"/>
+      <c r="L20" s="302"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -9228,12 +9998,12 @@
       <c r="D21" s="35"/>
       <c r="E21" s="36"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="290"/>
-      <c r="H21" s="290"/>
-      <c r="I21" s="290"/>
-      <c r="J21" s="290"/>
-      <c r="K21" s="290"/>
-      <c r="L21" s="290"/>
+      <c r="G21" s="302"/>
+      <c r="H21" s="302"/>
+      <c r="I21" s="302"/>
+      <c r="J21" s="302"/>
+      <c r="K21" s="302"/>
+      <c r="L21" s="302"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -9242,12 +10012,12 @@
       <c r="D22" s="35"/>
       <c r="E22" s="36"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="290"/>
-      <c r="H22" s="290"/>
-      <c r="I22" s="290"/>
-      <c r="J22" s="290"/>
-      <c r="K22" s="290"/>
-      <c r="L22" s="290"/>
+      <c r="G22" s="302"/>
+      <c r="H22" s="302"/>
+      <c r="I22" s="302"/>
+      <c r="J22" s="302"/>
+      <c r="K22" s="302"/>
+      <c r="L22" s="302"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -9256,68 +10026,68 @@
       <c r="D23" s="35"/>
       <c r="E23" s="36"/>
       <c r="F23" s="34"/>
-      <c r="G23" s="290"/>
-      <c r="H23" s="290"/>
-      <c r="I23" s="290"/>
-      <c r="J23" s="290"/>
-      <c r="K23" s="290"/>
-      <c r="L23" s="290"/>
+      <c r="G23" s="302"/>
+      <c r="H23" s="302"/>
+      <c r="I23" s="302"/>
+      <c r="J23" s="302"/>
+      <c r="K23" s="302"/>
+      <c r="L23" s="302"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="290"/>
-      <c r="H24" s="290"/>
-      <c r="I24" s="290"/>
-      <c r="J24" s="290"/>
-      <c r="K24" s="290"/>
-      <c r="L24" s="290"/>
+      <c r="G24" s="302"/>
+      <c r="H24" s="302"/>
+      <c r="I24" s="302"/>
+      <c r="J24" s="302"/>
+      <c r="K24" s="302"/>
+      <c r="L24" s="302"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="290"/>
-      <c r="H25" s="290"/>
-      <c r="I25" s="290"/>
-      <c r="J25" s="290"/>
-      <c r="K25" s="290"/>
-      <c r="L25" s="290"/>
+      <c r="G25" s="302"/>
+      <c r="H25" s="302"/>
+      <c r="I25" s="302"/>
+      <c r="J25" s="302"/>
+      <c r="K25" s="302"/>
+      <c r="L25" s="302"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="290"/>
-      <c r="H26" s="290"/>
-      <c r="I26" s="290"/>
-      <c r="J26" s="290"/>
-      <c r="K26" s="290"/>
-      <c r="L26" s="290"/>
+      <c r="G26" s="302"/>
+      <c r="H26" s="302"/>
+      <c r="I26" s="302"/>
+      <c r="J26" s="302"/>
+      <c r="K26" s="302"/>
+      <c r="L26" s="302"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="35"/>
       <c r="E27" s="36"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="290"/>
-      <c r="H27" s="290"/>
-      <c r="I27" s="290"/>
-      <c r="J27" s="290"/>
-      <c r="K27" s="290"/>
-      <c r="L27" s="290"/>
+      <c r="G27" s="302"/>
+      <c r="H27" s="302"/>
+      <c r="I27" s="302"/>
+      <c r="J27" s="302"/>
+      <c r="K27" s="302"/>
+      <c r="L27" s="302"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -9326,26 +10096,26 @@
       <c r="D28" s="35"/>
       <c r="E28" s="36"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="290"/>
-      <c r="I28" s="290"/>
-      <c r="J28" s="290"/>
-      <c r="K28" s="290"/>
-      <c r="L28" s="290"/>
+      <c r="G28" s="302"/>
+      <c r="H28" s="302"/>
+      <c r="I28" s="302"/>
+      <c r="J28" s="302"/>
+      <c r="K28" s="302"/>
+      <c r="L28" s="302"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="35"/>
       <c r="E29" s="36"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="290"/>
-      <c r="H29" s="290"/>
-      <c r="I29" s="290"/>
-      <c r="J29" s="290"/>
-      <c r="K29" s="290"/>
-      <c r="L29" s="290"/>
+      <c r="G29" s="302"/>
+      <c r="H29" s="302"/>
+      <c r="I29" s="302"/>
+      <c r="J29" s="302"/>
+      <c r="K29" s="302"/>
+      <c r="L29" s="302"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -9354,12 +10124,12 @@
       <c r="D30" s="35"/>
       <c r="E30" s="36"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="290"/>
-      <c r="H30" s="290"/>
-      <c r="I30" s="290"/>
-      <c r="J30" s="290"/>
-      <c r="K30" s="290"/>
-      <c r="L30" s="290"/>
+      <c r="G30" s="302"/>
+      <c r="H30" s="302"/>
+      <c r="I30" s="302"/>
+      <c r="J30" s="302"/>
+      <c r="K30" s="302"/>
+      <c r="L30" s="302"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -9368,12 +10138,12 @@
       <c r="D31" s="35"/>
       <c r="E31" s="36"/>
       <c r="F31" s="34"/>
-      <c r="G31" s="290"/>
-      <c r="H31" s="290"/>
-      <c r="I31" s="290"/>
-      <c r="J31" s="290"/>
-      <c r="K31" s="290"/>
-      <c r="L31" s="290"/>
+      <c r="G31" s="302"/>
+      <c r="H31" s="302"/>
+      <c r="I31" s="302"/>
+      <c r="J31" s="302"/>
+      <c r="K31" s="302"/>
+      <c r="L31" s="302"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -9382,12 +10152,12 @@
       <c r="D32" s="35"/>
       <c r="E32" s="36"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="290"/>
-      <c r="H32" s="290"/>
-      <c r="I32" s="290"/>
-      <c r="J32" s="290"/>
-      <c r="K32" s="290"/>
-      <c r="L32" s="290"/>
+      <c r="G32" s="302"/>
+      <c r="H32" s="302"/>
+      <c r="I32" s="302"/>
+      <c r="J32" s="302"/>
+      <c r="K32" s="302"/>
+      <c r="L32" s="302"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -9396,68 +10166,68 @@
       <c r="D33" s="35"/>
       <c r="E33" s="36"/>
       <c r="F33" s="34"/>
-      <c r="G33" s="290"/>
-      <c r="H33" s="290"/>
-      <c r="I33" s="290"/>
-      <c r="J33" s="290"/>
-      <c r="K33" s="290"/>
-      <c r="L33" s="290"/>
+      <c r="G33" s="302"/>
+      <c r="H33" s="302"/>
+      <c r="I33" s="302"/>
+      <c r="J33" s="302"/>
+      <c r="K33" s="302"/>
+      <c r="L33" s="302"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="35"/>
       <c r="E34" s="36"/>
       <c r="F34" s="34"/>
-      <c r="G34" s="290"/>
-      <c r="H34" s="290"/>
-      <c r="I34" s="290"/>
-      <c r="J34" s="290"/>
-      <c r="K34" s="290"/>
-      <c r="L34" s="290"/>
+      <c r="G34" s="302"/>
+      <c r="H34" s="302"/>
+      <c r="I34" s="302"/>
+      <c r="J34" s="302"/>
+      <c r="K34" s="302"/>
+      <c r="L34" s="302"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="35"/>
       <c r="E35" s="36"/>
       <c r="F35" s="34"/>
-      <c r="G35" s="290"/>
-      <c r="H35" s="290"/>
-      <c r="I35" s="290"/>
-      <c r="J35" s="290"/>
-      <c r="K35" s="290"/>
-      <c r="L35" s="290"/>
+      <c r="G35" s="302"/>
+      <c r="H35" s="302"/>
+      <c r="I35" s="302"/>
+      <c r="J35" s="302"/>
+      <c r="K35" s="302"/>
+      <c r="L35" s="302"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="35"/>
       <c r="E36" s="36"/>
       <c r="F36" s="34"/>
-      <c r="G36" s="290"/>
-      <c r="H36" s="290"/>
-      <c r="I36" s="290"/>
-      <c r="J36" s="290"/>
-      <c r="K36" s="290"/>
-      <c r="L36" s="290"/>
+      <c r="G36" s="302"/>
+      <c r="H36" s="302"/>
+      <c r="I36" s="302"/>
+      <c r="J36" s="302"/>
+      <c r="K36" s="302"/>
+      <c r="L36" s="302"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="290"/>
-      <c r="H37" s="290"/>
-      <c r="I37" s="290"/>
-      <c r="J37" s="290"/>
-      <c r="K37" s="290"/>
-      <c r="L37" s="290"/>
+      <c r="G37" s="302"/>
+      <c r="H37" s="302"/>
+      <c r="I37" s="302"/>
+      <c r="J37" s="302"/>
+      <c r="K37" s="302"/>
+      <c r="L37" s="302"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -9466,26 +10236,26 @@
       <c r="D38" s="35"/>
       <c r="E38" s="36"/>
       <c r="F38" s="34"/>
-      <c r="G38" s="290"/>
-      <c r="H38" s="290"/>
-      <c r="I38" s="290"/>
-      <c r="J38" s="290"/>
-      <c r="K38" s="290"/>
-      <c r="L38" s="290"/>
+      <c r="G38" s="302"/>
+      <c r="H38" s="302"/>
+      <c r="I38" s="302"/>
+      <c r="J38" s="302"/>
+      <c r="K38" s="302"/>
+      <c r="L38" s="302"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
       <c r="F39" s="34"/>
-      <c r="G39" s="290"/>
-      <c r="H39" s="290"/>
-      <c r="I39" s="290"/>
-      <c r="J39" s="290"/>
-      <c r="K39" s="290"/>
-      <c r="L39" s="290"/>
+      <c r="G39" s="302"/>
+      <c r="H39" s="302"/>
+      <c r="I39" s="302"/>
+      <c r="J39" s="302"/>
+      <c r="K39" s="302"/>
+      <c r="L39" s="302"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -9494,61 +10264,51 @@
       <c r="D40" s="35"/>
       <c r="E40" s="36"/>
       <c r="F40" s="34"/>
-      <c r="G40" s="290"/>
-      <c r="H40" s="290"/>
-      <c r="I40" s="290"/>
-      <c r="J40" s="290"/>
-      <c r="K40" s="290"/>
-      <c r="L40" s="290"/>
-    </row>
-    <row r="41" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
+      <c r="I40" s="302"/>
+      <c r="J40" s="302"/>
+      <c r="K40" s="302"/>
+      <c r="L40" s="302"/>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="35"/>
       <c r="E41" s="36"/>
       <c r="F41" s="34"/>
-      <c r="G41" s="290"/>
-      <c r="H41" s="290"/>
-      <c r="I41" s="290"/>
-      <c r="J41" s="290"/>
-      <c r="K41" s="290"/>
-      <c r="L41" s="290"/>
+      <c r="G41" s="302"/>
+      <c r="H41" s="302"/>
+      <c r="I41" s="302"/>
+      <c r="J41" s="302"/>
+      <c r="K41" s="302"/>
+      <c r="L41" s="302"/>
+    </row>
+    <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="302"/>
+      <c r="H42" s="302"/>
+      <c r="I42" s="302"/>
+      <c r="J42" s="302"/>
+      <c r="K42" s="302"/>
+      <c r="L42" s="302"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="G38:L38"/>
+  <mergeCells count="40">
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="G39:L39"/>
     <mergeCell ref="G40:L40"/>
     <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G42:L42"/>
     <mergeCell ref="G37:L37"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="G26:L26"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="G17:L17"/>
@@ -9556,6 +10316,31 @@
     <mergeCell ref="G19:L19"/>
     <mergeCell ref="G20:L20"/>
     <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
@@ -9591,10 +10376,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="280"/>
+      <c r="B1" s="321"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -9605,7 +10390,7 @@
       <c r="E1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="121" t="str">
+      <c r="F1" s="118" t="str">
         <f>'Update History'!F1</f>
         <v>WF0011</v>
       </c>
@@ -9619,14 +10404,14 @@
       <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="122" t="str">
+      <c r="J1" s="119" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="280"/>
-      <c r="B2" s="280"/>
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -9657,16 +10442,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="336"/>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="337"/>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
-      <c r="J3" s="338"/>
+      <c r="A3" s="360"/>
+      <c r="B3" s="361"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
+      <c r="G3" s="361"/>
+      <c r="H3" s="361"/>
+      <c r="I3" s="361"/>
+      <c r="J3" s="362"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
@@ -9681,16 +10466,16 @@
       <c r="D4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="332" t="s">
+      <c r="E4" s="356" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="332"/>
-      <c r="G4" s="333" t="s">
+      <c r="F4" s="356"/>
+      <c r="G4" s="357" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="334"/>
-      <c r="I4" s="334"/>
-      <c r="J4" s="335"/>
+      <c r="H4" s="358"/>
+      <c r="I4" s="358"/>
+      <c r="J4" s="359"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -9817,347 +10602,351 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="290"/>
-      <c r="I15" s="290"/>
-      <c r="J15" s="290"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="302"/>
+      <c r="I15" s="302"/>
+      <c r="J15" s="302"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="290"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
-      <c r="J16" s="290"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="302"/>
+      <c r="I16" s="302"/>
+      <c r="J16" s="302"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="290"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="290"/>
-      <c r="H17" s="290"/>
-      <c r="I17" s="290"/>
-      <c r="J17" s="290"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="302"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="290"/>
-      <c r="F18" s="290"/>
-      <c r="G18" s="290"/>
-      <c r="H18" s="290"/>
-      <c r="I18" s="290"/>
-      <c r="J18" s="290"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="302"/>
+      <c r="I18" s="302"/>
+      <c r="J18" s="302"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="290"/>
-      <c r="F19" s="290"/>
-      <c r="G19" s="290"/>
-      <c r="H19" s="290"/>
-      <c r="I19" s="290"/>
-      <c r="J19" s="290"/>
+      <c r="E19" s="302"/>
+      <c r="F19" s="302"/>
+      <c r="G19" s="302"/>
+      <c r="H19" s="302"/>
+      <c r="I19" s="302"/>
+      <c r="J19" s="302"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="290"/>
-      <c r="F20" s="290"/>
-      <c r="G20" s="290"/>
-      <c r="H20" s="290"/>
-      <c r="I20" s="290"/>
-      <c r="J20" s="290"/>
+      <c r="E20" s="302"/>
+      <c r="F20" s="302"/>
+      <c r="G20" s="302"/>
+      <c r="H20" s="302"/>
+      <c r="I20" s="302"/>
+      <c r="J20" s="302"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="290"/>
-      <c r="F21" s="290"/>
-      <c r="G21" s="290"/>
-      <c r="H21" s="290"/>
-      <c r="I21" s="290"/>
-      <c r="J21" s="290"/>
+      <c r="E21" s="302"/>
+      <c r="F21" s="302"/>
+      <c r="G21" s="302"/>
+      <c r="H21" s="302"/>
+      <c r="I21" s="302"/>
+      <c r="J21" s="302"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="290"/>
-      <c r="F22" s="290"/>
-      <c r="G22" s="290"/>
-      <c r="H22" s="290"/>
-      <c r="I22" s="290"/>
-      <c r="J22" s="290"/>
+      <c r="E22" s="302"/>
+      <c r="F22" s="302"/>
+      <c r="G22" s="302"/>
+      <c r="H22" s="302"/>
+      <c r="I22" s="302"/>
+      <c r="J22" s="302"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="290"/>
-      <c r="F23" s="290"/>
-      <c r="G23" s="290"/>
-      <c r="H23" s="290"/>
-      <c r="I23" s="290"/>
-      <c r="J23" s="290"/>
+      <c r="E23" s="302"/>
+      <c r="F23" s="302"/>
+      <c r="G23" s="302"/>
+      <c r="H23" s="302"/>
+      <c r="I23" s="302"/>
+      <c r="J23" s="302"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="290"/>
-      <c r="F24" s="290"/>
-      <c r="G24" s="290"/>
-      <c r="H24" s="290"/>
-      <c r="I24" s="290"/>
-      <c r="J24" s="290"/>
+      <c r="E24" s="302"/>
+      <c r="F24" s="302"/>
+      <c r="G24" s="302"/>
+      <c r="H24" s="302"/>
+      <c r="I24" s="302"/>
+      <c r="J24" s="302"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="290"/>
-      <c r="G25" s="290"/>
-      <c r="H25" s="290"/>
-      <c r="I25" s="290"/>
-      <c r="J25" s="290"/>
+      <c r="E25" s="302"/>
+      <c r="F25" s="302"/>
+      <c r="G25" s="302"/>
+      <c r="H25" s="302"/>
+      <c r="I25" s="302"/>
+      <c r="J25" s="302"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="290"/>
-      <c r="F26" s="290"/>
-      <c r="G26" s="290"/>
-      <c r="H26" s="290"/>
-      <c r="I26" s="290"/>
-      <c r="J26" s="290"/>
+      <c r="E26" s="302"/>
+      <c r="F26" s="302"/>
+      <c r="G26" s="302"/>
+      <c r="H26" s="302"/>
+      <c r="I26" s="302"/>
+      <c r="J26" s="302"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="290"/>
-      <c r="F27" s="290"/>
-      <c r="G27" s="290"/>
-      <c r="H27" s="290"/>
-      <c r="I27" s="290"/>
-      <c r="J27" s="290"/>
+      <c r="E27" s="302"/>
+      <c r="F27" s="302"/>
+      <c r="G27" s="302"/>
+      <c r="H27" s="302"/>
+      <c r="I27" s="302"/>
+      <c r="J27" s="302"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="290"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="290"/>
-      <c r="I28" s="290"/>
-      <c r="J28" s="290"/>
+      <c r="E28" s="302"/>
+      <c r="F28" s="302"/>
+      <c r="G28" s="302"/>
+      <c r="H28" s="302"/>
+      <c r="I28" s="302"/>
+      <c r="J28" s="302"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="290"/>
-      <c r="H29" s="290"/>
-      <c r="I29" s="290"/>
-      <c r="J29" s="290"/>
+      <c r="E29" s="302"/>
+      <c r="F29" s="302"/>
+      <c r="G29" s="302"/>
+      <c r="H29" s="302"/>
+      <c r="I29" s="302"/>
+      <c r="J29" s="302"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="290"/>
-      <c r="H30" s="290"/>
-      <c r="I30" s="290"/>
-      <c r="J30" s="290"/>
+      <c r="E30" s="302"/>
+      <c r="F30" s="302"/>
+      <c r="G30" s="302"/>
+      <c r="H30" s="302"/>
+      <c r="I30" s="302"/>
+      <c r="J30" s="302"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="290"/>
-      <c r="F31" s="290"/>
-      <c r="G31" s="290"/>
-      <c r="H31" s="290"/>
-      <c r="I31" s="290"/>
-      <c r="J31" s="290"/>
+      <c r="E31" s="302"/>
+      <c r="F31" s="302"/>
+      <c r="G31" s="302"/>
+      <c r="H31" s="302"/>
+      <c r="I31" s="302"/>
+      <c r="J31" s="302"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="290"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="290"/>
-      <c r="H32" s="290"/>
-      <c r="I32" s="290"/>
-      <c r="J32" s="290"/>
+      <c r="E32" s="302"/>
+      <c r="F32" s="302"/>
+      <c r="G32" s="302"/>
+      <c r="H32" s="302"/>
+      <c r="I32" s="302"/>
+      <c r="J32" s="302"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="290"/>
-      <c r="F33" s="290"/>
-      <c r="G33" s="290"/>
-      <c r="H33" s="290"/>
-      <c r="I33" s="290"/>
-      <c r="J33" s="290"/>
+      <c r="E33" s="302"/>
+      <c r="F33" s="302"/>
+      <c r="G33" s="302"/>
+      <c r="H33" s="302"/>
+      <c r="I33" s="302"/>
+      <c r="J33" s="302"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="290"/>
-      <c r="F34" s="290"/>
-      <c r="G34" s="290"/>
-      <c r="H34" s="290"/>
-      <c r="I34" s="290"/>
-      <c r="J34" s="290"/>
+      <c r="E34" s="302"/>
+      <c r="F34" s="302"/>
+      <c r="G34" s="302"/>
+      <c r="H34" s="302"/>
+      <c r="I34" s="302"/>
+      <c r="J34" s="302"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="290"/>
-      <c r="F35" s="290"/>
-      <c r="G35" s="290"/>
-      <c r="H35" s="290"/>
-      <c r="I35" s="290"/>
-      <c r="J35" s="290"/>
+      <c r="E35" s="302"/>
+      <c r="F35" s="302"/>
+      <c r="G35" s="302"/>
+      <c r="H35" s="302"/>
+      <c r="I35" s="302"/>
+      <c r="J35" s="302"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="290"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="290"/>
-      <c r="H36" s="290"/>
-      <c r="I36" s="290"/>
-      <c r="J36" s="290"/>
+      <c r="E36" s="302"/>
+      <c r="F36" s="302"/>
+      <c r="G36" s="302"/>
+      <c r="H36" s="302"/>
+      <c r="I36" s="302"/>
+      <c r="J36" s="302"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="290"/>
-      <c r="F37" s="290"/>
-      <c r="G37" s="290"/>
-      <c r="H37" s="290"/>
-      <c r="I37" s="290"/>
-      <c r="J37" s="290"/>
+      <c r="E37" s="302"/>
+      <c r="F37" s="302"/>
+      <c r="G37" s="302"/>
+      <c r="H37" s="302"/>
+      <c r="I37" s="302"/>
+      <c r="J37" s="302"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="290"/>
-      <c r="F38" s="290"/>
-      <c r="G38" s="290"/>
-      <c r="H38" s="290"/>
-      <c r="I38" s="290"/>
-      <c r="J38" s="290"/>
+      <c r="E38" s="302"/>
+      <c r="F38" s="302"/>
+      <c r="G38" s="302"/>
+      <c r="H38" s="302"/>
+      <c r="I38" s="302"/>
+      <c r="J38" s="302"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="290"/>
-      <c r="F39" s="290"/>
-      <c r="G39" s="290"/>
-      <c r="H39" s="290"/>
-      <c r="I39" s="290"/>
-      <c r="J39" s="290"/>
+      <c r="E39" s="302"/>
+      <c r="F39" s="302"/>
+      <c r="G39" s="302"/>
+      <c r="H39" s="302"/>
+      <c r="I39" s="302"/>
+      <c r="J39" s="302"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="290"/>
-      <c r="F40" s="290"/>
-      <c r="G40" s="290"/>
-      <c r="H40" s="290"/>
-      <c r="I40" s="290"/>
-      <c r="J40" s="290"/>
+      <c r="E40" s="302"/>
+      <c r="F40" s="302"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
+      <c r="I40" s="302"/>
+      <c r="J40" s="302"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="290"/>
-      <c r="F41" s="290"/>
-      <c r="G41" s="290"/>
-      <c r="H41" s="290"/>
-      <c r="I41" s="290"/>
-      <c r="J41" s="290"/>
+      <c r="E41" s="302"/>
+      <c r="F41" s="302"/>
+      <c r="G41" s="302"/>
+      <c r="H41" s="302"/>
+      <c r="I41" s="302"/>
+      <c r="J41" s="302"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="290"/>
-      <c r="F42" s="290"/>
-      <c r="G42" s="290"/>
-      <c r="H42" s="290"/>
-      <c r="I42" s="290"/>
-      <c r="J42" s="290"/>
+      <c r="E42" s="302"/>
+      <c r="F42" s="302"/>
+      <c r="G42" s="302"/>
+      <c r="H42" s="302"/>
+      <c r="I42" s="302"/>
+      <c r="J42" s="302"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E24:J24"/>
     <mergeCell ref="E41:J41"/>
     <mergeCell ref="E42:J42"/>
     <mergeCell ref="E31:J31"/>
@@ -10170,18 +10959,14 @@
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -10198,8 +10983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="I13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10209,7 +10994,7 @@
     <col min="4" max="4" width="13.7109375" style="16" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="16" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="16" customWidth="1"/>
     <col min="8" max="8" width="27.85546875" style="16" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" style="16" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" style="16" customWidth="1"/>
@@ -10226,12 +11011,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
       <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
@@ -10242,7 +11027,7 @@
       <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="121" t="str">
+      <c r="H1" s="118" t="str">
         <f>'Update History'!F1</f>
         <v>WF0011</v>
       </c>
@@ -10256,7 +11041,7 @@
       <c r="K1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="122" t="str">
+      <c r="L1" s="119" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
@@ -10269,10 +11054,10 @@
       <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="280"/>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
       <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
@@ -10310,18 +11095,18 @@
       <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="336"/>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="337"/>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337"/>
-      <c r="K3" s="337"/>
-      <c r="L3" s="338"/>
+      <c r="A3" s="360"/>
+      <c r="B3" s="361"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
+      <c r="G3" s="361"/>
+      <c r="H3" s="361"/>
+      <c r="I3" s="361"/>
+      <c r="J3" s="361"/>
+      <c r="K3" s="361"/>
+      <c r="L3" s="362"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -10334,11 +11119,11 @@
       <c r="A4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="276" t="s">
-        <v>313</v>
-      </c>
-      <c r="C4" s="276" t="s">
-        <v>314</v>
+      <c r="B4" s="257" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="257" t="s">
+        <v>321</v>
       </c>
       <c r="D4" s="66" t="s">
         <v>46</v>
@@ -10361,12 +11146,12 @@
       <c r="J4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="333" t="s">
+      <c r="K4" s="357" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="334"/>
-      <c r="M4" s="334"/>
-      <c r="N4" s="335"/>
+      <c r="L4" s="358"/>
+      <c r="M4" s="358"/>
+      <c r="N4" s="359"/>
       <c r="O4" s="66" t="s">
         <v>44</v>
       </c>
@@ -10383,671 +11168,749 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="154" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="152">
+    <row r="5" spans="1:19" s="149" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="147">
         <v>1</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="159" t="s">
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="154" t="s">
         <v>220</v>
       </c>
-      <c r="H5" s="159" t="s">
+      <c r="H5" s="154" t="s">
         <v>221</v>
       </c>
-      <c r="I5" s="159" t="s">
+      <c r="I5" s="154" t="s">
         <v>222</v>
       </c>
-      <c r="J5" s="160" t="s">
+      <c r="J5" s="155" t="s">
         <v>223</v>
       </c>
-      <c r="K5" s="339" t="s">
+      <c r="K5" s="385" t="s">
         <v>224</v>
       </c>
-      <c r="L5" s="340"/>
-      <c r="M5" s="340"/>
-      <c r="N5" s="341"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="164" t="s">
+      <c r="L5" s="386"/>
+      <c r="M5" s="386"/>
+      <c r="N5" s="387"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="159" t="s">
         <v>170</v>
       </c>
-      <c r="R5" s="164" t="s">
+      <c r="R5" s="159" t="s">
         <v>171</v>
       </c>
-      <c r="S5" s="153"/>
-    </row>
-    <row r="6" spans="1:19" s="154" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="155">
+      <c r="S5" s="148"/>
+    </row>
+    <row r="6" spans="1:19" s="149" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="150">
         <v>2</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="148" t="s">
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="143" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="159" t="s">
+      <c r="H6" s="154" t="s">
         <v>221</v>
       </c>
-      <c r="I6" s="159" t="s">
+      <c r="I6" s="154" t="s">
         <v>222</v>
       </c>
-      <c r="J6" s="160" t="s">
+      <c r="J6" s="155" t="s">
         <v>227</v>
       </c>
-      <c r="K6" s="342" t="s">
+      <c r="K6" s="388" t="s">
         <v>228</v>
       </c>
-      <c r="L6" s="343"/>
-      <c r="M6" s="343"/>
-      <c r="N6" s="344"/>
-      <c r="O6" s="181" t="s">
+      <c r="L6" s="389"/>
+      <c r="M6" s="389"/>
+      <c r="N6" s="390"/>
+      <c r="O6" s="176" t="s">
         <v>230</v>
       </c>
-      <c r="P6" s="182" t="s">
+      <c r="P6" s="177" t="s">
         <v>231</v>
       </c>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="153"/>
-    </row>
-    <row r="7" spans="1:19" s="154" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="152">
+      <c r="Q6" s="148"/>
+      <c r="R6" s="148"/>
+      <c r="S6" s="148"/>
+    </row>
+    <row r="7" spans="1:19" s="149" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="147">
         <v>3</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="184" t="s">
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="179" t="s">
         <v>243</v>
       </c>
-      <c r="H7" s="159" t="s">
+      <c r="H7" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="I7" s="159" t="s">
+      <c r="I7" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="160" t="s">
+      <c r="J7" s="155" t="s">
         <v>233</v>
       </c>
-      <c r="K7" s="342" t="s">
+      <c r="K7" s="388" t="s">
         <v>249</v>
       </c>
-      <c r="L7" s="343"/>
-      <c r="M7" s="343"/>
-      <c r="N7" s="344"/>
-      <c r="O7" s="185" t="s">
+      <c r="L7" s="389"/>
+      <c r="M7" s="389"/>
+      <c r="N7" s="390"/>
+      <c r="O7" s="180" t="s">
         <v>234</v>
       </c>
-      <c r="P7" s="186" t="s">
+      <c r="P7" s="181" t="s">
         <v>244</v>
       </c>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-    </row>
-    <row r="8" spans="1:19" s="154" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="155">
+      <c r="Q7" s="148"/>
+      <c r="R7" s="148"/>
+      <c r="S7" s="148"/>
+    </row>
+    <row r="8" spans="1:19" s="149" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="150">
         <v>4</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="184" t="s">
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="179" t="s">
         <v>238</v>
       </c>
-      <c r="H8" s="159" t="s">
+      <c r="H8" s="154" t="s">
         <v>221</v>
       </c>
-      <c r="I8" s="159" t="s">
+      <c r="I8" s="154" t="s">
         <v>222</v>
       </c>
-      <c r="J8" s="160" t="s">
+      <c r="J8" s="155" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="339" t="s">
+      <c r="K8" s="385" t="s">
         <v>248</v>
       </c>
-      <c r="L8" s="340"/>
-      <c r="M8" s="340"/>
-      <c r="N8" s="341"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-    </row>
-    <row r="9" spans="1:19" s="199" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="191">
+      <c r="L8" s="386"/>
+      <c r="M8" s="386"/>
+      <c r="N8" s="387"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="148"/>
+      <c r="S8" s="148"/>
+    </row>
+    <row r="9" spans="1:19" s="194" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="186">
         <v>5</v>
       </c>
-      <c r="B9" s="191"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="195" t="s">
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="190" t="s">
         <v>252</v>
       </c>
-      <c r="H9" s="196" t="s">
+      <c r="H9" s="191" t="s">
         <v>221</v>
       </c>
-      <c r="I9" s="196" t="s">
+      <c r="I9" s="191" t="s">
         <v>253</v>
       </c>
-      <c r="J9" s="197" t="s">
+      <c r="J9" s="192" t="s">
         <v>254</v>
       </c>
-      <c r="K9" s="345" t="s">
+      <c r="K9" s="391" t="s">
         <v>255</v>
       </c>
-      <c r="L9" s="346"/>
-      <c r="M9" s="346"/>
-      <c r="N9" s="347"/>
-      <c r="O9" s="198"/>
-      <c r="P9" s="198"/>
-      <c r="Q9" s="198"/>
-      <c r="R9" s="198"/>
-      <c r="S9" s="198"/>
-    </row>
-    <row r="10" spans="1:19" s="199" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="200">
+      <c r="L9" s="392"/>
+      <c r="M9" s="392"/>
+      <c r="N9" s="393"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="193"/>
+    </row>
+    <row r="10" spans="1:19" s="194" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="195">
         <v>6</v>
       </c>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="201" t="s">
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="196" t="s">
         <v>256</v>
       </c>
-      <c r="H10" s="196" t="s">
+      <c r="H10" s="191" t="s">
         <v>221</v>
       </c>
-      <c r="I10" s="196" t="s">
+      <c r="I10" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="J10" s="197" t="s">
+      <c r="J10" s="192" t="s">
         <v>257</v>
       </c>
-      <c r="K10" s="349" t="s">
+      <c r="K10" s="363" t="s">
         <v>258</v>
       </c>
-      <c r="L10" s="350"/>
-      <c r="M10" s="350"/>
-      <c r="N10" s="351"/>
-      <c r="O10" s="202" t="s">
+      <c r="L10" s="364"/>
+      <c r="M10" s="364"/>
+      <c r="N10" s="365"/>
+      <c r="O10" s="197" t="s">
         <v>259</v>
       </c>
-      <c r="P10" s="203" t="s">
+      <c r="P10" s="198" t="s">
         <v>260</v>
       </c>
-      <c r="Q10" s="198"/>
-      <c r="R10" s="198"/>
-      <c r="S10" s="198"/>
-    </row>
-    <row r="11" spans="1:19" s="199" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="191">
+      <c r="Q10" s="193"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="193"/>
+    </row>
+    <row r="11" spans="1:19" s="194" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="186">
         <v>7</v>
       </c>
-      <c r="B11" s="204"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="195" t="s">
+      <c r="B11" s="199"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="190" t="s">
         <v>261</v>
       </c>
-      <c r="H11" s="196" t="s">
+      <c r="H11" s="191" t="s">
         <v>232</v>
       </c>
-      <c r="I11" s="196" t="s">
+      <c r="I11" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="197" t="s">
+      <c r="J11" s="192" t="s">
         <v>262</v>
       </c>
-      <c r="K11" s="349" t="s">
+      <c r="K11" s="363" t="s">
         <v>263</v>
       </c>
-      <c r="L11" s="350"/>
-      <c r="M11" s="350"/>
-      <c r="N11" s="351"/>
-      <c r="O11" s="205" t="s">
+      <c r="L11" s="364"/>
+      <c r="M11" s="364"/>
+      <c r="N11" s="365"/>
+      <c r="O11" s="200" t="s">
         <v>264</v>
       </c>
-      <c r="P11" s="206" t="s">
+      <c r="P11" s="201" t="s">
         <v>244</v>
       </c>
-      <c r="Q11" s="198"/>
-      <c r="R11" s="198"/>
-      <c r="S11" s="198"/>
-    </row>
-    <row r="12" spans="1:19" s="199" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="200">
+      <c r="Q11" s="193"/>
+      <c r="R11" s="193"/>
+      <c r="S11" s="193"/>
+    </row>
+    <row r="12" spans="1:19" s="194" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="195">
         <v>8</v>
       </c>
-      <c r="B12" s="204"/>
-      <c r="C12" s="204"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="195" t="s">
+      <c r="B12" s="199"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="190" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="196" t="s">
+      <c r="H12" s="191" t="s">
         <v>266</v>
       </c>
-      <c r="I12" s="196" t="s">
+      <c r="I12" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="197" t="s">
+      <c r="J12" s="192" t="s">
         <v>267</v>
       </c>
-      <c r="K12" s="349" t="s">
+      <c r="K12" s="363" t="s">
         <v>268</v>
       </c>
-      <c r="L12" s="350"/>
-      <c r="M12" s="350"/>
-      <c r="N12" s="351"/>
-      <c r="O12" s="198"/>
-      <c r="P12" s="198"/>
-      <c r="Q12" s="198"/>
-      <c r="R12" s="198"/>
-      <c r="S12" s="198"/>
-    </row>
-    <row r="13" spans="1:19" s="236" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="228">
+      <c r="L12" s="364"/>
+      <c r="M12" s="364"/>
+      <c r="N12" s="365"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="193"/>
+      <c r="R12" s="193"/>
+      <c r="S12" s="193"/>
+    </row>
+    <row r="13" spans="1:19" s="231" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="223">
         <v>9</v>
       </c>
-      <c r="B13" s="228"/>
-      <c r="C13" s="228"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="223"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="229" t="s">
+      <c r="E13" s="224" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="225" t="s">
         <v>280</v>
       </c>
-      <c r="F13" s="230" t="s">
+      <c r="G13" s="226" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" s="227" t="s">
+        <v>221</v>
+      </c>
+      <c r="I13" s="227" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="228" t="s">
+        <v>287</v>
+      </c>
+      <c r="K13" s="366" t="s">
         <v>281</v>
       </c>
-      <c r="G13" s="231" t="s">
-        <v>280</v>
-      </c>
-      <c r="H13" s="232" t="s">
+      <c r="L13" s="367"/>
+      <c r="M13" s="367"/>
+      <c r="N13" s="368"/>
+      <c r="O13" s="229" t="s">
+        <v>282</v>
+      </c>
+      <c r="P13" s="229" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q13" s="230"/>
+      <c r="R13" s="230"/>
+      <c r="S13" s="226" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="231" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="248">
+        <v>10</v>
+      </c>
+      <c r="B14" s="248"/>
+      <c r="C14" s="248"/>
+      <c r="D14" s="249"/>
+      <c r="E14" s="250" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="251" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="252" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" s="230" t="s">
         <v>221</v>
       </c>
-      <c r="I13" s="232" t="s">
+      <c r="I14" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="233" t="s">
+      <c r="J14" s="253" t="s">
+        <v>291</v>
+      </c>
+      <c r="K14" s="369" t="s">
         <v>288</v>
       </c>
-      <c r="K13" s="352" t="s">
-        <v>282</v>
-      </c>
-      <c r="L13" s="353"/>
-      <c r="M13" s="353"/>
-      <c r="N13" s="354"/>
-      <c r="O13" s="234" t="s">
-        <v>283</v>
-      </c>
-      <c r="P13" s="234" t="s">
+      <c r="L14" s="370"/>
+      <c r="M14" s="370"/>
+      <c r="N14" s="371"/>
+      <c r="O14" s="254" t="s">
+        <v>289</v>
+      </c>
+      <c r="P14" s="254" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q14" s="230"/>
+      <c r="R14" s="230"/>
+      <c r="S14" s="252" t="s">
         <v>284</v>
       </c>
-      <c r="Q13" s="235"/>
-      <c r="R13" s="235"/>
-      <c r="S13" s="231" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="236" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="253">
-        <v>10</v>
-      </c>
-      <c r="B14" s="253"/>
-      <c r="C14" s="253"/>
-      <c r="D14" s="254"/>
-      <c r="E14" s="255" t="s">
-        <v>286</v>
-      </c>
-      <c r="F14" s="256" t="s">
-        <v>287</v>
-      </c>
-      <c r="G14" s="257" t="s">
-        <v>286</v>
-      </c>
-      <c r="H14" s="235" t="s">
+    </row>
+    <row r="15" spans="1:19" s="426" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="415">
+        <v>11</v>
+      </c>
+      <c r="B15" s="415" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" s="415">
+        <v>51</v>
+      </c>
+      <c r="D15" s="416" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" s="417"/>
+      <c r="F15" s="418" t="s">
+        <v>307</v>
+      </c>
+      <c r="G15" s="419" t="s">
+        <v>304</v>
+      </c>
+      <c r="H15" s="420" t="s">
         <v>221</v>
       </c>
-      <c r="I14" s="235" t="s">
+      <c r="I15" s="420" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="258" t="s">
-        <v>292</v>
-      </c>
-      <c r="K14" s="355" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" s="356"/>
-      <c r="M14" s="356"/>
-      <c r="N14" s="357"/>
-      <c r="O14" s="259" t="s">
-        <v>290</v>
-      </c>
-      <c r="P14" s="259" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
-      <c r="S14" s="257" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="272" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="264">
-        <v>11</v>
-      </c>
-      <c r="B15" s="264" t="s">
-        <v>312</v>
-      </c>
-      <c r="C15" s="264">
-        <v>51</v>
-      </c>
-      <c r="D15" s="265" t="s">
+      <c r="J15" s="421" t="s">
+        <v>308</v>
+      </c>
+      <c r="K15" s="422" t="s">
+        <v>309</v>
+      </c>
+      <c r="L15" s="423"/>
+      <c r="M15" s="423"/>
+      <c r="N15" s="424"/>
+      <c r="O15" s="425" t="s">
+        <v>310</v>
+      </c>
+      <c r="P15" s="425" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q15" s="420" t="s">
         <v>306</v>
       </c>
-      <c r="E15" s="266"/>
-      <c r="F15" s="267" t="s">
-        <v>308</v>
-      </c>
-      <c r="G15" s="268" t="s">
-        <v>305</v>
-      </c>
-      <c r="H15" s="269" t="s">
+      <c r="R15" s="420" t="s">
+        <v>171</v>
+      </c>
+      <c r="S15" s="419" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="17" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="114">
+        <v>12</v>
+      </c>
+      <c r="B16" s="381" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="269"/>
+      <c r="D16" s="270"/>
+      <c r="E16" s="271" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="272" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="273" t="s">
+        <v>329</v>
+      </c>
+      <c r="H16" s="274" t="s">
         <v>221</v>
       </c>
-      <c r="I15" s="269" t="s">
+      <c r="I16" s="274" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="270" t="s">
-        <v>309</v>
-      </c>
-      <c r="K15" s="358" t="s">
-        <v>316</v>
-      </c>
-      <c r="L15" s="359"/>
-      <c r="M15" s="359"/>
-      <c r="N15" s="360"/>
-      <c r="O15" s="271" t="s">
-        <v>310</v>
-      </c>
-      <c r="P15" s="271" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q15" s="269" t="s">
-        <v>307</v>
-      </c>
-      <c r="R15" s="269" t="s">
+      <c r="J16" s="275" t="s">
+        <v>333</v>
+      </c>
+      <c r="K16" s="372" t="s">
+        <v>330</v>
+      </c>
+      <c r="L16" s="373"/>
+      <c r="M16" s="374"/>
+      <c r="N16" s="375"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="266"/>
+      <c r="Q16" s="266" t="s">
+        <v>170</v>
+      </c>
+      <c r="R16" s="266" t="s">
         <v>171</v>
       </c>
-      <c r="S15" s="268" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="260"/>
-      <c r="B16" s="260"/>
-      <c r="C16" s="260"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="262"/>
-      <c r="F16" s="260"/>
-      <c r="G16" s="263"/>
-      <c r="H16" s="263"/>
-      <c r="I16" s="263"/>
-      <c r="J16" s="263"/>
-      <c r="K16" s="263"/>
-      <c r="L16" s="263"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-    </row>
-    <row r="17" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="348"/>
-      <c r="H17" s="348"/>
-      <c r="I17" s="348"/>
-      <c r="J17" s="348"/>
-      <c r="K17" s="348"/>
-      <c r="L17" s="348"/>
-    </row>
-    <row r="18" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="348"/>
-      <c r="H18" s="348"/>
-      <c r="I18" s="348"/>
-      <c r="J18" s="348"/>
-      <c r="K18" s="348"/>
-      <c r="L18" s="348"/>
-    </row>
-    <row r="19" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="S16" s="266"/>
+    </row>
+    <row r="17" spans="1:19" s="17" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="260">
+        <v>13</v>
+      </c>
+      <c r="B17" s="382"/>
+      <c r="C17" s="268"/>
+      <c r="D17" s="276"/>
+      <c r="E17" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="F17" s="114"/>
+      <c r="G17" s="273" t="s">
+        <v>332</v>
+      </c>
+      <c r="H17" s="274" t="s">
+        <v>221</v>
+      </c>
+      <c r="I17" s="274" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="275" t="s">
+        <v>338</v>
+      </c>
+      <c r="K17" s="376" t="s">
+        <v>334</v>
+      </c>
+      <c r="L17" s="377"/>
+      <c r="M17" s="377"/>
+      <c r="N17" s="378"/>
+      <c r="O17" s="298" t="s">
+        <v>335</v>
+      </c>
+      <c r="P17" s="299" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q17" s="299" t="s">
+        <v>336</v>
+      </c>
+      <c r="R17" s="299" t="s">
+        <v>337</v>
+      </c>
+      <c r="S17" s="299"/>
+    </row>
+    <row r="18" spans="1:19" s="17" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="260">
+        <v>14</v>
+      </c>
+      <c r="B18" s="383"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="276"/>
+      <c r="E18" s="271"/>
+      <c r="F18" s="267"/>
+      <c r="G18" s="264" t="s">
+        <v>346</v>
+      </c>
+      <c r="H18" s="274" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" s="274" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="275" t="s">
+        <v>344</v>
+      </c>
+      <c r="K18" s="372" t="s">
+        <v>347</v>
+      </c>
+      <c r="L18" s="379"/>
+      <c r="M18" s="379"/>
+      <c r="N18" s="380"/>
+      <c r="O18" s="301" t="s">
+        <v>348</v>
+      </c>
+      <c r="P18" s="264" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q18" s="264" t="s">
+        <v>349</v>
+      </c>
+      <c r="R18" s="299" t="s">
+        <v>337</v>
+      </c>
+      <c r="S18" s="300"/>
+    </row>
+    <row r="19" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="39"/>
       <c r="E19" s="42"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="348"/>
-      <c r="H19" s="348"/>
-      <c r="I19" s="348"/>
-      <c r="J19" s="348"/>
-      <c r="K19" s="348"/>
-      <c r="L19" s="348"/>
-    </row>
-    <row r="20" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G19" s="384"/>
+      <c r="H19" s="384"/>
+      <c r="I19" s="384"/>
+      <c r="J19" s="384"/>
+      <c r="K19" s="384"/>
+      <c r="L19" s="384"/>
+    </row>
+    <row r="20" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="39"/>
       <c r="E20" s="42"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="348"/>
-      <c r="H20" s="348"/>
-      <c r="I20" s="348"/>
-      <c r="J20" s="348"/>
-      <c r="K20" s="348"/>
-      <c r="L20" s="348"/>
-    </row>
-    <row r="21" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G20" s="384"/>
+      <c r="H20" s="384"/>
+      <c r="I20" s="384"/>
+      <c r="J20" s="384"/>
+      <c r="K20" s="384"/>
+      <c r="L20" s="384"/>
+    </row>
+    <row r="21" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="39"/>
       <c r="E21" s="42"/>
       <c r="F21" s="38"/>
-      <c r="G21" s="348"/>
-      <c r="H21" s="348"/>
-      <c r="I21" s="348"/>
-      <c r="J21" s="348"/>
-      <c r="K21" s="348"/>
-      <c r="L21" s="348"/>
-    </row>
-    <row r="22" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="384"/>
+      <c r="H21" s="384"/>
+      <c r="I21" s="384"/>
+      <c r="J21" s="384"/>
+      <c r="K21" s="384"/>
+      <c r="L21" s="384"/>
+    </row>
+    <row r="22" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="39"/>
       <c r="E22" s="42"/>
       <c r="F22" s="38"/>
-      <c r="G22" s="348"/>
-      <c r="H22" s="348"/>
-      <c r="I22" s="348"/>
-      <c r="J22" s="348"/>
-      <c r="K22" s="348"/>
-      <c r="L22" s="348"/>
-    </row>
-    <row r="23" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="384"/>
+      <c r="H22" s="384"/>
+      <c r="I22" s="384"/>
+      <c r="J22" s="384"/>
+      <c r="K22" s="384"/>
+      <c r="L22" s="384"/>
+    </row>
+    <row r="23" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="39"/>
       <c r="E23" s="42"/>
       <c r="F23" s="38"/>
-      <c r="G23" s="348"/>
-      <c r="H23" s="348"/>
-      <c r="I23" s="348"/>
-      <c r="J23" s="348"/>
-      <c r="K23" s="348"/>
-      <c r="L23" s="348"/>
-    </row>
-    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="384"/>
+      <c r="H23" s="384"/>
+      <c r="I23" s="384"/>
+      <c r="J23" s="384"/>
+      <c r="K23" s="384"/>
+      <c r="L23" s="384"/>
+    </row>
+    <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="290"/>
-      <c r="H24" s="290"/>
-      <c r="I24" s="290"/>
-      <c r="J24" s="290"/>
-      <c r="K24" s="290"/>
-      <c r="L24" s="290"/>
-    </row>
-    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="302"/>
+      <c r="H24" s="302"/>
+      <c r="I24" s="302"/>
+      <c r="J24" s="302"/>
+      <c r="K24" s="302"/>
+      <c r="L24" s="302"/>
+    </row>
+    <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="290"/>
-      <c r="H25" s="290"/>
-      <c r="I25" s="290"/>
-      <c r="J25" s="290"/>
-      <c r="K25" s="290"/>
-      <c r="L25" s="290"/>
-    </row>
-    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G25" s="302"/>
+      <c r="H25" s="302"/>
+      <c r="I25" s="302"/>
+      <c r="J25" s="302"/>
+      <c r="K25" s="302"/>
+      <c r="L25" s="302"/>
+    </row>
+    <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="290"/>
-      <c r="H26" s="290"/>
-      <c r="I26" s="290"/>
-      <c r="J26" s="290"/>
-      <c r="K26" s="290"/>
-      <c r="L26" s="290"/>
-    </row>
-    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="302"/>
+      <c r="H26" s="302"/>
+      <c r="I26" s="302"/>
+      <c r="J26" s="302"/>
+      <c r="K26" s="302"/>
+      <c r="L26" s="302"/>
+    </row>
+    <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="35"/>
       <c r="E27" s="36"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="290"/>
-      <c r="H27" s="290"/>
-      <c r="I27" s="290"/>
-      <c r="J27" s="290"/>
-      <c r="K27" s="290"/>
-      <c r="L27" s="290"/>
-    </row>
-    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G27" s="302"/>
+      <c r="H27" s="302"/>
+      <c r="I27" s="302"/>
+      <c r="J27" s="302"/>
+      <c r="K27" s="302"/>
+      <c r="L27" s="302"/>
+    </row>
+    <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="35"/>
       <c r="E28" s="36"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="290"/>
-      <c r="I28" s="290"/>
-      <c r="J28" s="290"/>
-      <c r="K28" s="290"/>
-      <c r="L28" s="290"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G28" s="302"/>
+      <c r="H28" s="302"/>
+      <c r="I28" s="302"/>
+      <c r="J28" s="302"/>
+      <c r="K28" s="302"/>
+      <c r="L28" s="302"/>
+    </row>
+    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="35"/>
       <c r="E29" s="36"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="290"/>
-      <c r="H29" s="290"/>
-      <c r="I29" s="290"/>
-      <c r="J29" s="290"/>
-      <c r="K29" s="290"/>
-      <c r="L29" s="290"/>
-    </row>
-    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G29" s="302"/>
+      <c r="H29" s="302"/>
+      <c r="I29" s="302"/>
+      <c r="J29" s="302"/>
+      <c r="K29" s="302"/>
+      <c r="L29" s="302"/>
+    </row>
+    <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="35"/>
       <c r="E30" s="36"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="290"/>
-      <c r="H30" s="290"/>
-      <c r="I30" s="290"/>
-      <c r="J30" s="290"/>
-      <c r="K30" s="290"/>
-      <c r="L30" s="290"/>
-    </row>
-    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G30" s="302"/>
+      <c r="H30" s="302"/>
+      <c r="I30" s="302"/>
+      <c r="J30" s="302"/>
+      <c r="K30" s="302"/>
+      <c r="L30" s="302"/>
+    </row>
+    <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="35"/>
       <c r="E31" s="36"/>
       <c r="F31" s="34"/>
-      <c r="G31" s="290"/>
-      <c r="H31" s="290"/>
-      <c r="I31" s="290"/>
-      <c r="J31" s="290"/>
-      <c r="K31" s="290"/>
-      <c r="L31" s="290"/>
-    </row>
-    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G31" s="302"/>
+      <c r="H31" s="302"/>
+      <c r="I31" s="302"/>
+      <c r="J31" s="302"/>
+      <c r="K31" s="302"/>
+      <c r="L31" s="302"/>
+    </row>
+    <row r="32" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="35"/>
       <c r="E32" s="36"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="290"/>
-      <c r="H32" s="290"/>
-      <c r="I32" s="290"/>
-      <c r="J32" s="290"/>
-      <c r="K32" s="290"/>
-      <c r="L32" s="290"/>
+      <c r="G32" s="302"/>
+      <c r="H32" s="302"/>
+      <c r="I32" s="302"/>
+      <c r="J32" s="302"/>
+      <c r="K32" s="302"/>
+      <c r="L32" s="302"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -11056,12 +11919,12 @@
       <c r="D33" s="35"/>
       <c r="E33" s="36"/>
       <c r="F33" s="34"/>
-      <c r="G33" s="290"/>
-      <c r="H33" s="290"/>
-      <c r="I33" s="290"/>
-      <c r="J33" s="290"/>
-      <c r="K33" s="290"/>
-      <c r="L33" s="290"/>
+      <c r="G33" s="302"/>
+      <c r="H33" s="302"/>
+      <c r="I33" s="302"/>
+      <c r="J33" s="302"/>
+      <c r="K33" s="302"/>
+      <c r="L33" s="302"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -11070,12 +11933,12 @@
       <c r="D34" s="35"/>
       <c r="E34" s="36"/>
       <c r="F34" s="34"/>
-      <c r="G34" s="290"/>
-      <c r="H34" s="290"/>
-      <c r="I34" s="290"/>
-      <c r="J34" s="290"/>
-      <c r="K34" s="290"/>
-      <c r="L34" s="290"/>
+      <c r="G34" s="302"/>
+      <c r="H34" s="302"/>
+      <c r="I34" s="302"/>
+      <c r="J34" s="302"/>
+      <c r="K34" s="302"/>
+      <c r="L34" s="302"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -11084,12 +11947,12 @@
       <c r="D35" s="35"/>
       <c r="E35" s="36"/>
       <c r="F35" s="34"/>
-      <c r="G35" s="290"/>
-      <c r="H35" s="290"/>
-      <c r="I35" s="290"/>
-      <c r="J35" s="290"/>
-      <c r="K35" s="290"/>
-      <c r="L35" s="290"/>
+      <c r="G35" s="302"/>
+      <c r="H35" s="302"/>
+      <c r="I35" s="302"/>
+      <c r="J35" s="302"/>
+      <c r="K35" s="302"/>
+      <c r="L35" s="302"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="34"/>
@@ -11098,12 +11961,12 @@
       <c r="D36" s="35"/>
       <c r="E36" s="36"/>
       <c r="F36" s="34"/>
-      <c r="G36" s="290"/>
-      <c r="H36" s="290"/>
-      <c r="I36" s="290"/>
-      <c r="J36" s="290"/>
-      <c r="K36" s="290"/>
-      <c r="L36" s="290"/>
+      <c r="G36" s="302"/>
+      <c r="H36" s="302"/>
+      <c r="I36" s="302"/>
+      <c r="J36" s="302"/>
+      <c r="K36" s="302"/>
+      <c r="L36" s="302"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
@@ -11112,12 +11975,12 @@
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="290"/>
-      <c r="H37" s="290"/>
-      <c r="I37" s="290"/>
-      <c r="J37" s="290"/>
-      <c r="K37" s="290"/>
-      <c r="L37" s="290"/>
+      <c r="G37" s="302"/>
+      <c r="H37" s="302"/>
+      <c r="I37" s="302"/>
+      <c r="J37" s="302"/>
+      <c r="K37" s="302"/>
+      <c r="L37" s="302"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -11126,12 +11989,12 @@
       <c r="D38" s="35"/>
       <c r="E38" s="36"/>
       <c r="F38" s="34"/>
-      <c r="G38" s="290"/>
-      <c r="H38" s="290"/>
-      <c r="I38" s="290"/>
-      <c r="J38" s="290"/>
-      <c r="K38" s="290"/>
-      <c r="L38" s="290"/>
+      <c r="G38" s="302"/>
+      <c r="H38" s="302"/>
+      <c r="I38" s="302"/>
+      <c r="J38" s="302"/>
+      <c r="K38" s="302"/>
+      <c r="L38" s="302"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
@@ -11140,12 +12003,12 @@
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
       <c r="F39" s="34"/>
-      <c r="G39" s="290"/>
-      <c r="H39" s="290"/>
-      <c r="I39" s="290"/>
-      <c r="J39" s="290"/>
-      <c r="K39" s="290"/>
-      <c r="L39" s="290"/>
+      <c r="G39" s="302"/>
+      <c r="H39" s="302"/>
+      <c r="I39" s="302"/>
+      <c r="J39" s="302"/>
+      <c r="K39" s="302"/>
+      <c r="L39" s="302"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -11154,12 +12017,12 @@
       <c r="D40" s="35"/>
       <c r="E40" s="36"/>
       <c r="F40" s="34"/>
-      <c r="G40" s="290"/>
-      <c r="H40" s="290"/>
-      <c r="I40" s="290"/>
-      <c r="J40" s="290"/>
-      <c r="K40" s="290"/>
-      <c r="L40" s="290"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
+      <c r="I40" s="302"/>
+      <c r="J40" s="302"/>
+      <c r="K40" s="302"/>
+      <c r="L40" s="302"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
@@ -11168,12 +12031,12 @@
       <c r="D41" s="35"/>
       <c r="E41" s="36"/>
       <c r="F41" s="34"/>
-      <c r="G41" s="290"/>
-      <c r="H41" s="290"/>
-      <c r="I41" s="290"/>
-      <c r="J41" s="290"/>
-      <c r="K41" s="290"/>
-      <c r="L41" s="290"/>
+      <c r="G41" s="302"/>
+      <c r="H41" s="302"/>
+      <c r="I41" s="302"/>
+      <c r="J41" s="302"/>
+      <c r="K41" s="302"/>
+      <c r="L41" s="302"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
@@ -11182,12 +12045,12 @@
       <c r="D42" s="35"/>
       <c r="E42" s="36"/>
       <c r="F42" s="34"/>
-      <c r="G42" s="290"/>
-      <c r="H42" s="290"/>
-      <c r="I42" s="290"/>
-      <c r="J42" s="290"/>
-      <c r="K42" s="290"/>
-      <c r="L42" s="290"/>
+      <c r="G42" s="302"/>
+      <c r="H42" s="302"/>
+      <c r="I42" s="302"/>
+      <c r="J42" s="302"/>
+      <c r="K42" s="302"/>
+      <c r="L42" s="302"/>
     </row>
     <row r="43" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
@@ -11196,40 +12059,15 @@
       <c r="D43" s="35"/>
       <c r="E43" s="36"/>
       <c r="F43" s="34"/>
-      <c r="G43" s="290"/>
-      <c r="H43" s="290"/>
-      <c r="I43" s="290"/>
-      <c r="J43" s="290"/>
-      <c r="K43" s="290"/>
-      <c r="L43" s="290"/>
+      <c r="G43" s="302"/>
+      <c r="H43" s="302"/>
+      <c r="I43" s="302"/>
+      <c r="J43" s="302"/>
+      <c r="K43" s="302"/>
+      <c r="L43" s="302"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G42:L42"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="G27:L27"/>
+  <mergeCells count="43">
     <mergeCell ref="G43:L43"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="K5:N5"/>
@@ -11246,6 +12084,33 @@
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G31:L31"/>
     <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
@@ -11254,10 +12119,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 R13:R15">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I18">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H18">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q5 Q13:Q15"/>
@@ -11270,10 +12135,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11292,11 +12157,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -11307,7 +12172,7 @@
       <c r="F1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="121" t="str">
+      <c r="G1" s="118" t="str">
         <f>'Update History'!F1</f>
         <v>WF0011</v>
       </c>
@@ -11321,19 +12186,19 @@
       <c r="J1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="122" t="str">
+      <c r="K1" s="119" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="280"/>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="121" t="str">
+      <c r="E2" s="118" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-WM</v>
       </c>
@@ -11373,790 +12238,810 @@
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:12" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
       <c r="I4" s="67"/>
       <c r="J4" s="67"/>
       <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169" t="s">
+      <c r="A5" s="165"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="168"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="168"/>
-      <c r="B7" s="168" t="s">
+      <c r="A7" s="163"/>
+      <c r="B7" s="163" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
       <c r="I7" s="47"/>
       <c r="J7" s="47"/>
       <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="168"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169" t="s">
+      <c r="A8" s="163"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
       <c r="I8" s="48"/>
       <c r="J8" s="48"/>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="171"/>
-      <c r="B9" s="168" t="s">
+      <c r="A9" s="166"/>
+      <c r="B9" s="163" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="171"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
+      <c r="A10" s="166"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
       <c r="I10" s="48"/>
       <c r="J10" s="48"/>
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="171"/>
-      <c r="B11" s="168" t="s">
+      <c r="A11" s="166"/>
+      <c r="B11" s="163" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="59"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
       <c r="I11" s="49"/>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
     </row>
     <row r="12" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="171"/>
-      <c r="B12" s="171"/>
-      <c r="C12" s="169" t="s">
+      <c r="A12" s="166"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="164" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="59"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
       <c r="I12" s="49"/>
       <c r="J12" s="49"/>
       <c r="K12" s="49"/>
     </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="171"/>
-      <c r="B13" s="171"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="17"/>
+    <row r="13" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="277" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="278"/>
+      <c r="C13" s="279" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" s="280"/>
+      <c r="E13" s="281"/>
+      <c r="F13" s="281"/>
+      <c r="G13" s="281"/>
+      <c r="H13" s="281"/>
+      <c r="I13" s="282"/>
+      <c r="J13" s="282"/>
+      <c r="K13" s="282"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="171"/>
-      <c r="B14" s="168" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
+      <c r="A14" s="166"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" s="199" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="207" t="s">
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="166"/>
+      <c r="B15" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" s="194" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="202" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="208"/>
-      <c r="C15" s="209" t="s">
+      <c r="B16" s="203"/>
+      <c r="C16" s="204" t="s">
         <v>270</v>
       </c>
-      <c r="D15" s="210"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="209"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="211"/>
-      <c r="K15" s="212"/>
-    </row>
-    <row r="16" spans="1:12" s="199" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="208"/>
-      <c r="B16" s="208"/>
-      <c r="C16" s="210" t="s">
+      <c r="D16" s="205"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="207"/>
+    </row>
+    <row r="17" spans="1:12" s="194" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="203"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="205" t="s">
         <v>254</v>
       </c>
-      <c r="D16" s="209"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="211"/>
-      <c r="K16" s="212"/>
-    </row>
-    <row r="17" spans="1:12" s="199" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="208"/>
-      <c r="B17" s="208"/>
-      <c r="C17" s="210" t="s">
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="207"/>
+    </row>
+    <row r="18" spans="1:12" s="194" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="203"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="205" t="s">
         <v>257</v>
       </c>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="209"/>
-      <c r="H17" s="209"/>
-      <c r="I17" s="211"/>
-      <c r="J17" s="211"/>
-      <c r="K17" s="212"/>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="171"/>
-      <c r="B18" s="168" t="s">
+      <c r="D18" s="204"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="207"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="166"/>
+      <c r="B19" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="168"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" s="236" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="237"/>
-      <c r="B19" s="238"/>
-      <c r="C19" s="239" t="s">
+      <c r="C19" s="163"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" s="231" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="232"/>
+      <c r="B20" s="233"/>
+      <c r="C20" s="234" t="s">
+        <v>292</v>
+      </c>
+      <c r="D20" s="235"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="236"/>
+      <c r="J20" s="236"/>
+      <c r="K20" s="237"/>
+    </row>
+    <row r="21" spans="1:12" s="231" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="232"/>
+      <c r="B21" s="233"/>
+      <c r="C21" s="238" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="235"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="236"/>
+      <c r="J21" s="236"/>
+      <c r="K21" s="237"/>
+    </row>
+    <row r="22" spans="1:12" s="231" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="232"/>
+      <c r="B22" s="233"/>
+      <c r="C22" s="238" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="235"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="236"/>
+      <c r="J22" s="236"/>
+      <c r="K22" s="237"/>
+    </row>
+    <row r="23" spans="1:12" s="231" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="232"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="238" t="s">
         <v>293</v>
       </c>
-      <c r="D19" s="240"/>
-      <c r="E19" s="240"/>
-      <c r="F19" s="240"/>
-      <c r="G19" s="240"/>
-      <c r="H19" s="240"/>
-      <c r="I19" s="241"/>
-      <c r="J19" s="241"/>
-      <c r="K19" s="242"/>
-    </row>
-    <row r="20" spans="1:12" s="236" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="237"/>
-      <c r="B20" s="238"/>
-      <c r="C20" s="243" t="s">
-        <v>296</v>
-      </c>
-      <c r="D20" s="240"/>
-      <c r="E20" s="240"/>
-      <c r="F20" s="240"/>
-      <c r="G20" s="240"/>
-      <c r="H20" s="240"/>
-      <c r="I20" s="241"/>
-      <c r="J20" s="241"/>
-      <c r="K20" s="242"/>
-    </row>
-    <row r="21" spans="1:12" s="236" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="237"/>
-      <c r="B21" s="238"/>
-      <c r="C21" s="243" t="s">
-        <v>297</v>
-      </c>
-      <c r="D21" s="240"/>
-      <c r="E21" s="240"/>
-      <c r="F21" s="240"/>
-      <c r="G21" s="240"/>
-      <c r="H21" s="240"/>
-      <c r="I21" s="241"/>
-      <c r="J21" s="241"/>
-      <c r="K21" s="242"/>
-    </row>
-    <row r="22" spans="1:12" s="236" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="237"/>
-      <c r="B22" s="237"/>
-      <c r="C22" s="243" t="s">
-        <v>294</v>
-      </c>
-      <c r="D22" s="240"/>
-      <c r="E22" s="240"/>
-      <c r="F22" s="240"/>
-      <c r="G22" s="240"/>
-      <c r="H22" s="240"/>
-      <c r="I22" s="241"/>
-      <c r="J22" s="241"/>
-      <c r="K22" s="242"/>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="171"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="17"/>
+      <c r="D23" s="235"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="236"/>
+      <c r="J23" s="236"/>
+      <c r="K23" s="237"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="170"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="173"/>
+      <c r="A24" s="166"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="168"/>
       <c r="I24" s="48"/>
       <c r="J24" s="48"/>
       <c r="K24" s="68"/>
       <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="167" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="173"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="168"/>
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
       <c r="K25" s="68"/>
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="167"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="169" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="173"/>
+      <c r="A26" s="162" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="168"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
       <c r="K26" s="68"/>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="1:12" s="154" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="174"/>
-      <c r="B27" s="175"/>
-      <c r="C27" s="176" t="s">
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="162"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="164" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="1:12" s="149" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="169"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="166"/>
-    </row>
-    <row r="28" spans="1:12" s="154" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="174"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176" t="s">
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="161"/>
+    </row>
+    <row r="29" spans="1:12" s="149" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="169"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="171" t="s">
         <v>226</v>
       </c>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="166"/>
-    </row>
-    <row r="29" spans="1:12" s="199" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="224" t="s">
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="161"/>
+    </row>
+    <row r="30" spans="1:12" s="194" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="219" t="s">
         <v>269</v>
       </c>
-      <c r="B29" s="225"/>
-      <c r="C29" s="209" t="s">
+      <c r="B30" s="220"/>
+      <c r="C30" s="204" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="221"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="207"/>
+    </row>
+    <row r="31" spans="1:12" s="194" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="204"/>
+      <c r="C31" s="204" t="s">
         <v>276</v>
       </c>
-      <c r="D29" s="209"/>
-      <c r="E29" s="209"/>
-      <c r="F29" s="209"/>
-      <c r="G29" s="209"/>
-      <c r="H29" s="226"/>
-      <c r="I29" s="211"/>
-      <c r="J29" s="211"/>
-      <c r="K29" s="212"/>
-    </row>
-    <row r="30" spans="1:12" s="199" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="209"/>
-      <c r="C30" s="209" t="s">
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="206"/>
+      <c r="J31" s="206"/>
+      <c r="K31" s="207"/>
+    </row>
+    <row r="32" spans="1:12" s="194" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="222"/>
+      <c r="B32" s="204"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="204" t="s">
         <v>277</v>
       </c>
-      <c r="D30" s="209"/>
-      <c r="E30" s="209"/>
-      <c r="F30" s="209"/>
-      <c r="G30" s="209"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="211"/>
-      <c r="J30" s="211"/>
-      <c r="K30" s="212"/>
-    </row>
-    <row r="31" spans="1:12" s="199" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="227"/>
-      <c r="B31" s="209"/>
-      <c r="C31" s="209"/>
-      <c r="D31" s="209" t="s">
-        <v>278</v>
-      </c>
-      <c r="E31" s="209"/>
-      <c r="F31" s="209"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="226"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="211"/>
-      <c r="K31" s="212"/>
-    </row>
-    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="170"/>
-      <c r="B32" s="169"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="1:12" s="236" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="244"/>
-      <c r="B33" s="238"/>
-      <c r="C33" s="239" t="s">
-        <v>295</v>
-      </c>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243" t="s">
+      <c r="E32" s="204"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="206"/>
+      <c r="K32" s="207"/>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="165"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="1:12" s="231" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="239"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="234" t="s">
+        <v>294</v>
+      </c>
+      <c r="D34" s="238"/>
+      <c r="E34" s="238" t="s">
+        <v>297</v>
+      </c>
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="236"/>
+      <c r="J34" s="236"/>
+      <c r="K34" s="237"/>
+    </row>
+    <row r="35" spans="1:12" s="231" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="239"/>
+      <c r="B35" s="233"/>
+      <c r="C35" s="240"/>
+      <c r="D35" s="238"/>
+      <c r="E35" s="238" t="s">
         <v>298</v>
       </c>
-      <c r="F33" s="240"/>
-      <c r="G33" s="240"/>
-      <c r="H33" s="240"/>
-      <c r="I33" s="241"/>
-      <c r="J33" s="241"/>
-      <c r="K33" s="242"/>
-    </row>
-    <row r="34" spans="1:12" s="236" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="244"/>
-      <c r="B34" s="238"/>
-      <c r="C34" s="245"/>
-      <c r="D34" s="243"/>
-      <c r="E34" s="243" t="s">
-        <v>299</v>
-      </c>
-      <c r="F34" s="240"/>
-      <c r="G34" s="240"/>
-      <c r="H34" s="240"/>
-      <c r="I34" s="241"/>
-      <c r="J34" s="241"/>
-      <c r="K34" s="242"/>
-    </row>
-    <row r="35" spans="1:12" s="252" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="246" t="s">
+      <c r="F35" s="235"/>
+      <c r="G35" s="235"/>
+      <c r="H35" s="235"/>
+      <c r="I35" s="236"/>
+      <c r="J35" s="236"/>
+      <c r="K35" s="237"/>
+    </row>
+    <row r="36" spans="1:12" s="247" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="241" t="s">
+        <v>300</v>
+      </c>
+      <c r="B36" s="242"/>
+      <c r="C36" s="243" t="s">
         <v>301</v>
       </c>
-      <c r="B35" s="247"/>
-      <c r="C35" s="248" t="s">
+      <c r="D36" s="244"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="245"/>
+      <c r="G36" s="245"/>
+      <c r="H36" s="245"/>
+      <c r="I36" s="246"/>
+      <c r="J36" s="246"/>
+      <c r="K36" s="246"/>
+    </row>
+    <row r="37" spans="1:12" s="247" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="241"/>
+      <c r="B37" s="242"/>
+      <c r="C37" s="243"/>
+      <c r="D37" s="244"/>
+      <c r="E37" s="244" t="s">
         <v>302</v>
       </c>
-      <c r="D35" s="249"/>
-      <c r="E35" s="249"/>
-      <c r="F35" s="250"/>
-      <c r="G35" s="250"/>
-      <c r="H35" s="250"/>
-      <c r="I35" s="251"/>
-      <c r="J35" s="251"/>
-      <c r="K35" s="251"/>
-    </row>
-    <row r="36" spans="1:12" s="252" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="246"/>
-      <c r="B36" s="247"/>
-      <c r="C36" s="248"/>
-      <c r="D36" s="249"/>
-      <c r="E36" s="249" t="s">
-        <v>303</v>
-      </c>
-      <c r="F36" s="250"/>
-      <c r="G36" s="250"/>
-      <c r="H36" s="250"/>
-      <c r="I36" s="251"/>
-      <c r="J36" s="251"/>
-      <c r="K36" s="251"/>
-    </row>
-    <row r="37" spans="1:12" s="272" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="273" t="s">
+      <c r="F37" s="245"/>
+      <c r="G37" s="245"/>
+      <c r="H37" s="245"/>
+      <c r="I37" s="246"/>
+      <c r="J37" s="246"/>
+      <c r="K37" s="246"/>
+    </row>
+    <row r="38" spans="1:12" s="426" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="427" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="274"/>
-      <c r="C37" s="361" t="s">
-        <v>318</v>
-      </c>
-      <c r="D37" s="361"/>
-      <c r="E37" s="361"/>
-      <c r="F37" s="361"/>
-      <c r="G37" s="361"/>
-      <c r="H37" s="361"/>
-      <c r="I37" s="361"/>
-      <c r="J37" s="361"/>
-      <c r="K37" s="361"/>
-    </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="167" t="s">
+      <c r="B38" s="428"/>
+      <c r="C38" s="429" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38" s="429"/>
+      <c r="E38" s="429"/>
+      <c r="F38" s="429"/>
+      <c r="G38" s="429"/>
+      <c r="H38" s="429"/>
+      <c r="I38" s="429"/>
+      <c r="J38" s="429"/>
+      <c r="K38" s="429"/>
+    </row>
+    <row r="39" spans="1:12" s="255" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="286" t="s">
+        <v>339</v>
+      </c>
+      <c r="B39" s="279"/>
+      <c r="C39" s="287" t="s">
+        <v>341</v>
+      </c>
+      <c r="D39" s="288"/>
+      <c r="E39" s="289"/>
+      <c r="F39" s="289"/>
+      <c r="G39" s="289"/>
+      <c r="H39" s="289"/>
+      <c r="I39" s="289"/>
+      <c r="J39" s="289"/>
+      <c r="K39" s="289"/>
+    </row>
+    <row r="40" spans="1:12" s="255" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="290"/>
+      <c r="B40" s="279"/>
+      <c r="C40" s="291" t="s">
+        <v>345</v>
+      </c>
+      <c r="D40" s="288"/>
+      <c r="E40" s="289"/>
+      <c r="F40" s="289"/>
+      <c r="G40" s="289"/>
+      <c r="H40" s="289"/>
+      <c r="I40" s="289"/>
+      <c r="J40" s="289"/>
+      <c r="K40" s="289"/>
+    </row>
+    <row r="41" spans="1:12" s="255" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="290"/>
+      <c r="B41" s="279"/>
+      <c r="C41" s="396" t="s">
+        <v>350</v>
+      </c>
+      <c r="D41" s="396"/>
+      <c r="E41" s="396"/>
+      <c r="F41" s="396"/>
+      <c r="G41" s="396"/>
+      <c r="H41" s="396"/>
+      <c r="I41" s="396"/>
+      <c r="J41" s="396"/>
+      <c r="K41" s="396"/>
+    </row>
+    <row r="42" spans="1:12" s="255" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="290"/>
+      <c r="B42" s="279"/>
+      <c r="C42" s="291" t="s">
+        <v>351</v>
+      </c>
+      <c r="D42" s="288"/>
+      <c r="E42" s="289"/>
+      <c r="F42" s="289"/>
+      <c r="G42" s="289"/>
+      <c r="H42" s="289"/>
+      <c r="I42" s="289"/>
+      <c r="J42" s="289"/>
+      <c r="K42" s="289"/>
+    </row>
+    <row r="43" spans="1:12" s="255" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="283"/>
+      <c r="B43" s="284"/>
+      <c r="C43" s="285"/>
+      <c r="D43" s="285"/>
+      <c r="E43" s="285"/>
+      <c r="F43" s="285"/>
+      <c r="G43" s="285"/>
+      <c r="H43" s="285"/>
+      <c r="I43" s="285"/>
+      <c r="J43" s="285"/>
+      <c r="K43" s="285"/>
+    </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="168"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="178"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="17"/>
-    </row>
-    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="171"/>
-      <c r="B39" s="168" t="s">
+      <c r="B44" s="163"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="173"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="168"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="166"/>
+      <c r="B45" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="178"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="169"/>
-      <c r="G39" s="169"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="171"/>
-      <c r="B40" s="171"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="178"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="171"/>
-      <c r="B41" s="168" t="s">
+      <c r="C45" s="17"/>
+      <c r="D45" s="173"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="166"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="173"/>
+      <c r="E46" s="164"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="166"/>
+      <c r="B47" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="169"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="169"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="1:12" s="199" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="213" t="s">
+      <c r="C47" s="17"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="17"/>
+    </row>
+    <row r="48" spans="1:12" s="194" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="208" t="s">
         <v>269</v>
       </c>
-      <c r="B42" s="214"/>
-      <c r="C42" s="215" t="s">
+      <c r="B48" s="209"/>
+      <c r="C48" s="210" t="s">
         <v>271</v>
       </c>
-      <c r="D42" s="216"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="211"/>
-      <c r="G42" s="211"/>
-      <c r="H42" s="211"/>
-      <c r="I42" s="211"/>
-      <c r="J42" s="211"/>
-      <c r="K42" s="211"/>
-    </row>
-    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="218" t="s">
+      <c r="D48" s="211"/>
+      <c r="E48" s="212"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="206"/>
+      <c r="H48" s="206"/>
+      <c r="I48" s="206"/>
+      <c r="J48" s="206"/>
+      <c r="K48" s="206"/>
+    </row>
+    <row r="49" spans="1:12" s="194" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="292"/>
+      <c r="B49" s="293"/>
+      <c r="C49" s="294"/>
+      <c r="D49" s="295"/>
+      <c r="E49" s="296"/>
+      <c r="F49" s="297"/>
+      <c r="G49" s="297"/>
+      <c r="H49" s="297"/>
+      <c r="I49" s="297"/>
+      <c r="J49" s="297"/>
+      <c r="K49" s="297"/>
+    </row>
+    <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="213" t="s">
+        <v>343</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="384"/>
+      <c r="G50" s="384"/>
+      <c r="H50" s="384"/>
+      <c r="I50" s="384"/>
+      <c r="J50" s="384"/>
+      <c r="K50" s="384"/>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="1:12" s="194" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="B51" s="215"/>
+      <c r="C51" s="204" t="s">
         <v>272</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="348"/>
-      <c r="G43" s="348"/>
-      <c r="H43" s="348"/>
-      <c r="I43" s="348"/>
-      <c r="J43" s="348"/>
-      <c r="K43" s="348"/>
-      <c r="L43" s="17"/>
-    </row>
-    <row r="44" spans="1:12" s="199" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="219" t="s">
+      <c r="D51" s="211"/>
+      <c r="E51" s="212"/>
+      <c r="F51" s="206"/>
+      <c r="G51" s="206"/>
+      <c r="H51" s="206"/>
+      <c r="I51" s="206"/>
+      <c r="J51" s="206"/>
+      <c r="K51" s="206"/>
+    </row>
+    <row r="52" spans="1:12" s="194" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="394" t="s">
+        <v>339</v>
+      </c>
+      <c r="B52" s="394"/>
+      <c r="C52" s="395" t="s">
+        <v>342</v>
+      </c>
+      <c r="D52" s="395"/>
+      <c r="E52" s="395"/>
+      <c r="F52" s="395"/>
+      <c r="G52" s="395"/>
+      <c r="H52" s="395"/>
+      <c r="I52" s="395"/>
+      <c r="J52" s="395"/>
+      <c r="K52" s="395"/>
+    </row>
+    <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="216"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="384"/>
+      <c r="G53" s="384"/>
+      <c r="H53" s="384"/>
+      <c r="I53" s="384"/>
+      <c r="J53" s="384"/>
+      <c r="K53" s="384"/>
+      <c r="L53" s="17"/>
+    </row>
+    <row r="54" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="217" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="384"/>
+      <c r="G54" s="384"/>
+      <c r="H54" s="384"/>
+      <c r="I54" s="384"/>
+      <c r="J54" s="384"/>
+      <c r="K54" s="384"/>
+      <c r="L54" s="17"/>
+    </row>
+    <row r="55" spans="1:12" s="194" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="218" t="s">
         <v>269</v>
       </c>
-      <c r="B44" s="220"/>
-      <c r="C44" s="209" t="s">
-        <v>273</v>
-      </c>
-      <c r="D44" s="216"/>
-      <c r="E44" s="217"/>
-      <c r="F44" s="211"/>
-      <c r="G44" s="211"/>
-      <c r="H44" s="211"/>
-      <c r="I44" s="211"/>
-      <c r="J44" s="211"/>
-      <c r="K44" s="211"/>
-    </row>
-    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="221"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="348"/>
-      <c r="G45" s="348"/>
-      <c r="H45" s="348"/>
-      <c r="I45" s="348"/>
-      <c r="J45" s="348"/>
-      <c r="K45" s="348"/>
-      <c r="L45" s="17"/>
-    </row>
-    <row r="46" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="222" t="s">
+      <c r="C55" s="194" t="s">
         <v>274</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="348"/>
-      <c r="G46" s="348"/>
-      <c r="H46" s="348"/>
-      <c r="I46" s="348"/>
-      <c r="J46" s="348"/>
-      <c r="K46" s="348"/>
-      <c r="L46" s="17"/>
-    </row>
-    <row r="47" spans="1:12" s="199" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="223" t="s">
-        <v>269</v>
-      </c>
-      <c r="C47" s="199" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="272" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="272" t="s">
-        <v>319</v>
-      </c>
-      <c r="C48" s="272" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-    </row>
-    <row r="50" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-    </row>
-    <row r="51" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-    </row>
-    <row r="52" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-    </row>
-    <row r="53" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-    </row>
-    <row r="54" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-    </row>
-    <row r="55" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
+      <c r="A56" s="394" t="s">
+        <v>339</v>
+      </c>
+      <c r="B56" s="394"/>
+      <c r="C56" s="395" t="s">
+        <v>342</v>
+      </c>
+      <c r="D56" s="395"/>
+      <c r="E56" s="395"/>
+      <c r="F56" s="395"/>
+      <c r="G56" s="395"/>
+      <c r="H56" s="395"/>
+      <c r="I56" s="395"/>
+      <c r="J56" s="395"/>
+      <c r="K56" s="395"/>
       <c r="L56" s="17"/>
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12201,15 +13086,132 @@
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
     </row>
+    <row r="60" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+    </row>
+    <row r="61" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+    </row>
+    <row r="62" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+    </row>
+    <row r="63" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+    </row>
+    <row r="64" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+    </row>
+    <row r="65" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+    </row>
+    <row r="66" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+    </row>
+    <row r="67" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="F46:K46"/>
+  <mergeCells count="10">
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="F53:K53"/>
+    <mergeCell ref="F54:K54"/>
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="C41:K41"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
       <formula1>"ASOFT - ERP.NET,ASOFT - ACC"</formula1>
     </dataValidation>
@@ -12225,7 +13227,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12244,11 +13246,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -12271,9 +13273,9 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="280"/>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -12643,12 +13645,12 @@
       <c r="C28" s="39"/>
       <c r="D28" s="42"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="348"/>
-      <c r="G28" s="348"/>
-      <c r="H28" s="348"/>
-      <c r="I28" s="348"/>
-      <c r="J28" s="348"/>
-      <c r="K28" s="348"/>
+      <c r="F28" s="384"/>
+      <c r="G28" s="384"/>
+      <c r="H28" s="384"/>
+      <c r="I28" s="384"/>
+      <c r="J28" s="384"/>
+      <c r="K28" s="384"/>
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -12657,12 +13659,12 @@
       <c r="C29" s="39"/>
       <c r="D29" s="42"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="348"/>
-      <c r="G29" s="348"/>
-      <c r="H29" s="348"/>
-      <c r="I29" s="348"/>
-      <c r="J29" s="348"/>
-      <c r="K29" s="348"/>
+      <c r="F29" s="384"/>
+      <c r="G29" s="384"/>
+      <c r="H29" s="384"/>
+      <c r="I29" s="384"/>
+      <c r="J29" s="384"/>
+      <c r="K29" s="384"/>
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -12671,12 +13673,12 @@
       <c r="C30" s="39"/>
       <c r="D30" s="42"/>
       <c r="E30" s="38"/>
-      <c r="F30" s="348"/>
-      <c r="G30" s="348"/>
-      <c r="H30" s="348"/>
-      <c r="I30" s="348"/>
-      <c r="J30" s="348"/>
-      <c r="K30" s="348"/>
+      <c r="F30" s="384"/>
+      <c r="G30" s="384"/>
+      <c r="H30" s="384"/>
+      <c r="I30" s="384"/>
+      <c r="J30" s="384"/>
+      <c r="K30" s="384"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12685,12 +13687,12 @@
       <c r="C31" s="39"/>
       <c r="D31" s="42"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="348"/>
-      <c r="G31" s="348"/>
-      <c r="H31" s="348"/>
-      <c r="I31" s="348"/>
-      <c r="J31" s="348"/>
-      <c r="K31" s="348"/>
+      <c r="F31" s="384"/>
+      <c r="G31" s="384"/>
+      <c r="H31" s="384"/>
+      <c r="I31" s="384"/>
+      <c r="J31" s="384"/>
+      <c r="K31" s="384"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12910,14 +13912,14 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
-      <c r="E2" s="362" t="s">
+      <c r="E2" s="397" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="362"/>
-      <c r="I2" s="362"/>
-      <c r="J2" s="362"/>
+      <c r="F2" s="397"/>
+      <c r="G2" s="397"/>
+      <c r="H2" s="397"/>
+      <c r="I2" s="397"/>
+      <c r="J2" s="397"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
@@ -13338,11 +14340,11 @@
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
-      <c r="E28" s="363" t="s">
+      <c r="E28" s="398" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="364"/>
-      <c r="G28" s="365"/>
+      <c r="F28" s="399"/>
+      <c r="G28" s="400"/>
       <c r="H28" s="78"/>
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>
